--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J697"/>
+  <dimension ref="A1:J702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23237,6 +23237,174 @@
       <c r="J697" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>385.39</v>
+      </c>
+      <c r="C698" t="n">
+        <v>370.06</v>
+      </c>
+      <c r="D698" t="n">
+        <v>383.0871428571429</v>
+      </c>
+      <c r="E698" t="n">
+        <v>390.1671428571429</v>
+      </c>
+      <c r="F698" t="n">
+        <v>383.7171428571429</v>
+      </c>
+      <c r="G698" t="n">
+        <v>378.5571428571428</v>
+      </c>
+      <c r="H698" t="n">
+        <v>369.7171428571429</v>
+      </c>
+      <c r="I698" t="n">
+        <v>357.2171428571428</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>392.79</v>
+      </c>
+      <c r="C699" t="n">
+        <v>368.79</v>
+      </c>
+      <c r="D699" t="n">
+        <v>381.2028571428572</v>
+      </c>
+      <c r="E699" t="n">
+        <v>388.9428571428572</v>
+      </c>
+      <c r="F699" t="n">
+        <v>386.7128571428572</v>
+      </c>
+      <c r="G699" t="n">
+        <v>375.7128571428572</v>
+      </c>
+      <c r="H699" t="n">
+        <v>362.5428571428571</v>
+      </c>
+      <c r="I699" t="n">
+        <v>363.8128571428572</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="C700" t="n">
+        <v>367.18</v>
+      </c>
+      <c r="D700" t="n">
+        <v>374.9771428571429</v>
+      </c>
+      <c r="E700" t="n">
+        <v>381.9671428571429</v>
+      </c>
+      <c r="F700" t="n">
+        <v>373.6671428571429</v>
+      </c>
+      <c r="G700" t="n">
+        <v>371.4471428571428</v>
+      </c>
+      <c r="H700" t="n">
+        <v>358.6071428571428</v>
+      </c>
+      <c r="I700" t="n">
+        <v>347.7671428571429</v>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>366.08</v>
+      </c>
+      <c r="C701" t="n">
+        <v>377.51</v>
+      </c>
+      <c r="D701" t="n">
+        <v>382.2428571428572</v>
+      </c>
+      <c r="E701" t="n">
+        <v>385.5028571428572</v>
+      </c>
+      <c r="F701" t="n">
+        <v>379.6228571428572</v>
+      </c>
+      <c r="G701" t="n">
+        <v>376.1928571428572</v>
+      </c>
+      <c r="H701" t="n">
+        <v>367.3428571428572</v>
+      </c>
+      <c r="I701" t="n">
+        <v>361.0828571428572</v>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="n">
+        <v>376.7085714285714</v>
+      </c>
+      <c r="G702" t="n">
+        <v>383.0085714285714</v>
+      </c>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23251,7 +23419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B708"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30339,6 +30507,56 @@
       </c>
       <c r="B708" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -30507,28 +30725,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2864667141220882</v>
+        <v>0.3544547598394607</v>
       </c>
       <c r="J2" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K2" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001087348073983141</v>
+        <v>0.001684781457934381</v>
       </c>
       <c r="M2" t="n">
-        <v>45.60500500280909</v>
+        <v>45.39045980018656</v>
       </c>
       <c r="N2" t="n">
-        <v>3943.8131871715</v>
+        <v>3928.185184924704</v>
       </c>
       <c r="O2" t="n">
-        <v>62.79978652170325</v>
+        <v>62.6752358186605</v>
       </c>
       <c r="P2" t="n">
-        <v>325.6085858796683</v>
+        <v>324.9305127884659</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30584,28 +30802,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7659358439790132</v>
+        <v>0.7855486830208855</v>
       </c>
       <c r="J3" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K3" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1620759174058037</v>
+        <v>0.1699229030707302</v>
       </c>
       <c r="M3" t="n">
-        <v>9.925030761638705</v>
+        <v>9.952546835378641</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2622152721751</v>
+        <v>160.5427507079414</v>
       </c>
       <c r="O3" t="n">
-        <v>12.65947136622122</v>
+        <v>12.67054658284091</v>
       </c>
       <c r="P3" t="n">
-        <v>337.6987235589052</v>
+        <v>337.5044593057698</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30661,28 +30879,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9752852370846153</v>
+        <v>0.9963525828151495</v>
       </c>
       <c r="J4" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2957775860813252</v>
+        <v>0.3054273219405934</v>
       </c>
       <c r="M4" t="n">
-        <v>8.741617021666402</v>
+        <v>8.782945221119597</v>
       </c>
       <c r="N4" t="n">
-        <v>122.6894648342745</v>
+        <v>123.3175663609009</v>
       </c>
       <c r="O4" t="n">
-        <v>11.07652765239515</v>
+        <v>11.10484427450025</v>
       </c>
       <c r="P4" t="n">
-        <v>341.4941212606843</v>
+        <v>341.2893731541932</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30738,28 +30956,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.08883264597325</v>
+        <v>1.09667526913765</v>
       </c>
       <c r="J5" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K5" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3567959055367409</v>
+        <v>0.3629922536082786</v>
       </c>
       <c r="M5" t="n">
-        <v>8.388767574423339</v>
+        <v>8.364659802449562</v>
       </c>
       <c r="N5" t="n">
-        <v>113.7236348478491</v>
+        <v>113.2048005951901</v>
       </c>
       <c r="O5" t="n">
-        <v>10.66412841482365</v>
+        <v>10.63977446166929</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3552618901589</v>
+        <v>353.2785789227674</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30815,28 +31033,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8745721081908499</v>
+        <v>0.8805555856018498</v>
       </c>
       <c r="J6" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K6" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2711759023376624</v>
+        <v>0.276881780259711</v>
       </c>
       <c r="M6" t="n">
-        <v>8.26991138582102</v>
+        <v>8.237970405984546</v>
       </c>
       <c r="N6" t="n">
-        <v>109.7075531491995</v>
+        <v>109.0682510796398</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47413734630206</v>
+        <v>10.44357463130511</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1973838024046</v>
+        <v>354.1387204070427</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30892,28 +31110,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4217565231882442</v>
+        <v>0.4258066825729519</v>
       </c>
       <c r="J7" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K7" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07674912321526162</v>
+        <v>0.0792956021872715</v>
       </c>
       <c r="M7" t="n">
-        <v>8.350432805891996</v>
+        <v>8.308949459617205</v>
       </c>
       <c r="N7" t="n">
-        <v>113.4856175610549</v>
+        <v>112.6911032351109</v>
       </c>
       <c r="O7" t="n">
-        <v>10.652962853641</v>
+        <v>10.61560658818472</v>
       </c>
       <c r="P7" t="n">
-        <v>363.8139139137058</v>
+        <v>363.7738958384433</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30969,28 +31187,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2830666323647315</v>
+        <v>0.2848819112532695</v>
       </c>
       <c r="J8" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K8" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03776676895490971</v>
+        <v>0.03872213486571796</v>
       </c>
       <c r="M8" t="n">
-        <v>8.142090145522463</v>
+        <v>8.113316685526069</v>
       </c>
       <c r="N8" t="n">
-        <v>108.3872646865783</v>
+        <v>107.7820376068119</v>
       </c>
       <c r="O8" t="n">
-        <v>10.41092045337867</v>
+        <v>10.38181282853875</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9963387294961</v>
+        <v>355.9785793354812</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31046,28 +31264,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5273306708121376</v>
+        <v>0.5226086488056459</v>
       </c>
       <c r="J9" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K9" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1378340117279976</v>
+        <v>0.1369839590447898</v>
       </c>
       <c r="M9" t="n">
-        <v>7.661266239922224</v>
+        <v>7.642093725157945</v>
       </c>
       <c r="N9" t="n">
-        <v>91.98667937887313</v>
+        <v>91.68637269060756</v>
       </c>
       <c r="O9" t="n">
-        <v>9.59096863611143</v>
+        <v>9.575300135797706</v>
       </c>
       <c r="P9" t="n">
-        <v>347.4969186778749</v>
+        <v>347.5436890060578</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31104,7 +31322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J697"/>
+  <dimension ref="A1:J702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62748,6 +62966,242 @@
         </is>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>-39.84125096123339,176.99851885364066</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>-39.84161139438469,176.99772647136726</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>-39.84215359913564,176.9971658136652</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>-39.84262662502015,176.99662159479757</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>-39.84316273580056,176.99616195710647</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>-39.843729278829784,176.99569359175177</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>-39.844341232247736,176.9953423954437</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>-39.844981660813346,176.99497768404933</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>-39.84129917707625,176.99857841207245</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>-39.841603119447655,176.99771624986707</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>-39.84214149958749,176.99715040928646</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>-39.84262022470394,176.9966099652532</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>-39.84317473249116,176.9961932674329</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>-39.843720197833704,176.9956625545769</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>-39.84432574580286,176.99526110419893</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>-39.844994659065115,176.99505279935747</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>-39.84108474661946,176.99831353866225</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>-39.841592629171664,176.99770329190574</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>-39.842101522443635,176.99709951297734</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>-39.842583757066926,176.9965437026739</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-39.84312248932617,176.99605691753231</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>-39.84370657860374,176.99561600662324</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>-39.84431725012755,176.99521650895585</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>-39.84496303749963,176.99487006274418</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>-39.841125143780786,176.9983634387222</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>-39.84165993631733,176.997786432186</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>-39.842148177731126,176.9971589114751</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>-39.84260224107819,176.99657728855183</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>-39.843146339736705,176.99611916485074</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>-39.84372173033794,176.9956677923919</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>-39.84433610711062,176.99531549260286</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>-39.844989279028084,176.99502170874285</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>-39.84313466911573,176.99608870561568</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>-39.843743490958744,176.99574216627073</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -30570,7 +30570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30661,35 +30661,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30748,27 +30753,28 @@
       <c r="P2" t="n">
         <v>324.9305127884659</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.9954171824518 -39.83873984464662, 177.00271729959618 -39.84464958314259)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.9954171824518</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.83873984464662</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>177.0027172995962</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.84464958314259</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.999067241024</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.8416947138946</v>
       </c>
     </row>
@@ -30825,27 +30831,28 @@
       <c r="P3" t="n">
         <v>337.5044593057698</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.99474817551376 -39.839200151272365, 177.00204829248165 -39.84510990434643)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.9947481755138</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.83920015127237</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>177.0020482924816</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.84510990434643</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.9983982339977</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.8421550278094</v>
       </c>
     </row>
@@ -30902,27 +30909,28 @@
       <c r="P4" t="n">
         <v>341.2893731541932</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.99403411818528 -39.83969363676056, 177.0014493196044 -39.84551787238656)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.9940341181853</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.83969363676056</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>177.0014493196044</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.84551787238656</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.9977417188948</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.84260575457355</v>
       </c>
     </row>
@@ -30979,27 +30987,28 @@
       <c r="P5" t="n">
         <v>353.2785789227674</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.99291548699793 -39.84058684583601, 177.00153342493746 -39.84532963044095)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.9929154869979</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.84058684583601</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>177.0015334249375</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.84532963044095</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.9972244559677</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.84295823813848</v>
       </c>
     </row>
@@ -31056,27 +31065,28 @@
       <c r="P6" t="n">
         <v>354.1387204070427</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.9921515441209 -39.84162602062967, 177.00163553568984 -39.845259763951695)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.9921515441209</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.84162602062967</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>177.0016355356898</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.8452597639517</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.9968935399054</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.84344289229068</v>
       </c>
     </row>
@@ -31133,27 +31143,28 @@
       <c r="P7" t="n">
         <v>363.7738958384433</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.99156279927624 -39.84252057657867, 177.0014655179909 -39.84541786422827)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.9915627992762</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.84252057657867</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>177.0014655179909</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.84541786422827</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.9965141586336</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.84396922040347</v>
       </c>
     </row>
@@ -31210,27 +31221,28 @@
       <c r="P8" t="n">
         <v>355.9785793354812</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (176.99115320261518 -39.84354308240338, 177.0014369169468 -39.845502087896165)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>176.9911532026152</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-39.84354308240338</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>177.0014369169468</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-39.84550208789616</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>176.996295059781</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-39.84452258514978</v>
       </c>
     </row>
@@ -31287,27 +31299,28 @@
       <c r="P9" t="n">
         <v>347.5436890060578</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (176.99090955243076 -39.8442776137971, 177.00124563348032 -39.84606610441406)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>176.9909095524308</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-39.8442776137971</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>177.0012456334803</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-39.84606610441406</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>176.9960775929555</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-39.84517185910558</v>
       </c>
     </row>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23405,6 +23405,258 @@
       <c r="J702" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>378.05</v>
+      </c>
+      <c r="C703" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="D703" t="n">
+        <v>367.5857142857143</v>
+      </c>
+      <c r="E703" t="n">
+        <v>380.6057142857143</v>
+      </c>
+      <c r="F703" t="n">
+        <v>375.8657142857143</v>
+      </c>
+      <c r="G703" t="n">
+        <v>371.3757142857143</v>
+      </c>
+      <c r="H703" t="n">
+        <v>358.0557142857143</v>
+      </c>
+      <c r="I703" t="n">
+        <v>353.7257142857143</v>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>369.81</v>
+      </c>
+      <c r="C704" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="D704" t="n">
+        <v>355.8514285714285</v>
+      </c>
+      <c r="E704" t="n">
+        <v>362.8814285714286</v>
+      </c>
+      <c r="F704" t="n">
+        <v>361.5114285714286</v>
+      </c>
+      <c r="G704" t="n">
+        <v>363.0514285714286</v>
+      </c>
+      <c r="H704" t="n">
+        <v>348.4914285714286</v>
+      </c>
+      <c r="I704" t="n">
+        <v>346.7714285714285</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>363.99</v>
+      </c>
+      <c r="C705" t="n">
+        <v>360.05</v>
+      </c>
+      <c r="D705" t="n">
+        <v>362.4657142857143</v>
+      </c>
+      <c r="E705" t="n">
+        <v>371.7657142857143</v>
+      </c>
+      <c r="F705" t="n">
+        <v>367.8557142857143</v>
+      </c>
+      <c r="G705" t="n">
+        <v>368.8357142857143</v>
+      </c>
+      <c r="H705" t="n">
+        <v>361.2357142857143</v>
+      </c>
+      <c r="I705" t="n">
+        <v>355.6557142857143</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>356.39</v>
+      </c>
+      <c r="C706" t="n">
+        <v>364.53</v>
+      </c>
+      <c r="D706" t="n">
+        <v>359.7685714285714</v>
+      </c>
+      <c r="E706" t="n">
+        <v>372.9485714285714</v>
+      </c>
+      <c r="F706" t="n">
+        <v>364.8485714285715</v>
+      </c>
+      <c r="G706" t="n">
+        <v>368.0885714285714</v>
+      </c>
+      <c r="H706" t="n">
+        <v>381.4985714285714</v>
+      </c>
+      <c r="I706" t="n">
+        <v>366.8785714285714</v>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>385.8200000000001</v>
+      </c>
+      <c r="C707" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="D707" t="n">
+        <v>370.5985714285715</v>
+      </c>
+      <c r="E707" t="n">
+        <v>386.0585714285714</v>
+      </c>
+      <c r="F707" t="n">
+        <v>379.8285714285714</v>
+      </c>
+      <c r="G707" t="n">
+        <v>383.8985714285715</v>
+      </c>
+      <c r="H707" t="n">
+        <v>369.0985714285715</v>
+      </c>
+      <c r="I707" t="n">
+        <v>366.0485714285714</v>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>376.05</v>
+      </c>
+      <c r="C708" t="n">
+        <v>367.61</v>
+      </c>
+      <c r="D708" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="E708" t="n">
+        <v>383.51</v>
+      </c>
+      <c r="F708" t="n">
+        <v>377.41</v>
+      </c>
+      <c r="G708" t="n">
+        <v>379.29</v>
+      </c>
+      <c r="H708" t="n">
+        <v>367.43</v>
+      </c>
+      <c r="I708" t="n">
+        <v>362.52</v>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>387.79</v>
+      </c>
+      <c r="C709" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="D709" t="n">
+        <v>377.4242857142857</v>
+      </c>
+      <c r="E709" t="n">
+        <v>390.9742857142857</v>
+      </c>
+      <c r="F709" t="n">
+        <v>384.1942857142857</v>
+      </c>
+      <c r="G709" t="n">
+        <v>390.4542857142857</v>
+      </c>
+      <c r="H709" t="n">
+        <v>372.9342857142857</v>
+      </c>
+      <c r="I709" t="n">
+        <v>367.1542857142857</v>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30557,6 +30809,76 @@
       </c>
       <c r="B713" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -30730,28 +31052,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3544547598394607</v>
+        <v>0.4622702535597262</v>
       </c>
       <c r="J2" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001684781457934381</v>
+        <v>0.002928730386800638</v>
       </c>
       <c r="M2" t="n">
-        <v>45.39045980018656</v>
+        <v>45.0055222171291</v>
       </c>
       <c r="N2" t="n">
-        <v>3928.185184924704</v>
+        <v>3896.488930384703</v>
       </c>
       <c r="O2" t="n">
-        <v>62.6752358186605</v>
+        <v>62.42186259945071</v>
       </c>
       <c r="P2" t="n">
-        <v>324.9305127884659</v>
+        <v>323.8440196714687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30808,28 +31130,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7855486830208855</v>
+        <v>0.79923523241846</v>
       </c>
       <c r="J3" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K3" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1699229030707302</v>
+        <v>0.1777511238913118</v>
       </c>
       <c r="M3" t="n">
-        <v>9.952546835378641</v>
+        <v>9.927735434937741</v>
       </c>
       <c r="N3" t="n">
-        <v>160.5427507079414</v>
+        <v>159.5473973426459</v>
       </c>
       <c r="O3" t="n">
-        <v>12.67054658284091</v>
+        <v>12.63120727969603</v>
       </c>
       <c r="P3" t="n">
-        <v>337.5044593057698</v>
+        <v>337.3674520829779</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30886,28 +31208,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9963525828151495</v>
+        <v>0.9944867332054295</v>
       </c>
       <c r="J4" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K4" t="n">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3054273219405934</v>
+        <v>0.3095012954939453</v>
       </c>
       <c r="M4" t="n">
-        <v>8.782945221119597</v>
+        <v>8.740648046923333</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3175663609009</v>
+        <v>122.2727832094628</v>
       </c>
       <c r="O4" t="n">
-        <v>11.10484427450025</v>
+        <v>11.05770243809548</v>
       </c>
       <c r="P4" t="n">
-        <v>341.2893731541932</v>
+        <v>341.3074391626229</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30964,28 +31286,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.09667526913765</v>
+        <v>1.089488553905533</v>
       </c>
       <c r="J5" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K5" t="n">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3629922536082786</v>
+        <v>0.3637996322362029</v>
       </c>
       <c r="M5" t="n">
-        <v>8.364659802449562</v>
+        <v>8.35907472896937</v>
       </c>
       <c r="N5" t="n">
-        <v>113.2048005951901</v>
+        <v>112.897716429015</v>
       </c>
       <c r="O5" t="n">
-        <v>10.63977446166929</v>
+        <v>10.62533370906604</v>
       </c>
       <c r="P5" t="n">
-        <v>353.2785789227674</v>
+        <v>353.3493115400267</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31042,28 +31364,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8805555856018498</v>
+        <v>0.8722676075496388</v>
       </c>
       <c r="J6" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K6" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L6" t="n">
-        <v>0.276881780259711</v>
+        <v>0.2764325916298409</v>
       </c>
       <c r="M6" t="n">
-        <v>8.237970405984546</v>
+        <v>8.223543534164337</v>
       </c>
       <c r="N6" t="n">
-        <v>109.0682510796398</v>
+        <v>108.6398327465074</v>
       </c>
       <c r="O6" t="n">
-        <v>10.44357463130511</v>
+        <v>10.42304335338328</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1387204070427</v>
+        <v>354.2207817970819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31120,28 +31442,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4258066825729519</v>
+        <v>0.4265840488069909</v>
       </c>
       <c r="J7" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K7" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0792956021872715</v>
+        <v>0.080741067388577</v>
       </c>
       <c r="M7" t="n">
-        <v>8.308949459617205</v>
+        <v>8.306470369402799</v>
       </c>
       <c r="N7" t="n">
-        <v>112.6911032351109</v>
+        <v>112.3348213784373</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61560658818472</v>
+        <v>10.59881226262817</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7738958384433</v>
+        <v>363.7658042683154</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31198,28 +31520,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2848819112532695</v>
+        <v>0.2901883183295093</v>
       </c>
       <c r="J8" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K8" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03872213486571796</v>
+        <v>0.0406538519985653</v>
       </c>
       <c r="M8" t="n">
-        <v>8.113316685526069</v>
+        <v>8.117814700211897</v>
       </c>
       <c r="N8" t="n">
-        <v>107.7820376068119</v>
+        <v>107.7299001314283</v>
       </c>
       <c r="O8" t="n">
-        <v>10.38181282853875</v>
+        <v>10.37930152425626</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9785793354812</v>
+        <v>355.9255974651415</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31276,28 +31598,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5226086488056459</v>
+        <v>0.5200523871258339</v>
       </c>
       <c r="J9" t="n">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K9" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1369839590447898</v>
+        <v>0.1379686972237669</v>
       </c>
       <c r="M9" t="n">
-        <v>7.642093725157945</v>
+        <v>7.627981059201951</v>
       </c>
       <c r="N9" t="n">
-        <v>91.68637269060756</v>
+        <v>91.23959867270079</v>
       </c>
       <c r="O9" t="n">
-        <v>9.575300135797706</v>
+        <v>9.55194214140249</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5436890060578</v>
+        <v>347.5688658430873</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31335,7 +31657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63215,6 +63537,370 @@
         </is>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-39.84120313629509,176.99845977819788</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>-39.84155366527485,176.99765516236997</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>-39.84205405987208,176.99703908682596</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>-39.8425766397862,176.99653077041938</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-39.843131293787465,176.99607989632892</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>-39.843706350552154,176.9956152271868</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>-39.844316059806474,176.99521026076647</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>-39.84497478019365,176.99493792191652</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-39.841149447222406,176.99839345927046</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>-39.841472218928224,176.9975545573298</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>-39.84197871044316,176.99694315727052</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>-39.8424839805629,176.99636240708853</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-39.84307381012129,176.99592986982273</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>-39.843679773384,176.99552439169545</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>-39.84429541415614,176.99510188870397</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-39.844961075218556,176.9948587230571</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-39.84111152603076,176.99834661756637</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>-39.841546172215146,176.99764590669628</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>-39.84202118280103,176.9969972300279</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>-39.84253042596681,176.9964467990339</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-39.843099216691606,176.99599617828395</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>-39.84369824103461,176.99558751042966</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>-39.84432292419216,176.99524629307356</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-39.844978583680344,176.99495990171985</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-39.84106200691618,176.99828544978342</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-39.841575362564704,176.997681963593</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>-39.842003863622736,176.99697518048075</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>-39.84253660972027,176.99645803501767</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-39.84308717417684,176.99596474857518</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>-39.84369585561278,176.99557935752645</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>-39.84436666356362,176.99547588991723</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>-39.845000700687265,176.9950877132604</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:17+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-39.84125376296575,176.99852231446616</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>-39.841590153205665,176.99770023350553</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>-39.842073406332446,176.99706371742147</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-39.84260514624101,176.99658256730353</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>-39.84314716354493,176.9961213149148</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>-39.84374633246977,176.99575187805902</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>-39.84433989699904,176.99533538646017</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>-39.84499906500219,176.9950782608006</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-39.84119010497079,176.9984436813613</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>-39.84159543092256,176.9977067527273</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>-39.84206243508301,176.9970497495714</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>-39.84259182281861,176.99655835832755</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-39.84313747807478,176.99609603673457</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>-39.84373161863297,176.99570158877495</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>-39.84433629521746,176.99531648001152</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>-39.844992111220286,176.9950380756488</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-39.84126659880789,176.99853816987962</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-39.84163400385305,176.9977543994159</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>-39.84211723627125,176.99711951879348</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>-39.8426308445978,176.99662926188458</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-39.843164646575914,176.99616694406288</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-39.843767262931486,176.99582341483384</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>-39.84434817676738,176.9953788486368</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>-39.84500124403859,176.99509085323422</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J709"/>
+  <dimension ref="A1:J713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23655,6 +23655,148 @@
         <v>367.1542857142857</v>
       </c>
       <c r="J709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>362.19</v>
+      </c>
+      <c r="C710" t="n">
+        <v>364.31</v>
+      </c>
+      <c r="D710" t="n">
+        <v>372.9171428571429</v>
+      </c>
+      <c r="E710" t="n">
+        <v>382.8671428571428</v>
+      </c>
+      <c r="F710" t="n">
+        <v>383.4171428571429</v>
+      </c>
+      <c r="G710" t="n">
+        <v>375.5171428571429</v>
+      </c>
+      <c r="H710" t="n">
+        <v>372.2571428571428</v>
+      </c>
+      <c r="I710" t="n">
+        <v>371.6771428571428</v>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>367.34</v>
+      </c>
+      <c r="C711" t="n">
+        <v>369.04</v>
+      </c>
+      <c r="D711" t="n">
+        <v>378.21</v>
+      </c>
+      <c r="E711" t="n">
+        <v>392.27</v>
+      </c>
+      <c r="F711" t="n">
+        <v>383.96</v>
+      </c>
+      <c r="G711" t="n">
+        <v>387.08</v>
+      </c>
+      <c r="H711" t="n">
+        <v>373.85</v>
+      </c>
+      <c r="I711" t="n">
+        <v>371.41</v>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>367.62</v>
+      </c>
+      <c r="C712" t="n">
+        <v>369.37</v>
+      </c>
+      <c r="D712" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="E712" t="n">
+        <v>390.62</v>
+      </c>
+      <c r="F712" t="n">
+        <v>389.05</v>
+      </c>
+      <c r="G712" t="n">
+        <v>387.95</v>
+      </c>
+      <c r="H712" t="n">
+        <v>379.43</v>
+      </c>
+      <c r="I712" t="n">
+        <v>373.48</v>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="n">
+        <v>376.68</v>
+      </c>
+      <c r="D713" t="n">
+        <v>373.5128571428572</v>
+      </c>
+      <c r="E713" t="n">
+        <v>383.6528571428572</v>
+      </c>
+      <c r="F713" t="n">
+        <v>386.5528571428572</v>
+      </c>
+      <c r="G713" t="n">
+        <v>399.0728571428572</v>
+      </c>
+      <c r="H713" t="n">
+        <v>396.3628571428572</v>
+      </c>
+      <c r="I713" t="n">
+        <v>371.5828571428572</v>
+      </c>
+      <c r="J713" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23671,7 +23813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30879,6 +31021,46 @@
       </c>
       <c r="B720" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -31052,28 +31234,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4622702535597262</v>
+        <v>0.4967158416124881</v>
       </c>
       <c r="J2" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K2" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002928730386800638</v>
+        <v>0.003416688894841924</v>
       </c>
       <c r="M2" t="n">
-        <v>45.0055222171291</v>
+        <v>44.81779978096738</v>
       </c>
       <c r="N2" t="n">
-        <v>3896.488930384703</v>
+        <v>3878.720267303122</v>
       </c>
       <c r="O2" t="n">
-        <v>62.42186259945071</v>
+        <v>62.27937272727722</v>
       </c>
       <c r="P2" t="n">
-        <v>323.8440196714687</v>
+        <v>323.4946763437424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31130,28 +31312,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.79923523241846</v>
+        <v>0.8157371132112721</v>
       </c>
       <c r="J3" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K3" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1777511238913118</v>
+        <v>0.1849803210187235</v>
       </c>
       <c r="M3" t="n">
-        <v>9.927735434937741</v>
+        <v>9.938172699080932</v>
       </c>
       <c r="N3" t="n">
-        <v>159.5473973426459</v>
+        <v>159.5326723037087</v>
       </c>
       <c r="O3" t="n">
-        <v>12.63120727969603</v>
+        <v>12.63062438297128</v>
       </c>
       <c r="P3" t="n">
-        <v>337.3674520829779</v>
+        <v>337.2014389455265</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31208,28 +31390,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9944867332054295</v>
+        <v>1.009388100780199</v>
       </c>
       <c r="J4" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3095012954939453</v>
+        <v>0.3176133036860217</v>
       </c>
       <c r="M4" t="n">
-        <v>8.740648046923333</v>
+        <v>8.752526575732505</v>
       </c>
       <c r="N4" t="n">
-        <v>122.2727832094628</v>
+        <v>122.2849750893461</v>
       </c>
       <c r="O4" t="n">
-        <v>11.05770243809548</v>
+        <v>11.05825370885232</v>
       </c>
       <c r="P4" t="n">
-        <v>341.3074391626229</v>
+        <v>341.1601591880438</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31286,28 +31468,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.089488553905533</v>
+        <v>1.097595601020554</v>
       </c>
       <c r="J5" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K5" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3637996322362029</v>
+        <v>0.3699510928289975</v>
       </c>
       <c r="M5" t="n">
-        <v>8.35907472896937</v>
+        <v>8.337238226408045</v>
       </c>
       <c r="N5" t="n">
-        <v>112.897716429015</v>
+        <v>112.4663102430853</v>
       </c>
       <c r="O5" t="n">
-        <v>10.62533370906604</v>
+        <v>10.60501344851035</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3493115400267</v>
+        <v>353.2686008971221</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31364,28 +31546,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8722676075496388</v>
+        <v>0.8840202854649444</v>
       </c>
       <c r="J6" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K6" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2764325916298409</v>
+        <v>0.2835734757108727</v>
       </c>
       <c r="M6" t="n">
-        <v>8.223543534164337</v>
+        <v>8.224821277300515</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6398327465074</v>
+        <v>108.4805924112107</v>
       </c>
       <c r="O6" t="n">
-        <v>10.42304335338328</v>
+        <v>10.41540169226375</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2207817970819</v>
+        <v>354.1032376638292</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31442,28 +31624,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4265840488069909</v>
+        <v>0.4429939773823822</v>
       </c>
       <c r="J7" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K7" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.080741067388577</v>
+        <v>0.08656501744536638</v>
       </c>
       <c r="M7" t="n">
-        <v>8.306470369402799</v>
+        <v>8.328275256176681</v>
       </c>
       <c r="N7" t="n">
-        <v>112.3348213784373</v>
+        <v>113.0932832746145</v>
       </c>
       <c r="O7" t="n">
-        <v>10.59881226262817</v>
+        <v>10.63453258373938</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7658042683154</v>
+        <v>363.6012324370923</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31520,28 +31702,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2901883183295093</v>
+        <v>0.3127053610412354</v>
       </c>
       <c r="J8" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K8" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0406538519985653</v>
+        <v>0.04649138816840859</v>
       </c>
       <c r="M8" t="n">
-        <v>8.117814700211897</v>
+        <v>8.174660578606161</v>
       </c>
       <c r="N8" t="n">
-        <v>107.7299001314283</v>
+        <v>109.5423637255059</v>
       </c>
       <c r="O8" t="n">
-        <v>10.37930152425626</v>
+        <v>10.46624878958579</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9255974651415</v>
+        <v>355.7006277438323</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31598,28 +31780,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5200523871258339</v>
+        <v>0.534734600757121</v>
       </c>
       <c r="J9" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K9" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1379686972237669</v>
+        <v>0.1453799260013661</v>
       </c>
       <c r="M9" t="n">
-        <v>7.627981059201951</v>
+        <v>7.651022304840681</v>
       </c>
       <c r="N9" t="n">
-        <v>91.23959867270079</v>
+        <v>91.43883629311028</v>
       </c>
       <c r="O9" t="n">
-        <v>9.55194214140249</v>
+        <v>9.562365622224988</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5688658430873</v>
+        <v>347.4214620104065</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31657,7 +31839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J709"/>
+  <dimension ref="A1:J713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63901,6 +64083,210 @@
         </is>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-39.841099797822764,176.9983321304519</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-39.84157392911034,176.99768019294112</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>-39.84208829457169,176.99708267212816</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>-39.84258846208899,176.99655225180481</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-39.84316153441474,176.99615882159512</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>-39.843719572973285,176.99566041892024</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>-39.84434671508883,176.99537117598373</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-39.84501015723993,176.99514236182648</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:47+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-39.84113335352345,176.9983735797093</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-39.84160474837235,176.9977182619732</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-39.84212228157407,176.9971259421456</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>-39.84263761832572,176.9966415699359</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-39.843163708350914,176.99616449537766</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>-39.84375648983844,176.99578659420072</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>-39.84435015342467,176.99538922452464</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>-39.84500963078175,176.99513931946774</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-39.84113517791058,176.99837583326232</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>-39.841606898552875,176.99772091795344</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>-39.84216106617936,176.99717532023675</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>-39.84262899246467,176.99662589650822</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>-39.843184091848656,176.99621769457127</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>-39.84375926749147,176.9957960877499</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>-39.84436219837015,176.99545245108501</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>-39.84501371012662,176.9951628936817</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>-39.84165452829169,176.9977797519832</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>-39.84209211983036,176.99708754219276</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>-39.84259256964738,176.9965597153327</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>-39.843174091752545,176.9961915951596</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>-39.843794779416804,176.99591746182548</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>-39.844398749288196,176.995644316135</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>-39.84500997143117,176.9951412880528</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J713"/>
+  <dimension ref="A1:J716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23774,7 +23774,9 @@
           <t>2025-05-24 21:53:57+00:00</t>
         </is>
       </c>
-      <c r="B713" t="inlineStr"/>
+      <c r="B713" t="n">
+        <v>325.84</v>
+      </c>
       <c r="C713" t="n">
         <v>376.68</v>
       </c>
@@ -23797,6 +23799,112 @@
         <v>371.5828571428572</v>
       </c>
       <c r="J713" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:41+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>208.14</v>
+      </c>
+      <c r="C714" t="n">
+        <v>356.01</v>
+      </c>
+      <c r="D714" t="n">
+        <v>366.2471428571428</v>
+      </c>
+      <c r="E714" t="n">
+        <v>376.5571428571428</v>
+      </c>
+      <c r="F714" t="n">
+        <v>380.5871428571429</v>
+      </c>
+      <c r="G714" t="n">
+        <v>372.9471428571428</v>
+      </c>
+      <c r="H714" t="n">
+        <v>365.7671428571429</v>
+      </c>
+      <c r="I714" t="n">
+        <v>366.9571428571429</v>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>195.24</v>
+      </c>
+      <c r="C715" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="D715" t="n">
+        <v>364.7271428571429</v>
+      </c>
+      <c r="E715" t="n">
+        <v>377.9271428571428</v>
+      </c>
+      <c r="F715" t="n">
+        <v>379.2371428571428</v>
+      </c>
+      <c r="G715" t="n">
+        <v>380.1771428571428</v>
+      </c>
+      <c r="H715" t="n">
+        <v>374.6171428571428</v>
+      </c>
+      <c r="I715" t="n">
+        <v>371.3571428571428</v>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="n">
+        <v>353.57</v>
+      </c>
+      <c r="D716" t="n">
+        <v>357.9157142857143</v>
+      </c>
+      <c r="E716" t="n">
+        <v>368.5757142857143</v>
+      </c>
+      <c r="F716" t="n">
+        <v>365.7157142857143</v>
+      </c>
+      <c r="G716" t="n">
+        <v>368.5457142857143</v>
+      </c>
+      <c r="H716" t="n">
+        <v>357.9257142857143</v>
+      </c>
+      <c r="I716" t="n">
+        <v>359.0957142857143</v>
+      </c>
+      <c r="J716" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23813,7 +23921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B724"/>
+  <dimension ref="A1:B727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31061,6 +31169,36 @@
       </c>
       <c r="B724" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -31234,28 +31372,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4967158416124881</v>
+        <v>0.3909115798211796</v>
       </c>
       <c r="J2" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K2" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003416688894841924</v>
+        <v>0.002106100247998621</v>
       </c>
       <c r="M2" t="n">
-        <v>44.81779978096738</v>
+        <v>45.39349700508772</v>
       </c>
       <c r="N2" t="n">
-        <v>3878.720267303122</v>
+        <v>3926.360796701457</v>
       </c>
       <c r="O2" t="n">
-        <v>62.27937272727722</v>
+        <v>62.66067982955066</v>
       </c>
       <c r="P2" t="n">
-        <v>323.4946763437424</v>
+        <v>324.5703114362613</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31312,28 +31450,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8157371132112721</v>
+        <v>0.8137673067887436</v>
       </c>
       <c r="J3" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K3" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1849803210187235</v>
+        <v>0.1858629160818838</v>
       </c>
       <c r="M3" t="n">
-        <v>9.938172699080932</v>
+        <v>9.900114635579452</v>
       </c>
       <c r="N3" t="n">
-        <v>159.5326723037087</v>
+        <v>158.7334771093477</v>
       </c>
       <c r="O3" t="n">
-        <v>12.63062438297128</v>
+        <v>12.5989474603773</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2014389455265</v>
+        <v>337.221309237453</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31390,28 +31528,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>1.009388100780199</v>
+        <v>1.004799856617112</v>
       </c>
       <c r="J4" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K4" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3176133036860217</v>
+        <v>0.3178289205054399</v>
       </c>
       <c r="M4" t="n">
-        <v>8.752526575732505</v>
+        <v>8.726476812232708</v>
       </c>
       <c r="N4" t="n">
-        <v>122.2849750893461</v>
+        <v>121.7679615961278</v>
       </c>
       <c r="O4" t="n">
-        <v>11.05825370885232</v>
+        <v>11.03485213295257</v>
       </c>
       <c r="P4" t="n">
-        <v>341.1601591880438</v>
+        <v>341.2056439411841</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31468,28 +31606,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.097595601020554</v>
+        <v>1.090211539343503</v>
       </c>
       <c r="J5" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K5" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3699510928289975</v>
+        <v>0.3686127141134306</v>
       </c>
       <c r="M5" t="n">
-        <v>8.337238226408045</v>
+        <v>8.335253861258181</v>
       </c>
       <c r="N5" t="n">
-        <v>112.4663102430853</v>
+        <v>112.2389669215661</v>
       </c>
       <c r="O5" t="n">
-        <v>10.60501344851035</v>
+        <v>10.59428935424958</v>
       </c>
       <c r="P5" t="n">
-        <v>353.2686008971221</v>
+        <v>353.3423146822481</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31546,28 +31684,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8840202854649444</v>
+        <v>0.8823180770738202</v>
       </c>
       <c r="J6" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K6" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2835734757108727</v>
+        <v>0.2844308258381367</v>
       </c>
       <c r="M6" t="n">
-        <v>8.224821277300515</v>
+        <v>8.212865156764497</v>
       </c>
       <c r="N6" t="n">
-        <v>108.4805924112107</v>
+        <v>108.1774779934132</v>
       </c>
       <c r="O6" t="n">
-        <v>10.41540169226375</v>
+        <v>10.40084025420125</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1032376638292</v>
+        <v>354.1203384889446</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31624,28 +31762,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4429939773823822</v>
+        <v>0.4418802328718193</v>
       </c>
       <c r="J7" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K7" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08656501744536638</v>
+        <v>0.08689742098168973</v>
       </c>
       <c r="M7" t="n">
-        <v>8.328275256176681</v>
+        <v>8.310032728536903</v>
       </c>
       <c r="N7" t="n">
-        <v>113.0932832746145</v>
+        <v>112.650977945588</v>
       </c>
       <c r="O7" t="n">
-        <v>10.63453258373938</v>
+        <v>10.61371650015149</v>
       </c>
       <c r="P7" t="n">
-        <v>363.6012324370923</v>
+        <v>363.6124418021797</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31702,28 +31840,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3127053610412354</v>
+        <v>0.3149744050562449</v>
       </c>
       <c r="J8" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K8" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04649138816840859</v>
+        <v>0.04750417706263899</v>
       </c>
       <c r="M8" t="n">
-        <v>8.174660578606161</v>
+        <v>8.164587628845222</v>
       </c>
       <c r="N8" t="n">
-        <v>109.5423637255059</v>
+        <v>109.2519790242674</v>
       </c>
       <c r="O8" t="n">
-        <v>10.46624878958579</v>
+        <v>10.45236714932399</v>
       </c>
       <c r="P8" t="n">
-        <v>355.7006277438323</v>
+        <v>355.6779387898624</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31780,28 +31918,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.534734600757121</v>
+        <v>0.5392298344287056</v>
       </c>
       <c r="J9" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K9" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1453799260013661</v>
+        <v>0.1484779469683658</v>
       </c>
       <c r="M9" t="n">
-        <v>7.651022304840681</v>
+        <v>7.642724693366301</v>
       </c>
       <c r="N9" t="n">
-        <v>91.43883629311028</v>
+        <v>91.20988521311513</v>
       </c>
       <c r="O9" t="n">
-        <v>9.562365622224988</v>
+        <v>9.550386652545285</v>
       </c>
       <c r="P9" t="n">
-        <v>347.4214620104065</v>
+        <v>347.3762441412761</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31839,7 +31977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J713"/>
+  <dimension ref="A1:J716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48819,7 +48957,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>-39.843101224730006,176.99600141905825</t>
+          <t>-39.84310122473,176.99600141905825</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -64245,7 +64383,11 @@
           <t>2025-05-24 21:53:57+00:00</t>
         </is>
       </c>
-      <c r="B713" t="inlineStr"/>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-39.84086295273336,176.99803957228468</t>
+        </is>
+      </c>
       <c r="C713" t="inlineStr">
         <is>
           <t>-39.84165452829169,176.9977797519832</t>
@@ -64282,6 +64424,158 @@
         </is>
       </c>
       <c r="J713" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:41+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-39.840096050992344,176.99709229327743</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>-39.84151984876391,176.99761339112825</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>-39.842045464501105,176.997028143792</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>-39.84255547464193,176.9964923129224</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>-39.843150201337345,176.9961292432763</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>-39.8437113676855,176.99563237478986</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>-39.844332705767556,176.99529763831273</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>-39.845000855528326,176.99508860807157</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-39.840011997500255,176.99698847214364</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>-39.8415425885776,176.99764148007046</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>-39.842035704121095,176.997015717554</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>-39.842562636737114,176.99650532658939</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>-39.84314479509618,176.99611513348086</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>-39.84373445102554,176.99571126938264</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>-39.84435180937552,176.99539791696154</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>-39.84500952661622,176.99513871750372</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>-39.84150395043678,176.997593753025</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>-39.841991965858156,176.99696003310228</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>-39.842513749244084,176.99641649716963</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>-39.8430906467699,176.99597381167777</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>-39.843697315144375,176.9955843459184</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>-39.84431577918669,176.99520878774777</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>-39.844985362941294,176.9949990781621</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J716"/>
+  <dimension ref="A1:J717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23882,7 +23882,9 @@
           <t>2025-06-09 21:53:57+00:00</t>
         </is>
       </c>
-      <c r="B716" t="inlineStr"/>
+      <c r="B716" t="n">
+        <v>140.05</v>
+      </c>
       <c r="C716" t="n">
         <v>353.57</v>
       </c>
@@ -23907,6 +23909,42 @@
       <c r="J716" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>178.99</v>
+      </c>
+      <c r="C717" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="D717" t="n">
+        <v>380.0185714285714</v>
+      </c>
+      <c r="E717" t="n">
+        <v>382.4385714285714</v>
+      </c>
+      <c r="F717" t="n">
+        <v>381.7585714285714</v>
+      </c>
+      <c r="G717" t="n">
+        <v>385.0185714285714</v>
+      </c>
+      <c r="H717" t="n">
+        <v>378.7485714285714</v>
+      </c>
+      <c r="I717" t="n">
+        <v>369.4385714285714</v>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23921,7 +23959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B727"/>
+  <dimension ref="A1:B728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31199,6 +31237,16 @@
       </c>
       <c r="B727" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -31372,28 +31420,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3909115798211796</v>
+        <v>0.2595469117909454</v>
       </c>
       <c r="J2" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K2" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002106100247998621</v>
+        <v>0.0009091235710608769</v>
       </c>
       <c r="M2" t="n">
-        <v>45.39349700508772</v>
+        <v>46.26718946859889</v>
       </c>
       <c r="N2" t="n">
-        <v>3926.360796701457</v>
+        <v>4030.735871424403</v>
       </c>
       <c r="O2" t="n">
-        <v>62.66067982955066</v>
+        <v>63.48807660832389</v>
       </c>
       <c r="P2" t="n">
-        <v>324.5703114362613</v>
+        <v>325.9079787546325</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31450,28 +31498,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8137673067887436</v>
+        <v>0.8154552569855291</v>
       </c>
       <c r="J3" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K3" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1858629160818838</v>
+        <v>0.1870025167666265</v>
       </c>
       <c r="M3" t="n">
-        <v>9.900114635579452</v>
+        <v>9.890971745576415</v>
       </c>
       <c r="N3" t="n">
-        <v>158.7334771093477</v>
+        <v>158.4948749742119</v>
       </c>
       <c r="O3" t="n">
-        <v>12.5989474603773</v>
+        <v>12.58947476959273</v>
       </c>
       <c r="P3" t="n">
-        <v>337.221309237453</v>
+        <v>337.2042600342622</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31528,28 +31576,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004799856617112</v>
+        <v>1.009379072749354</v>
       </c>
       <c r="J4" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3178289205054399</v>
+        <v>0.3200837594829137</v>
       </c>
       <c r="M4" t="n">
-        <v>8.726476812232708</v>
+        <v>8.734687120673224</v>
       </c>
       <c r="N4" t="n">
-        <v>121.7679615961278</v>
+        <v>121.8466189780834</v>
       </c>
       <c r="O4" t="n">
-        <v>11.03485213295257</v>
+        <v>11.03841560089506</v>
       </c>
       <c r="P4" t="n">
-        <v>341.2056439411841</v>
+        <v>341.1601851985164</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31606,28 +31654,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.090211539343503</v>
+        <v>1.090514155492086</v>
       </c>
       <c r="J5" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K5" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3686127141134306</v>
+        <v>0.3695851631394862</v>
       </c>
       <c r="M5" t="n">
-        <v>8.335253861258181</v>
+        <v>8.322124396096219</v>
       </c>
       <c r="N5" t="n">
-        <v>112.2389669215661</v>
+        <v>112.0448182994132</v>
       </c>
       <c r="O5" t="n">
-        <v>10.59428935424958</v>
+        <v>10.58512249808254</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3423146822481</v>
+        <v>353.3392891694918</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31684,28 +31732,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8823180770738202</v>
+        <v>0.8838642038750357</v>
       </c>
       <c r="J6" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K6" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2844308258381367</v>
+        <v>0.2857681214049257</v>
       </c>
       <c r="M6" t="n">
-        <v>8.212865156764497</v>
+        <v>8.206600374180756</v>
       </c>
       <c r="N6" t="n">
-        <v>108.1774779934132</v>
+        <v>108.0349153851824</v>
       </c>
       <c r="O6" t="n">
-        <v>10.40084025420125</v>
+        <v>10.39398457691671</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1203384889446</v>
+        <v>354.1048093088638</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31762,28 +31810,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4418802328718193</v>
+        <v>0.445075483348167</v>
       </c>
       <c r="J7" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K7" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08689742098168973</v>
+        <v>0.08820473059940104</v>
       </c>
       <c r="M7" t="n">
-        <v>8.310032728536903</v>
+        <v>8.311430739134384</v>
       </c>
       <c r="N7" t="n">
-        <v>112.650977945588</v>
+        <v>112.6283648940386</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61371650015149</v>
+        <v>10.61265117178731</v>
       </c>
       <c r="P7" t="n">
-        <v>363.6124418021797</v>
+        <v>363.5802763055891</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31840,28 +31888,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3149744050562449</v>
+        <v>0.319831374082954</v>
       </c>
       <c r="J8" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K8" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04750417706263899</v>
+        <v>0.04891272185545603</v>
       </c>
       <c r="M8" t="n">
-        <v>8.164587628845222</v>
+        <v>8.175167408189989</v>
       </c>
       <c r="N8" t="n">
-        <v>109.2519790242674</v>
+        <v>109.440085683441</v>
       </c>
       <c r="O8" t="n">
-        <v>10.45236714932399</v>
+        <v>10.46136155973213</v>
       </c>
       <c r="P8" t="n">
-        <v>355.6779387898624</v>
+        <v>355.6292249304753</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31918,28 +31966,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5392298344287056</v>
+        <v>0.5418886809608224</v>
       </c>
       <c r="J9" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K9" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1484779469683658</v>
+        <v>0.1500166385095528</v>
       </c>
       <c r="M9" t="n">
-        <v>7.642724693366301</v>
+        <v>7.643496789283382</v>
       </c>
       <c r="N9" t="n">
-        <v>91.20988521311513</v>
+        <v>91.16644910358261</v>
       </c>
       <c r="O9" t="n">
-        <v>9.550386652545285</v>
+        <v>9.548112331952458</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3762441412761</v>
+        <v>347.3494362792654</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31977,7 +32025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J716"/>
+  <dimension ref="A1:J717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64539,7 +64587,11 @@
           <t>2025-06-09 21:53:57+00:00</t>
         </is>
       </c>
-      <c r="B716" t="inlineStr"/>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-39.83965239069671,176.99654429762583</t>
+        </is>
+      </c>
       <c r="C716" t="inlineStr">
         <is>
           <t>-39.84150395043678,176.997593753025</t>
@@ -64578,6 +64630,58 @@
       <c r="J716" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-39.8399061160115,176.9968576900701</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>-39.84156669668102,176.99767125919857</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>-39.84213389494232,176.99714072753792</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>-39.84258622160238,176.99654818078994</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>-39.84315489246576,176.9961414866984</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>-39.843749908302655,176.99576409963632</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>-39.84436072744554,176.99544472986807</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>-39.845005745686805,176.99511686783762</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J717"/>
+  <dimension ref="A1:J720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23945,6 +23945,112 @@
       <c r="J717" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>161.26</v>
+      </c>
+      <c r="C718" t="n">
+        <v>367.15</v>
+      </c>
+      <c r="D718" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="E718" t="n">
+        <v>386.51</v>
+      </c>
+      <c r="F718" t="n">
+        <v>380.64</v>
+      </c>
+      <c r="G718" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="H718" t="n">
+        <v>370.28</v>
+      </c>
+      <c r="I718" t="n">
+        <v>367.13</v>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>180.05</v>
+      </c>
+      <c r="C719" t="n">
+        <v>362.31</v>
+      </c>
+      <c r="D719" t="n">
+        <v>364.3885714285714</v>
+      </c>
+      <c r="E719" t="n">
+        <v>374.9485714285714</v>
+      </c>
+      <c r="F719" t="n">
+        <v>368.4085714285715</v>
+      </c>
+      <c r="G719" t="n">
+        <v>373.3785714285714</v>
+      </c>
+      <c r="H719" t="n">
+        <v>360.5285714285715</v>
+      </c>
+      <c r="I719" t="n">
+        <v>367.4085714285715</v>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="D720" t="n">
+        <v>359.0171428571429</v>
+      </c>
+      <c r="E720" t="n">
+        <v>369.3771428571428</v>
+      </c>
+      <c r="F720" t="n">
+        <v>363.0171428571429</v>
+      </c>
+      <c r="G720" t="n">
+        <v>369.4371428571428</v>
+      </c>
+      <c r="H720" t="n">
+        <v>357.8471428571428</v>
+      </c>
+      <c r="I720" t="n">
+        <v>362.0771428571429</v>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23959,7 +24065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B728"/>
+  <dimension ref="A1:B731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31247,6 +31353,36 @@
       </c>
       <c r="B728" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -31420,28 +31556,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2595469117909454</v>
+        <v>0.1386244495379914</v>
       </c>
       <c r="J2" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K2" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009091235710608769</v>
+        <v>0.0002551497428017191</v>
       </c>
       <c r="M2" t="n">
-        <v>46.26718946859889</v>
+        <v>47.04962241654393</v>
       </c>
       <c r="N2" t="n">
-        <v>4030.735871424403</v>
+        <v>4116.127468596746</v>
       </c>
       <c r="O2" t="n">
-        <v>63.48807660832389</v>
+        <v>64.15705314769956</v>
       </c>
       <c r="P2" t="n">
-        <v>325.9079787546325</v>
+        <v>327.1438017118001</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31498,28 +31634,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8154552569855291</v>
+        <v>0.8188252216535141</v>
       </c>
       <c r="J3" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K3" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1870025167666265</v>
+        <v>0.1897620398264964</v>
       </c>
       <c r="M3" t="n">
-        <v>9.890971745576415</v>
+        <v>9.865331466503948</v>
       </c>
       <c r="N3" t="n">
-        <v>158.4948749742119</v>
+        <v>157.8336514330043</v>
       </c>
       <c r="O3" t="n">
-        <v>12.58947476959273</v>
+        <v>12.56318635669329</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2042600342622</v>
+        <v>337.1701543010685</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31576,28 +31712,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>1.009379072749354</v>
+        <v>1.007514949750299</v>
       </c>
       <c r="J4" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K4" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3200837594829137</v>
+        <v>0.3213840880157333</v>
       </c>
       <c r="M4" t="n">
-        <v>8.734687120673224</v>
+        <v>8.717985471843775</v>
       </c>
       <c r="N4" t="n">
-        <v>121.8466189780834</v>
+        <v>121.3782040440463</v>
       </c>
       <c r="O4" t="n">
-        <v>11.03841560089506</v>
+        <v>11.01717768051538</v>
       </c>
       <c r="P4" t="n">
-        <v>341.1601851985164</v>
+        <v>341.178848834926</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31654,28 +31790,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.090514155492086</v>
+        <v>1.085783605681092</v>
       </c>
       <c r="J5" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K5" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3695851631394862</v>
+        <v>0.3693086777541964</v>
       </c>
       <c r="M5" t="n">
-        <v>8.322124396096219</v>
+        <v>8.322780758305388</v>
       </c>
       <c r="N5" t="n">
-        <v>112.0448182994132</v>
+        <v>111.8416718777205</v>
       </c>
       <c r="O5" t="n">
-        <v>10.58512249808254</v>
+        <v>10.57552229810521</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3392891694918</v>
+        <v>353.3868578236064</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31732,28 +31868,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8838642038750357</v>
+        <v>0.8777774294662731</v>
       </c>
       <c r="J6" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K6" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2857681214049257</v>
+        <v>0.2841509973062754</v>
       </c>
       <c r="M6" t="n">
-        <v>8.206600374180756</v>
+        <v>8.211564650189334</v>
       </c>
       <c r="N6" t="n">
-        <v>108.0349153851824</v>
+        <v>107.9668182382091</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39398457691671</v>
+        <v>10.39070826451254</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1048093088638</v>
+        <v>354.1662743226166</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31810,28 +31946,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.445075483348167</v>
+        <v>0.4442640179114523</v>
       </c>
       <c r="J7" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K7" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08820473059940104</v>
+        <v>0.08866619896037953</v>
       </c>
       <c r="M7" t="n">
-        <v>8.311430739134384</v>
+        <v>8.291063127332395</v>
       </c>
       <c r="N7" t="n">
-        <v>112.6283648940386</v>
+        <v>112.1697422414969</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61265117178731</v>
+        <v>10.59102177514034</v>
       </c>
       <c r="P7" t="n">
-        <v>363.5802763055891</v>
+        <v>363.58853155987</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31888,28 +32024,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.319831374082954</v>
+        <v>0.3188087539525145</v>
       </c>
       <c r="J8" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K8" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04891272185545603</v>
+        <v>0.04903933465400667</v>
       </c>
       <c r="M8" t="n">
-        <v>8.175167408189989</v>
+        <v>8.160845630987929</v>
       </c>
       <c r="N8" t="n">
-        <v>109.440085683441</v>
+        <v>109.0413890054663</v>
       </c>
       <c r="O8" t="n">
-        <v>10.46136155973213</v>
+        <v>10.4422884946484</v>
       </c>
       <c r="P8" t="n">
-        <v>355.6292249304753</v>
+        <v>355.639586931176</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31966,28 +32102,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5418886809608224</v>
+        <v>0.5459102930750357</v>
       </c>
       <c r="J9" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K9" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1500166385095528</v>
+        <v>0.1531048874629399</v>
       </c>
       <c r="M9" t="n">
-        <v>7.643496789283382</v>
+        <v>7.625551605522639</v>
       </c>
       <c r="N9" t="n">
-        <v>91.16644910358261</v>
+        <v>90.82196586691079</v>
       </c>
       <c r="O9" t="n">
-        <v>9.548112331952458</v>
+        <v>9.530055921499663</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3494362792654</v>
+        <v>347.3087585659724</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32025,7 +32161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J717"/>
+  <dimension ref="A1:J720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64685,6 +64821,158 @@
         </is>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-39.83979059096944,176.99671499722874</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>-39.841592433700676,176.99770305045308</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>-39.842091523567035,176.99708678306996</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>-39.84260750621884,176.9965868554415</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>-39.84315041301025,176.99612979572336</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>-39.84373404509493,176.9957098819847</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>-39.84434244723117,176.99534877313334</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>-39.84500119617862,176.9950905766562</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-39.83991302274762,176.99686622107305</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>-39.8415608977056,176.9976640961091</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>-39.842033530051275,176.99701294968003</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>-39.842547065339346,176.99647703306238</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>-39.84310143068264,176.9960019565736</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>-39.84371274511619,176.99563708258674</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>-39.8443213977462,176.99523828049797</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>-39.845001745160445,176.99509374916866</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>-39.84151711216688,176.99761001079835</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>-39.84199903846945,176.99696903744152</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>-39.842517938963425,176.99642410995193</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>-39.84307983996622,176.99594560706646</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>-39.84370016123036,176.9955940732833</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>-39.8443156095813,176.99520789746174</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>-39.84499123847742,176.99503303216872</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J720"/>
+  <dimension ref="A1:J721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24026,7 +24026,9 @@
           <t>2025-07-27 21:54:21+00:00</t>
         </is>
       </c>
-      <c r="B720" t="inlineStr"/>
+      <c r="B720" t="n">
+        <v>339.9</v>
+      </c>
       <c r="C720" t="n">
         <v>355.59</v>
       </c>
@@ -24049,6 +24051,42 @@
         <v>362.0771428571429</v>
       </c>
       <c r="J720" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>371.16</v>
+      </c>
+      <c r="C721" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="D721" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="E721" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="F721" t="n">
+        <v>365.67</v>
+      </c>
+      <c r="G721" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="H721" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="I721" t="n">
+        <v>357.63</v>
+      </c>
+      <c r="J721" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24065,7 +24103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31383,6 +31421,16 @@
       </c>
       <c r="B731" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -31556,28 +31604,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1386244495379914</v>
+        <v>0.1571105722297225</v>
       </c>
       <c r="J2" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K2" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002551497428017191</v>
+        <v>0.0003300530729767326</v>
       </c>
       <c r="M2" t="n">
-        <v>47.04962241654393</v>
+        <v>46.91176222146115</v>
       </c>
       <c r="N2" t="n">
-        <v>4116.127468596746</v>
+        <v>4103.495980423396</v>
       </c>
       <c r="O2" t="n">
-        <v>64.15705314769956</v>
+        <v>64.05853557819907</v>
       </c>
       <c r="P2" t="n">
-        <v>327.1438017118001</v>
+        <v>326.9538052740679</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31634,28 +31682,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8188252216535141</v>
+        <v>0.8205620963232709</v>
       </c>
       <c r="J3" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K3" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1897620398264964</v>
+        <v>0.1909364124322689</v>
       </c>
       <c r="M3" t="n">
-        <v>9.865331466503948</v>
+        <v>9.856493857264889</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8336514330043</v>
+        <v>157.6011001815041</v>
       </c>
       <c r="O3" t="n">
-        <v>12.56318635669329</v>
+        <v>12.55392767947562</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1701543010685</v>
+        <v>337.1524450112084</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31712,28 +31760,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>1.007514949750299</v>
+        <v>1.009172240511439</v>
       </c>
       <c r="J4" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K4" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3213840880157333</v>
+        <v>0.322868649345412</v>
       </c>
       <c r="M4" t="n">
-        <v>8.717985471843775</v>
+        <v>8.710561627265268</v>
       </c>
       <c r="N4" t="n">
-        <v>121.3782040440463</v>
+        <v>121.1913543238802</v>
       </c>
       <c r="O4" t="n">
-        <v>11.01717768051538</v>
+        <v>11.00869448771653</v>
       </c>
       <c r="P4" t="n">
-        <v>341.178848834926</v>
+        <v>341.1622359706662</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31790,28 +31838,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.085783605681092</v>
+        <v>1.085316386923211</v>
       </c>
       <c r="J5" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K5" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3693086777541964</v>
+        <v>0.3699546885604565</v>
       </c>
       <c r="M5" t="n">
-        <v>8.322780758305388</v>
+        <v>8.311022189928659</v>
       </c>
       <c r="N5" t="n">
-        <v>111.8416718777205</v>
+        <v>111.6514850202679</v>
       </c>
       <c r="O5" t="n">
-        <v>10.57552229810521</v>
+        <v>10.56652662989442</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3868578236064</v>
+        <v>353.391572945383</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31868,28 +31916,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8777774294662731</v>
+        <v>0.8741319782502962</v>
       </c>
       <c r="J6" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K6" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2841509973062754</v>
+        <v>0.2827582138966639</v>
       </c>
       <c r="M6" t="n">
-        <v>8.211564650189334</v>
+        <v>8.218157377313746</v>
       </c>
       <c r="N6" t="n">
-        <v>107.9668182382091</v>
+        <v>108.001365054816</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39070826451254</v>
+        <v>10.3923705214362</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1662743226166</v>
+        <v>354.203239091606</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31946,28 +31994,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4442640179114523</v>
+        <v>0.4433535297802129</v>
       </c>
       <c r="J7" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K7" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08866619896037953</v>
+        <v>0.08860370471878931</v>
       </c>
       <c r="M7" t="n">
-        <v>8.291063127332395</v>
+        <v>8.282436168403155</v>
       </c>
       <c r="N7" t="n">
-        <v>112.1697422414969</v>
+        <v>111.9982430823543</v>
       </c>
       <c r="O7" t="n">
-        <v>10.59102177514034</v>
+        <v>10.58292223737632</v>
       </c>
       <c r="P7" t="n">
-        <v>363.58853155987</v>
+        <v>363.5977837960675</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32024,28 +32072,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3188087539525145</v>
+        <v>0.3174323188310559</v>
       </c>
       <c r="J8" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K8" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04903933465400667</v>
+        <v>0.04878799450745619</v>
       </c>
       <c r="M8" t="n">
-        <v>8.160845630987929</v>
+        <v>8.154465325186822</v>
       </c>
       <c r="N8" t="n">
-        <v>109.0413890054663</v>
+        <v>108.889701473134</v>
       </c>
       <c r="O8" t="n">
-        <v>10.4422884946484</v>
+        <v>10.43502283050373</v>
       </c>
       <c r="P8" t="n">
-        <v>355.639586931176</v>
+        <v>355.6535215749132</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32102,28 +32150,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5459102930750357</v>
+        <v>0.5446328155482316</v>
       </c>
       <c r="J9" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K9" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1531048874629399</v>
+        <v>0.1529184548242293</v>
       </c>
       <c r="M9" t="n">
-        <v>7.625551605522639</v>
+        <v>7.619328763284865</v>
       </c>
       <c r="N9" t="n">
-        <v>90.82196586691079</v>
+        <v>90.69506599116517</v>
       </c>
       <c r="O9" t="n">
-        <v>9.530055921499663</v>
+        <v>9.523395717451059</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3087585659724</v>
+        <v>347.3217597594056</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32161,7 +32209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J720"/>
+  <dimension ref="A1:J721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64931,7 +64979,11 @@
           <t>2025-07-27 21:54:21+00:00</t>
         </is>
       </c>
-      <c r="B720" t="inlineStr"/>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-39.84095456334157,176.9981527320952</t>
+        </is>
+      </c>
       <c r="C720" t="inlineStr">
         <is>
           <t>-39.84151711216688,176.99761001079835</t>
@@ -64968,6 +65020,58 @@
         </is>
       </c>
       <c r="J720" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-39.84115824337201,176.9984043246216</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>-39.84156930296196,176.99767447856505</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>-39.842083047453876,176.99707599184856</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>-39.84257504157185,176.99652786642974</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>-39.843090463700776,176.9959733338865</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>-39.84370936539352,176.99562553133708</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>-39.844319630768666,176.99522900533515</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>-39.84498247443725,176.9949823858732</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J721"/>
+  <dimension ref="A1:J722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24089,6 +24089,42 @@
       <c r="J721" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>371.41</v>
+      </c>
+      <c r="C722" t="n">
+        <v>363.58</v>
+      </c>
+      <c r="D722" t="n">
+        <v>374.0614285714286</v>
+      </c>
+      <c r="E722" t="n">
+        <v>381.0814285714285</v>
+      </c>
+      <c r="F722" t="n">
+        <v>368.6214285714286</v>
+      </c>
+      <c r="G722" t="n">
+        <v>374.4714285714285</v>
+      </c>
+      <c r="H722" t="n">
+        <v>358.3514285714285</v>
+      </c>
+      <c r="I722" t="n">
+        <v>358.7214285714285</v>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31431,6 +31467,16 @@
       </c>
       <c r="B732" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -31604,28 +31650,28 @@
         <v>0.0399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1571105722297225</v>
+        <v>0.1721559012352603</v>
       </c>
       <c r="J2" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K2" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003300530729767326</v>
+        <v>0.0003975417729099595</v>
       </c>
       <c r="M2" t="n">
-        <v>46.91176222146115</v>
+        <v>46.85688860217817</v>
       </c>
       <c r="N2" t="n">
-        <v>4103.495980423396</v>
+        <v>4098.699489693036</v>
       </c>
       <c r="O2" t="n">
-        <v>64.05853557819907</v>
+        <v>64.02108628954242</v>
       </c>
       <c r="P2" t="n">
-        <v>326.9538052740679</v>
+        <v>326.7987528776984</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31682,28 +31728,28 @@
         <v>0.0416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8205620963232709</v>
+        <v>0.8222684911253444</v>
       </c>
       <c r="J3" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K3" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1909364124322689</v>
+        <v>0.1921051226619022</v>
       </c>
       <c r="M3" t="n">
-        <v>9.856493857264889</v>
+        <v>9.847505615360737</v>
       </c>
       <c r="N3" t="n">
-        <v>157.6011001815041</v>
+        <v>157.3679326409253</v>
       </c>
       <c r="O3" t="n">
-        <v>12.55392767947562</v>
+        <v>12.54463760500578</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1524450112084</v>
+        <v>337.1350128846994</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31760,28 +31806,28 @@
         <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>1.009172240511439</v>
+        <v>1.011498317053636</v>
       </c>
       <c r="J4" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K4" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.322868649345412</v>
+        <v>0.3245741148306703</v>
       </c>
       <c r="M4" t="n">
-        <v>8.710561627265268</v>
+        <v>8.706704702750388</v>
       </c>
       <c r="N4" t="n">
-        <v>121.1913543238802</v>
+        <v>121.0446686288755</v>
       </c>
       <c r="O4" t="n">
-        <v>11.00869448771653</v>
+        <v>11.00203020487017</v>
       </c>
       <c r="P4" t="n">
-        <v>341.1622359706662</v>
+        <v>341.1388726037845</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31838,28 +31884,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>1.085316386923211</v>
+        <v>1.085100228505774</v>
       </c>
       <c r="J5" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K5" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3699546885604565</v>
+        <v>0.3707148446867747</v>
       </c>
       <c r="M5" t="n">
-        <v>8.311022189928659</v>
+        <v>8.29788349000766</v>
       </c>
       <c r="N5" t="n">
-        <v>111.6514850202679</v>
+        <v>111.4593597126123</v>
       </c>
       <c r="O5" t="n">
-        <v>10.56652662989442</v>
+        <v>10.5574314922055</v>
       </c>
       <c r="P5" t="n">
-        <v>353.391572945383</v>
+        <v>353.393758584973</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31916,28 +31962,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8741319782502962</v>
+        <v>0.8714429924744854</v>
       </c>
       <c r="J6" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K6" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2827582138966639</v>
+        <v>0.2819904290943017</v>
       </c>
       <c r="M6" t="n">
-        <v>8.218157377313746</v>
+        <v>8.219546225081372</v>
       </c>
       <c r="N6" t="n">
-        <v>108.001365054816</v>
+        <v>107.9386102707815</v>
       </c>
       <c r="O6" t="n">
-        <v>10.3923705214362</v>
+        <v>10.38935081084384</v>
       </c>
       <c r="P6" t="n">
-        <v>354.203239091606</v>
+        <v>354.2305585464358</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31994,28 +32040,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4433535297802129</v>
+        <v>0.4431299403546716</v>
       </c>
       <c r="J7" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K7" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08860370471878931</v>
+        <v>0.08880054465964049</v>
       </c>
       <c r="M7" t="n">
-        <v>8.282436168403155</v>
+        <v>8.270043167136887</v>
       </c>
       <c r="N7" t="n">
-        <v>111.9982430823543</v>
+        <v>111.8148379100673</v>
       </c>
       <c r="O7" t="n">
-        <v>10.58292223737632</v>
+        <v>10.57425353914248</v>
       </c>
       <c r="P7" t="n">
-        <v>363.5977837960675</v>
+        <v>363.6000602615921</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32072,28 +32118,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3174323188310559</v>
+        <v>0.3156201876857481</v>
       </c>
       <c r="J8" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K8" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04878799450745619</v>
+        <v>0.04839972490366495</v>
       </c>
       <c r="M8" t="n">
-        <v>8.154465325186822</v>
+        <v>8.150348124006475</v>
       </c>
       <c r="N8" t="n">
-        <v>108.889701473134</v>
+        <v>108.7604377606151</v>
       </c>
       <c r="O8" t="n">
-        <v>10.43502283050373</v>
+        <v>10.42882724761587</v>
       </c>
       <c r="P8" t="n">
-        <v>355.6535215749132</v>
+        <v>355.6719022082428</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32150,28 +32196,28 @@
         <v>0.0365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5446328155482316</v>
+        <v>0.5437127618735365</v>
       </c>
       <c r="J9" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K9" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1529184548242293</v>
+        <v>0.1529188616039534</v>
       </c>
       <c r="M9" t="n">
-        <v>7.619328763284865</v>
+        <v>7.611273346392948</v>
       </c>
       <c r="N9" t="n">
-        <v>90.69506599116517</v>
+        <v>90.55638239725241</v>
       </c>
       <c r="O9" t="n">
-        <v>9.523395717451059</v>
+        <v>9.516111726816389</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3217597594056</v>
+        <v>347.3311413272072</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32209,7 +32255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J721"/>
+  <dimension ref="A1:J722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65077,6 +65123,58 @@
         </is>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-39.841159872288465,176.99840633672397</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>-39.841569172647915,176.99767431759673</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>-39.84209564237052,176.99709202685705</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>-39.842579126727074,176.99653528924466</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>-39.843102283097714,176.99600418128983</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>-39.843716234302306,176.99564900796707</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>-39.84431669813932,176.99521361147941</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>-39.84498462533134,176.99499481560866</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -31641,13 +31641,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0203</v>
+        <v>0.0292</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0399</v>
+        <v>0.0539</v>
       </c>
       <c r="I2" t="n">
         <v>0.1721559012352603</v>
@@ -31719,13 +31719,13 @@
         <v>0.1430433190066515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0349</v>
+        <v>0.0433</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0416</v>
+        <v>0.0598</v>
       </c>
       <c r="I3" t="n">
         <v>0.8222684911253444</v>
@@ -31797,13 +31797,13 @@
         <v>0.2860866380163826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03</v>
+        <v>0.0381</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036</v>
+        <v>0.0484</v>
       </c>
       <c r="I4" t="n">
         <v>1.011499444950123</v>
@@ -31875,13 +31875,13 @@
         <v>0.4284362119522381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>0.0448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0356</v>
+        <v>0.0572</v>
       </c>
       <c r="I5" t="n">
         <v>1.08510219717891</v>
@@ -31953,13 +31953,13 @@
         <v>0.5714795309607944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0342</v>
+        <v>0.0424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.036</v>
+        <v>0.0552</v>
       </c>
       <c r="I6" t="n">
         <v>0.8714474951692968</v>
@@ -32031,13 +32031,13 @@
         <v>0.7145228499670015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0343</v>
+        <v>0.0398</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0358</v>
+        <v>0.0553</v>
       </c>
       <c r="I7" t="n">
         <v>0.4431307881611459</v>
@@ -32109,13 +32109,13 @@
         <v>0.8569566809921211</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0346</v>
+        <v>0.0398</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0369</v>
+        <v>0.0483</v>
       </c>
       <c r="I8" t="n">
         <v>0.315621437511388</v>
@@ -32187,13 +32187,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0343</v>
+        <v>0.049</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0365</v>
+        <v>0.061</v>
       </c>
       <c r="I9" t="n">
         <v>0.5437158837907016</v>

--- a/data/nzd0297/nzd0297.xlsx
+++ b/data/nzd0297/nzd0297.xlsx
@@ -535,7 +535,7 @@
         <v>345.52</v>
       </c>
       <c r="D3" t="n">
-        <v>342.51</v>
+        <v>342.87</v>
       </c>
       <c r="E3" t="n">
         <v>354.53</v>
@@ -571,7 +571,7 @@
         <v>344.67</v>
       </c>
       <c r="D4" t="n">
-        <v>343.04</v>
+        <v>343.62</v>
       </c>
       <c r="E4" t="n">
         <v>353.75</v>
@@ -607,7 +607,7 @@
         <v>352.58</v>
       </c>
       <c r="D5" t="n">
-        <v>354.19</v>
+        <v>355.61</v>
       </c>
       <c r="E5" t="n">
         <v>372.08</v>
@@ -643,7 +643,7 @@
         <v>336.44</v>
       </c>
       <c r="D6" t="n">
-        <v>343.95</v>
+        <v>341.81</v>
       </c>
       <c r="E6" t="n">
         <v>353.99</v>
@@ -679,7 +679,7 @@
         <v>352.29</v>
       </c>
       <c r="D7" t="n">
-        <v>354.16</v>
+        <v>355.66</v>
       </c>
       <c r="E7" t="n">
         <v>366.97</v>
@@ -715,7 +715,7 @@
         <v>357.63</v>
       </c>
       <c r="D8" t="n">
-        <v>366.85</v>
+        <v>365.88</v>
       </c>
       <c r="E8" t="n">
         <v>373.62</v>
@@ -751,7 +751,7 @@
         <v>319.55</v>
       </c>
       <c r="D9" t="n">
-        <v>320.96</v>
+        <v>319.77</v>
       </c>
       <c r="E9" t="n">
         <v>330.4</v>
@@ -785,7 +785,7 @@
         <v>339.03</v>
       </c>
       <c r="D10" t="n">
-        <v>344.77</v>
+        <v>346.85</v>
       </c>
       <c r="E10" t="n">
         <v>359.95</v>
@@ -821,7 +821,7 @@
         <v>355.35</v>
       </c>
       <c r="D11" t="n">
-        <v>358.07</v>
+        <v>358.1</v>
       </c>
       <c r="E11" t="n">
         <v>370.5</v>
@@ -857,7 +857,7 @@
         <v>347.36</v>
       </c>
       <c r="D12" t="n">
-        <v>350.26</v>
+        <v>351.73</v>
       </c>
       <c r="E12" t="n">
         <v>364.52</v>
@@ -925,7 +925,7 @@
         <v>358.11</v>
       </c>
       <c r="D14" t="n">
-        <v>361.15</v>
+        <v>360.79</v>
       </c>
       <c r="E14" t="n">
         <v>368.83</v>
@@ -959,7 +959,7 @@
         <v>342.4</v>
       </c>
       <c r="D15" t="n">
-        <v>345.4</v>
+        <v>346.98</v>
       </c>
       <c r="E15" t="n">
         <v>355.48</v>
@@ -995,7 +995,7 @@
         <v>339.27</v>
       </c>
       <c r="D16" t="n">
-        <v>348.98</v>
+        <v>351.2</v>
       </c>
       <c r="E16" t="n">
         <v>357.68</v>
@@ -1031,7 +1031,7 @@
         <v>337.58</v>
       </c>
       <c r="D17" t="n">
-        <v>345.94</v>
+        <v>345.38</v>
       </c>
       <c r="E17" t="n">
         <v>359.58</v>
@@ -1067,7 +1067,7 @@
         <v>330.85</v>
       </c>
       <c r="D18" t="n">
-        <v>329.96</v>
+        <v>330.96</v>
       </c>
       <c r="E18" t="n">
         <v>349.46</v>
@@ -1103,7 +1103,7 @@
         <v>333.32</v>
       </c>
       <c r="D19" t="n">
-        <v>341.12</v>
+        <v>340.93</v>
       </c>
       <c r="E19" t="n">
         <v>350.12</v>
@@ -1139,7 +1139,7 @@
         <v>346.91</v>
       </c>
       <c r="D20" t="n">
-        <v>350.98</v>
+        <v>350.45</v>
       </c>
       <c r="E20" t="n">
         <v>357.37</v>
@@ -1175,7 +1175,7 @@
         <v>356.75</v>
       </c>
       <c r="D21" t="n">
-        <v>352.49</v>
+        <v>353.18</v>
       </c>
       <c r="E21" t="n">
         <v>363.81</v>
@@ -1211,7 +1211,7 @@
         <v>350.91</v>
       </c>
       <c r="D22" t="n">
-        <v>346.43</v>
+        <v>347.85</v>
       </c>
       <c r="E22" t="n">
         <v>358.47</v>
@@ -1247,7 +1247,7 @@
         <v>344.5</v>
       </c>
       <c r="D23" t="n">
-        <v>343.95</v>
+        <v>345.76</v>
       </c>
       <c r="E23" t="n">
         <v>355.81</v>
@@ -1283,7 +1283,7 @@
         <v>358.25</v>
       </c>
       <c r="D24" t="n">
-        <v>355.54</v>
+        <v>357.04</v>
       </c>
       <c r="E24" t="n">
         <v>372.73</v>
@@ -1319,7 +1319,7 @@
         <v>349.82</v>
       </c>
       <c r="D25" t="n">
-        <v>350.29</v>
+        <v>348.71</v>
       </c>
       <c r="E25" t="n">
         <v>362.42</v>
@@ -1353,7 +1353,7 @@
         <v>339.19</v>
       </c>
       <c r="D26" t="n">
-        <v>342.43</v>
+        <v>341.24</v>
       </c>
       <c r="E26" t="n">
         <v>357.11</v>
@@ -1387,7 +1387,7 @@
         <v>343.97</v>
       </c>
       <c r="D27" t="n">
-        <v>345.75</v>
+        <v>346.92</v>
       </c>
       <c r="E27" t="n">
         <v>355.14</v>
@@ -1421,7 +1421,7 @@
         <v>327.69</v>
       </c>
       <c r="D28" t="n">
-        <v>341.43</v>
+        <v>339.4</v>
       </c>
       <c r="E28" t="n">
         <v>356.53</v>
@@ -1457,7 +1457,7 @@
         <v>339.69</v>
       </c>
       <c r="D29" t="n">
-        <v>341.6</v>
+        <v>341.16</v>
       </c>
       <c r="E29" t="n">
         <v>354.03</v>
@@ -1493,7 +1493,7 @@
         <v>343.85</v>
       </c>
       <c r="D30" t="n">
-        <v>348.78</v>
+        <v>348.2</v>
       </c>
       <c r="E30" t="n">
         <v>360.64</v>
@@ -1529,7 +1529,7 @@
         <v>346.91</v>
       </c>
       <c r="D31" t="n">
-        <v>350.76</v>
+        <v>351.12</v>
       </c>
       <c r="E31" t="n">
         <v>359.48</v>
@@ -1565,7 +1565,7 @@
         <v>354.92</v>
       </c>
       <c r="D32" t="n">
-        <v>355.56</v>
+        <v>355.14</v>
       </c>
       <c r="E32" t="n">
         <v>367.63</v>
@@ -1601,7 +1601,7 @@
         <v>358.22</v>
       </c>
       <c r="D33" t="n">
-        <v>356.7</v>
+        <v>358.28</v>
       </c>
       <c r="E33" t="n">
         <v>363.27</v>
@@ -1637,7 +1637,7 @@
         <v>361.58</v>
       </c>
       <c r="D34" t="n">
-        <v>363.03</v>
+        <v>361.09</v>
       </c>
       <c r="E34" t="n">
         <v>373.57</v>
@@ -1673,7 +1673,7 @@
         <v>347.14</v>
       </c>
       <c r="D35" t="n">
-        <v>347.13</v>
+        <v>348.44</v>
       </c>
       <c r="E35" t="n">
         <v>361.18</v>
@@ -1709,7 +1709,7 @@
         <v>349.26</v>
       </c>
       <c r="D36" t="n">
-        <v>351.96</v>
+        <v>349.52</v>
       </c>
       <c r="E36" t="n">
         <v>352.79</v>
@@ -1745,7 +1745,7 @@
         <v>347.88</v>
       </c>
       <c r="D37" t="n">
-        <v>351.25</v>
+        <v>349.86</v>
       </c>
       <c r="E37" t="n">
         <v>364.13</v>
@@ -1781,7 +1781,7 @@
         <v>341.41</v>
       </c>
       <c r="D38" t="n">
-        <v>337.81</v>
+        <v>339.75</v>
       </c>
       <c r="E38" t="n">
         <v>358.8</v>
@@ -1817,7 +1817,7 @@
         <v>340.15</v>
       </c>
       <c r="D39" t="n">
-        <v>339.38</v>
+        <v>339.02</v>
       </c>
       <c r="E39" t="n">
         <v>358.82</v>
@@ -1853,7 +1853,7 @@
         <v>336.27</v>
       </c>
       <c r="D40" t="n">
-        <v>337.72</v>
+        <v>338.94</v>
       </c>
       <c r="E40" t="n">
         <v>358.14</v>
@@ -1889,7 +1889,7 @@
         <v>343.75</v>
       </c>
       <c r="D41" t="n">
-        <v>345.57</v>
+        <v>345.13</v>
       </c>
       <c r="E41" t="n">
         <v>367.02</v>
@@ -1925,7 +1925,7 @@
         <v>338.1</v>
       </c>
       <c r="D42" t="n">
-        <v>343.17</v>
+        <v>344.67</v>
       </c>
       <c r="E42" t="n">
         <v>351.01</v>
@@ -1991,7 +1991,7 @@
         <v>342.08</v>
       </c>
       <c r="D44" t="n">
-        <v>339.17</v>
+        <v>340.06</v>
       </c>
       <c r="E44" t="n">
         <v>352.05</v>
@@ -2027,7 +2027,7 @@
         <v>333.16</v>
       </c>
       <c r="D45" t="n">
-        <v>330.77</v>
+        <v>332.69</v>
       </c>
       <c r="E45" t="n">
         <v>355.13</v>
@@ -2063,7 +2063,7 @@
         <v>346.83</v>
       </c>
       <c r="D46" t="n">
-        <v>344.46</v>
+        <v>343.93</v>
       </c>
       <c r="E46" t="n">
         <v>353.71</v>
@@ -2099,7 +2099,7 @@
         <v>347.74</v>
       </c>
       <c r="D47" t="n">
-        <v>345.94</v>
+        <v>345.41</v>
       </c>
       <c r="E47" t="n">
         <v>353.2</v>
@@ -2135,7 +2135,7 @@
         <v>341.86</v>
       </c>
       <c r="D48" t="n">
-        <v>340.67</v>
+        <v>340.03</v>
       </c>
       <c r="E48" t="n">
         <v>350.05</v>
@@ -2171,7 +2171,7 @@
         <v>350.18</v>
       </c>
       <c r="D49" t="n">
-        <v>351.77</v>
+        <v>350.08</v>
       </c>
       <c r="E49" t="n">
         <v>359.82</v>
@@ -2207,7 +2207,7 @@
         <v>351.34</v>
       </c>
       <c r="D50" t="n">
-        <v>345.39</v>
+        <v>345.11</v>
       </c>
       <c r="E50" t="n">
         <v>358.3</v>
@@ -2237,7 +2237,7 @@
         <v>348.22</v>
       </c>
       <c r="D51" t="n">
-        <v>344.34</v>
+        <v>343.17</v>
       </c>
       <c r="E51" t="n">
         <v>352.51</v>
@@ -2273,7 +2273,7 @@
         <v>338.09</v>
       </c>
       <c r="D52" t="n">
-        <v>335.27</v>
+        <v>336.02</v>
       </c>
       <c r="E52" t="n">
         <v>345.92</v>
@@ -2309,7 +2309,7 @@
         <v>345.7</v>
       </c>
       <c r="D53" t="n">
-        <v>347.59</v>
+        <v>345.28</v>
       </c>
       <c r="E53" t="n">
         <v>350.66</v>
@@ -2345,7 +2345,7 @@
         <v>338.14</v>
       </c>
       <c r="D54" t="n">
-        <v>334.71</v>
+        <v>336.52</v>
       </c>
       <c r="E54" t="n">
         <v>348.19</v>
@@ -2381,7 +2381,7 @@
         <v>340.8</v>
       </c>
       <c r="D55" t="n">
-        <v>338.78</v>
+        <v>338.47</v>
       </c>
       <c r="E55" t="n">
         <v>347.32</v>
@@ -2417,7 +2417,7 @@
         <v>347.49</v>
       </c>
       <c r="D56" t="n">
-        <v>342.18</v>
+        <v>341.68</v>
       </c>
       <c r="E56" t="n">
         <v>359.79</v>
@@ -2451,7 +2451,7 @@
         <v>343.03</v>
       </c>
       <c r="D57" t="n">
-        <v>339.84</v>
+        <v>341.48</v>
       </c>
       <c r="E57" t="n">
         <v>355.22</v>
@@ -2517,7 +2517,7 @@
         <v>324.71</v>
       </c>
       <c r="D59" t="n">
-        <v>337.51</v>
+        <v>337.57</v>
       </c>
       <c r="E59" t="n">
         <v>351.5</v>
@@ -2553,7 +2553,7 @@
         <v>339.68</v>
       </c>
       <c r="D60" t="n">
-        <v>346.56</v>
+        <v>345.25</v>
       </c>
       <c r="E60" t="n">
         <v>363.2</v>
@@ -2589,7 +2589,7 @@
         <v>357.46</v>
       </c>
       <c r="D61" t="n">
-        <v>364.13</v>
+        <v>363.27</v>
       </c>
       <c r="E61" t="n">
         <v>372.08</v>
@@ -2677,7 +2677,7 @@
         <v>339.31</v>
       </c>
       <c r="D64" t="n">
-        <v>343.67</v>
+        <v>344.81</v>
       </c>
       <c r="E64" t="n">
         <v>358.04</v>
@@ -2711,7 +2711,7 @@
         <v>355.91</v>
       </c>
       <c r="D65" t="n">
-        <v>343.72</v>
+        <v>344.28</v>
       </c>
       <c r="E65" t="n">
         <v>352.47</v>
@@ -2747,7 +2747,7 @@
         <v>337.53</v>
       </c>
       <c r="D66" t="n">
-        <v>332.45</v>
+        <v>333.67</v>
       </c>
       <c r="E66" t="n">
         <v>352.26</v>
@@ -2783,7 +2783,7 @@
         <v>355.06</v>
       </c>
       <c r="D67" t="n">
-        <v>351.95</v>
+        <v>350.26</v>
       </c>
       <c r="E67" t="n">
         <v>367.62</v>
@@ -2817,7 +2817,7 @@
         <v>363.68</v>
       </c>
       <c r="D68" t="n">
-        <v>354.79</v>
+        <v>353.04</v>
       </c>
       <c r="E68" t="n">
         <v>359.72</v>
@@ -2853,7 +2853,7 @@
         <v>345.27</v>
       </c>
       <c r="D69" t="n">
-        <v>345.36</v>
+        <v>345.42</v>
       </c>
       <c r="E69" t="n">
         <v>354.99</v>
@@ -2889,7 +2889,7 @@
         <v>338.62</v>
       </c>
       <c r="D70" t="n">
-        <v>332.79</v>
+        <v>334.37</v>
       </c>
       <c r="E70" t="n">
         <v>350.44</v>
@@ -2925,7 +2925,7 @@
         <v>349.9</v>
       </c>
       <c r="D71" t="n">
-        <v>352.2</v>
+        <v>350.51</v>
       </c>
       <c r="E71" t="n">
         <v>361.83</v>
@@ -2961,7 +2961,7 @@
         <v>355.82</v>
       </c>
       <c r="D72" t="n">
-        <v>352.15</v>
+        <v>350.26</v>
       </c>
       <c r="E72" t="n">
         <v>358.73</v>
@@ -2997,7 +2997,7 @@
         <v>347.78</v>
       </c>
       <c r="D73" t="n">
-        <v>347.69</v>
+        <v>349</v>
       </c>
       <c r="E73" t="n">
         <v>358.12</v>
@@ -3093,7 +3093,7 @@
         <v>345.09</v>
       </c>
       <c r="D76" t="n">
-        <v>344.74</v>
+        <v>344.55</v>
       </c>
       <c r="E76" t="n">
         <v>351.47</v>
@@ -3129,7 +3129,7 @@
         <v>330.75</v>
       </c>
       <c r="D77" t="n">
-        <v>337.09</v>
+        <v>336.53</v>
       </c>
       <c r="E77" t="n">
         <v>345</v>
@@ -3159,7 +3159,7 @@
         <v>321.31</v>
       </c>
       <c r="D78" t="n">
-        <v>339.37</v>
+        <v>337.73</v>
       </c>
       <c r="E78" t="n">
         <v>352.48</v>
@@ -3277,7 +3277,7 @@
         <v>343.31</v>
       </c>
       <c r="D82" t="n">
-        <v>347.36</v>
+        <v>346.72</v>
       </c>
       <c r="E82" t="n">
         <v>356.62</v>
@@ -3339,7 +3339,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>334.17</v>
+        <v>334.31</v>
       </c>
       <c r="E84" t="n">
         <v>348.07</v>
@@ -3397,7 +3397,7 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>342.11</v>
+        <v>340.3</v>
       </c>
       <c r="E86" t="n">
         <v>358.01</v>
@@ -3433,7 +3433,7 @@
         <v>338.29</v>
       </c>
       <c r="D87" t="n">
-        <v>347.71</v>
+        <v>345.99</v>
       </c>
       <c r="E87" t="n">
         <v>361.89</v>
@@ -3469,7 +3469,7 @@
         <v>343.81</v>
       </c>
       <c r="D88" t="n">
-        <v>348.34</v>
+        <v>346.34</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -3527,7 +3527,7 @@
         <v>354.04</v>
       </c>
       <c r="D90" t="n">
-        <v>354.51</v>
+        <v>352.7</v>
       </c>
       <c r="E90" t="n">
         <v>366.13</v>
@@ -3609,7 +3609,7 @@
         <v>337.79</v>
       </c>
       <c r="D93" t="n">
-        <v>345.76</v>
+        <v>347.68</v>
       </c>
       <c r="E93" t="n">
         <v>363.98</v>
@@ -3645,7 +3645,7 @@
         <v>356.11</v>
       </c>
       <c r="D94" t="n">
-        <v>361.66</v>
+        <v>359.97</v>
       </c>
       <c r="E94" t="n">
         <v>374.86</v>
@@ -3679,7 +3679,7 @@
         <v>360.64</v>
       </c>
       <c r="D95" t="n">
-        <v>364.84</v>
+        <v>364.03</v>
       </c>
       <c r="E95" t="n">
         <v>378.92</v>
@@ -3737,7 +3737,7 @@
         <v>358.36</v>
       </c>
       <c r="D97" t="n">
-        <v>354.56</v>
+        <v>355.39</v>
       </c>
       <c r="E97" t="n">
         <v>359.72</v>
@@ -3773,7 +3773,7 @@
         <v>355.33</v>
       </c>
       <c r="D98" t="n">
-        <v>351.66</v>
+        <v>352.24</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
@@ -3799,7 +3799,7 @@
         <v>345.35</v>
       </c>
       <c r="D99" t="n">
-        <v>343.83</v>
+        <v>342.14</v>
       </c>
       <c r="E99" t="n">
         <v>351.15</v>
@@ -3881,7 +3881,7 @@
         <v>341.1</v>
       </c>
       <c r="D102" t="n">
-        <v>343.6</v>
+        <v>343.54</v>
       </c>
       <c r="E102" t="n">
         <v>358.32</v>
@@ -3915,7 +3915,7 @@
         <v>337.96</v>
       </c>
       <c r="D103" t="n">
-        <v>351.22</v>
+        <v>351.83</v>
       </c>
       <c r="E103" t="n">
         <v>356.06</v>
@@ -3949,7 +3949,7 @@
         <v>344.46</v>
       </c>
       <c r="D104" t="n">
-        <v>359.51</v>
+        <v>359.09</v>
       </c>
       <c r="E104" t="n">
         <v>359.25</v>
@@ -4011,7 +4011,7 @@
         <v>327.13</v>
       </c>
       <c r="D106" t="n">
-        <v>344.37</v>
+        <v>343.29</v>
       </c>
       <c r="E106" t="n">
         <v>365.01</v>
@@ -4079,7 +4079,7 @@
         <v>325.52</v>
       </c>
       <c r="D108" t="n">
-        <v>337.41</v>
+        <v>336.33</v>
       </c>
       <c r="E108" t="n">
         <v>354.49</v>
@@ -4111,7 +4111,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>396.94</v>
+        <v>398.91</v>
       </c>
       <c r="E109" t="n">
         <v>393.03</v>
@@ -4207,7 +4207,7 @@
         <v>348.15</v>
       </c>
       <c r="D112" t="n">
-        <v>367.27</v>
+        <v>367.69</v>
       </c>
       <c r="E112" t="n">
         <v>367.25</v>
@@ -4241,7 +4241,7 @@
         <v>343.54</v>
       </c>
       <c r="D113" t="n">
-        <v>348.8</v>
+        <v>348.13</v>
       </c>
       <c r="E113" t="n">
         <v>363.04</v>
@@ -4275,7 +4275,7 @@
         <v>343.16</v>
       </c>
       <c r="D114" t="n">
-        <v>346.3</v>
+        <v>347.08</v>
       </c>
       <c r="E114" t="n">
         <v>361.26</v>
@@ -4341,7 +4341,7 @@
         <v>351.7</v>
       </c>
       <c r="D116" t="n">
-        <v>349.45</v>
+        <v>350.28</v>
       </c>
       <c r="E116" t="n">
         <v>361.91</v>
@@ -4377,7 +4377,7 @@
         <v>333.6</v>
       </c>
       <c r="D117" t="n">
-        <v>337.35</v>
+        <v>335.66</v>
       </c>
       <c r="E117" t="n">
         <v>341.79</v>
@@ -4439,7 +4439,7 @@
         <v>354.35</v>
       </c>
       <c r="D119" t="n">
-        <v>368.49</v>
+        <v>370.46</v>
       </c>
       <c r="E119" t="n">
         <v>392</v>
@@ -4471,7 +4471,7 @@
         <v>339.26</v>
       </c>
       <c r="D120" t="n">
-        <v>343.99</v>
+        <v>345.24</v>
       </c>
       <c r="E120" t="n">
         <v>363.42</v>
@@ -4503,7 +4503,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>351.46</v>
+        <v>350.82</v>
       </c>
       <c r="E121" t="n">
         <v>368.22</v>
@@ -4535,7 +4535,7 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>351.01</v>
+        <v>349.76</v>
       </c>
       <c r="E122" t="n">
         <v>357.92</v>
@@ -4571,7 +4571,7 @@
         <v>344.67</v>
       </c>
       <c r="D123" t="n">
-        <v>350.51</v>
+        <v>348.34</v>
       </c>
       <c r="E123" t="n">
         <v>360.71</v>
@@ -4627,7 +4627,7 @@
         <v>352.97</v>
       </c>
       <c r="D125" t="n">
-        <v>358.22</v>
+        <v>356.55</v>
       </c>
       <c r="E125" t="n">
         <v>373.96</v>
@@ -4659,7 +4659,7 @@
         <v>349.55</v>
       </c>
       <c r="D126" t="n">
-        <v>348.56</v>
+        <v>349.31</v>
       </c>
       <c r="E126" t="n">
         <v>357.12</v>
@@ -4695,7 +4695,7 @@
         <v>351.97</v>
       </c>
       <c r="D127" t="n">
-        <v>352.39</v>
+        <v>352.45</v>
       </c>
       <c r="E127" t="n">
         <v>359.36</v>
@@ -4725,7 +4725,7 @@
         <v>336.89</v>
       </c>
       <c r="D128" t="n">
-        <v>342.54</v>
+        <v>341.46</v>
       </c>
       <c r="E128" t="n">
         <v>348.83</v>
@@ -4755,7 +4755,7 @@
         <v>343.77</v>
       </c>
       <c r="D129" t="n">
-        <v>342.81</v>
+        <v>342.14</v>
       </c>
       <c r="E129" t="n">
         <v>345.86</v>
@@ -4791,7 +4791,7 @@
         <v>336</v>
       </c>
       <c r="D130" t="n">
-        <v>338.02</v>
+        <v>338.55</v>
       </c>
       <c r="E130" t="n">
         <v>348.98</v>
@@ -4827,7 +4827,7 @@
         <v>333.86</v>
       </c>
       <c r="D131" t="n">
-        <v>335.22</v>
+        <v>334.44</v>
       </c>
       <c r="E131" t="n">
         <v>344.88</v>
@@ -4855,7 +4855,7 @@
         <v>335.83</v>
       </c>
       <c r="D132" t="n">
-        <v>342.67</v>
+        <v>343.09</v>
       </c>
       <c r="E132" t="n">
         <v>356.59</v>
@@ -4889,7 +4889,7 @@
         <v>344.35</v>
       </c>
       <c r="D133" t="n">
-        <v>349.48</v>
+        <v>350.42</v>
       </c>
       <c r="E133" t="n">
         <v>364.92</v>
@@ -4921,7 +4921,7 @@
         <v>345.24</v>
       </c>
       <c r="D134" t="n">
-        <v>352.99</v>
+        <v>351.1</v>
       </c>
       <c r="E134" t="n">
         <v>362.14</v>
@@ -4957,7 +4957,7 @@
         <v>344.2</v>
       </c>
       <c r="D135" t="n">
-        <v>346.17</v>
+        <v>347.53</v>
       </c>
       <c r="E135" t="n">
         <v>364.04</v>
@@ -4989,7 +4989,7 @@
         <v>340.4</v>
       </c>
       <c r="D136" t="n">
-        <v>342.48</v>
+        <v>343.92</v>
       </c>
       <c r="E136" t="n">
         <v>360.94</v>
@@ -5085,7 +5085,7 @@
         <v>335.54</v>
       </c>
       <c r="D139" t="n">
-        <v>341.92</v>
+        <v>343.86</v>
       </c>
       <c r="E139" t="n">
         <v>348.88</v>
@@ -5121,7 +5121,7 @@
         <v>341.48</v>
       </c>
       <c r="D140" t="n">
-        <v>342.75</v>
+        <v>342.22</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
@@ -5177,7 +5177,7 @@
         <v>314.91</v>
       </c>
       <c r="D142" t="n">
-        <v>326.84</v>
+        <v>326.76</v>
       </c>
       <c r="E142" t="n">
         <v>346.38</v>
@@ -5213,7 +5213,7 @@
         <v>302.06</v>
       </c>
       <c r="D143" t="n">
-        <v>330.83</v>
+        <v>331.36</v>
       </c>
       <c r="E143" t="n">
         <v>356.11</v>
@@ -5249,7 +5249,7 @@
         <v>310.7</v>
       </c>
       <c r="D144" t="n">
-        <v>340.1</v>
+        <v>339.93</v>
       </c>
       <c r="E144" t="n">
         <v>354.24</v>
@@ -5285,7 +5285,7 @@
         <v>333.18</v>
       </c>
       <c r="D145" t="n">
-        <v>330.2</v>
+        <v>331.87</v>
       </c>
       <c r="E145" t="n">
         <v>344.68</v>
@@ -5377,7 +5377,7 @@
         <v>341.38</v>
       </c>
       <c r="D148" t="n">
-        <v>344.8</v>
+        <v>345.72</v>
       </c>
       <c r="E148" t="n">
         <v>357.05</v>
@@ -5413,7 +5413,7 @@
         <v>344.21</v>
       </c>
       <c r="D149" t="n">
-        <v>349.89</v>
+        <v>350.72</v>
       </c>
       <c r="E149" t="n">
         <v>359.68</v>
@@ -5479,7 +5479,7 @@
         <v>350.28</v>
       </c>
       <c r="D151" t="n">
-        <v>354.57</v>
+        <v>352.68</v>
       </c>
       <c r="E151" t="n">
         <v>356.17</v>
@@ -5511,7 +5511,7 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>353.83</v>
+        <v>355.02</v>
       </c>
       <c r="E152" t="n">
         <v>370.06</v>
@@ -5605,7 +5605,7 @@
         <v>345.95</v>
       </c>
       <c r="D155" t="n">
-        <v>348.65</v>
+        <v>346.73</v>
       </c>
       <c r="E155" t="n">
         <v>358</v>
@@ -5641,7 +5641,7 @@
         <v>316.97</v>
       </c>
       <c r="D156" t="n">
-        <v>318.9</v>
+        <v>318.34</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
@@ -5697,7 +5697,7 @@
         <v>356.49</v>
       </c>
       <c r="D158" t="n">
-        <v>358.77</v>
+        <v>360.38</v>
       </c>
       <c r="E158" t="n">
         <v>379.55</v>
@@ -5733,7 +5733,7 @@
         <v>352.46</v>
       </c>
       <c r="D159" t="n">
-        <v>345.25</v>
+        <v>346.61</v>
       </c>
       <c r="E159" t="n">
         <v>366.73</v>
@@ -5813,7 +5813,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>363.85</v>
+        <v>362.91</v>
       </c>
       <c r="E162" t="n">
         <v>380.73</v>
@@ -5843,7 +5843,7 @@
         <v>337.62</v>
       </c>
       <c r="D163" t="n">
-        <v>340.24</v>
+        <v>341.71</v>
       </c>
       <c r="E163" t="n">
         <v>357.92</v>
@@ -5877,7 +5877,7 @@
         <v>365.57</v>
       </c>
       <c r="D164" t="n">
-        <v>363.53</v>
+        <v>364.81</v>
       </c>
       <c r="E164" t="n">
         <v>385.21</v>
@@ -5961,7 +5961,7 @@
         <v>348.49</v>
       </c>
       <c r="D167" t="n">
-        <v>356.97</v>
+        <v>355.47</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -5987,7 +5987,7 @@
         <v>346.67</v>
       </c>
       <c r="D168" t="n">
-        <v>355.96</v>
+        <v>354.13</v>
       </c>
       <c r="E168" t="n">
         <v>371.14</v>
@@ -6013,7 +6013,7 @@
         <v>353.67</v>
       </c>
       <c r="D169" t="n">
-        <v>358.08</v>
+        <v>358.22</v>
       </c>
       <c r="E169" t="n">
         <v>374.13</v>
@@ -6105,7 +6105,7 @@
         <v>353.81</v>
       </c>
       <c r="D172" t="n">
-        <v>364.66</v>
+        <v>364.8</v>
       </c>
       <c r="E172" t="n">
         <v>379.27</v>
@@ -6137,7 +6137,7 @@
         <v>352.54</v>
       </c>
       <c r="D173" t="n">
-        <v>356.11</v>
+        <v>353.67</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -6165,7 +6165,7 @@
         <v>346.55</v>
       </c>
       <c r="D174" t="n">
-        <v>351.33</v>
+        <v>353.3</v>
       </c>
       <c r="E174" t="n">
         <v>367.56</v>
@@ -6199,7 +6199,7 @@
         <v>367.23</v>
       </c>
       <c r="D175" t="n">
-        <v>372.7</v>
+        <v>371.56</v>
       </c>
       <c r="E175" t="n">
         <v>382.81</v>
@@ -6265,7 +6265,7 @@
         <v>342.86</v>
       </c>
       <c r="D177" t="n">
-        <v>346.07</v>
+        <v>347.38</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -6293,7 +6293,7 @@
         <v>332.87</v>
       </c>
       <c r="D178" t="n">
-        <v>339.78</v>
+        <v>338.81</v>
       </c>
       <c r="E178" t="n">
         <v>351.65</v>
@@ -6355,7 +6355,7 @@
         <v>341.79</v>
       </c>
       <c r="D180" t="n">
-        <v>350.94</v>
+        <v>352.52</v>
       </c>
       <c r="E180" t="n">
         <v>369.44</v>
@@ -6389,7 +6389,7 @@
         <v>324.92</v>
       </c>
       <c r="D181" t="n">
-        <v>345.67</v>
+        <v>345</v>
       </c>
       <c r="E181" t="n">
         <v>369.64</v>
@@ -6497,7 +6497,7 @@
         <v>347.61</v>
       </c>
       <c r="D185" t="n">
-        <v>354.22</v>
+        <v>352.91</v>
       </c>
       <c r="E185" t="n">
         <v>370.97</v>
@@ -6527,7 +6527,7 @@
         <v>352.32</v>
       </c>
       <c r="D186" t="n">
-        <v>362.65</v>
+        <v>363.96</v>
       </c>
       <c r="E186" t="n">
         <v>375.22</v>
@@ -6563,7 +6563,7 @@
         <v>357.04</v>
       </c>
       <c r="D187" t="n">
-        <v>366.23</v>
+        <v>364.29</v>
       </c>
       <c r="E187" t="n">
         <v>376.16</v>
@@ -6621,7 +6621,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>362.37</v>
+        <v>359.87</v>
       </c>
       <c r="E189" t="n">
         <v>373.71</v>
@@ -6687,7 +6687,7 @@
         <v>355.92</v>
       </c>
       <c r="D191" t="n">
-        <v>355.06</v>
+        <v>356.92</v>
       </c>
       <c r="E191" t="n">
         <v>361.64</v>
@@ -6723,7 +6723,7 @@
         <v>350.59</v>
       </c>
       <c r="D192" t="n">
-        <v>349.16</v>
+        <v>349.8</v>
       </c>
       <c r="E192" t="n">
         <v>363.66</v>
@@ -6757,7 +6757,7 @@
         <v>339.78</v>
       </c>
       <c r="D193" t="n">
-        <v>350.07</v>
+        <v>351.21</v>
       </c>
       <c r="E193" t="n">
         <v>371.76</v>
@@ -6793,7 +6793,7 @@
         <v>351.77</v>
       </c>
       <c r="D194" t="n">
-        <v>365.73</v>
+        <v>364.31</v>
       </c>
       <c r="E194" t="n">
         <v>379.45</v>
@@ -6851,7 +6851,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>342.87</v>
+        <v>342.95</v>
       </c>
       <c r="E196" t="n">
         <v>362.22</v>
@@ -6885,7 +6885,7 @@
         <v>334.18</v>
       </c>
       <c r="D197" t="n">
-        <v>344.92</v>
+        <v>343.06</v>
       </c>
       <c r="E197" t="n">
         <v>362.37</v>
@@ -7051,7 +7051,7 @@
         <v>351.03</v>
       </c>
       <c r="D203" t="n">
-        <v>353.48</v>
+        <v>354.81</v>
       </c>
       <c r="E203" t="n">
         <v>365.01</v>
@@ -7149,7 +7149,7 @@
         <v>350.05</v>
       </c>
       <c r="D206" t="n">
-        <v>352.55</v>
+        <v>354.24</v>
       </c>
       <c r="E206" t="n">
         <v>365.48</v>
@@ -7183,7 +7183,7 @@
         <v>356.32</v>
       </c>
       <c r="D207" t="n">
-        <v>357.26</v>
+        <v>358.01</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -7237,7 +7237,7 @@
         <v>342.41</v>
       </c>
       <c r="D209" t="n">
-        <v>346.2</v>
+        <v>347.62</v>
       </c>
       <c r="E209" t="n">
         <v>364.13</v>
@@ -7273,7 +7273,7 @@
         <v>348.82</v>
       </c>
       <c r="D210" t="n">
-        <v>356.54</v>
+        <v>355.32</v>
       </c>
       <c r="E210" t="n">
         <v>372.02</v>
@@ -7301,7 +7301,7 @@
         <v>343.07</v>
       </c>
       <c r="D211" t="n">
-        <v>354.93</v>
+        <v>356.07</v>
       </c>
       <c r="E211" t="n">
         <v>371.14</v>
@@ -7395,7 +7395,7 @@
         <v>362.26</v>
       </c>
       <c r="D214" t="n">
-        <v>363.65</v>
+        <v>363.43</v>
       </c>
       <c r="E214" t="n">
         <v>376.35</v>
@@ -7421,7 +7421,7 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>352.87</v>
+        <v>352.9</v>
       </c>
       <c r="E215" t="n">
         <v>360.29</v>
@@ -7487,7 +7487,7 @@
         <v>327.8</v>
       </c>
       <c r="D217" t="n">
-        <v>353.24</v>
+        <v>352.02</v>
       </c>
       <c r="E217" t="n">
         <v>369.5</v>
@@ -7521,7 +7521,7 @@
         <v>338.71</v>
       </c>
       <c r="D218" t="n">
-        <v>346.79</v>
+        <v>345.62</v>
       </c>
       <c r="E218" t="n">
         <v>358.71</v>
@@ -7555,7 +7555,7 @@
         <v>337.44</v>
       </c>
       <c r="D219" t="n">
-        <v>343.33</v>
+        <v>344.5</v>
       </c>
       <c r="E219" t="n">
         <v>356.04</v>
@@ -7621,7 +7621,7 @@
         <v>342.94</v>
       </c>
       <c r="D221" t="n">
-        <v>353.94</v>
+        <v>354.66</v>
       </c>
       <c r="E221" t="n">
         <v>368.42</v>
@@ -7649,7 +7649,7 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>349.64</v>
+        <v>350.42</v>
       </c>
       <c r="E222" t="n">
         <v>364.34</v>
@@ -7713,7 +7713,7 @@
         <v>356.39</v>
       </c>
       <c r="D224" t="n">
-        <v>362.85</v>
+        <v>361.49</v>
       </c>
       <c r="E224" t="n">
         <v>369.84</v>
@@ -7749,7 +7749,7 @@
         <v>362.05</v>
       </c>
       <c r="D225" t="n">
-        <v>359.66</v>
+        <v>361.8</v>
       </c>
       <c r="E225" t="n">
         <v>378.79</v>
@@ -7809,7 +7809,7 @@
         <v>345.38</v>
       </c>
       <c r="D227" t="n">
-        <v>351.61</v>
+        <v>349.33</v>
       </c>
       <c r="E227" t="n">
         <v>362.49</v>
@@ -7845,7 +7845,7 @@
         <v>350.73</v>
       </c>
       <c r="D228" t="n">
-        <v>356.28</v>
+        <v>357.97</v>
       </c>
       <c r="E228" t="n">
         <v>369.84</v>
@@ -7905,7 +7905,7 @@
         <v>340.14</v>
       </c>
       <c r="D230" t="n">
-        <v>343.09</v>
+        <v>344.59</v>
       </c>
       <c r="E230" t="n">
         <v>362.45</v>
@@ -7941,7 +7941,7 @@
         <v>346.64</v>
       </c>
       <c r="D231" t="n">
-        <v>360.32</v>
+        <v>358.24</v>
       </c>
       <c r="E231" t="n">
         <v>368.22</v>
@@ -8005,7 +8005,7 @@
         <v>352.9</v>
       </c>
       <c r="D233" t="n">
-        <v>363.87</v>
+        <v>364.81</v>
       </c>
       <c r="E233" t="n">
         <v>374.74</v>
@@ -8091,7 +8091,7 @@
         <v>334.1</v>
       </c>
       <c r="D236" t="n">
-        <v>335.49</v>
+        <v>335.85</v>
       </c>
       <c r="E236" t="n">
         <v>352.63</v>
@@ -8209,7 +8209,7 @@
         <v>330.26</v>
       </c>
       <c r="D240" t="n">
-        <v>340.72</v>
+        <v>342.58</v>
       </c>
       <c r="E240" t="n">
         <v>361.76</v>
@@ -8237,7 +8237,7 @@
         <v>336.72</v>
       </c>
       <c r="D241" t="n">
-        <v>342.11</v>
+        <v>343.72</v>
       </c>
       <c r="E241" t="n">
         <v>352.46</v>
@@ -8269,7 +8269,7 @@
         <v>346.85</v>
       </c>
       <c r="D242" t="n">
-        <v>358.9</v>
+        <v>357.54</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
@@ -8295,7 +8295,7 @@
         <v>335.55</v>
       </c>
       <c r="D243" t="n">
-        <v>335.04</v>
+        <v>336.21</v>
       </c>
       <c r="E243" t="n">
         <v>347.18</v>
@@ -8331,7 +8331,7 @@
         <v>341.16</v>
       </c>
       <c r="D244" t="n">
-        <v>352.01</v>
+        <v>351.43</v>
       </c>
       <c r="E244" t="n">
         <v>364.41</v>
@@ -8367,7 +8367,7 @@
         <v>342.29</v>
       </c>
       <c r="D245" t="n">
-        <v>349.11</v>
+        <v>349.92</v>
       </c>
       <c r="E245" t="n">
         <v>361.69</v>
@@ -8461,7 +8461,7 @@
         <v>348.95</v>
       </c>
       <c r="D248" t="n">
-        <v>355.56</v>
+        <v>354.09</v>
       </c>
       <c r="E248" t="n">
         <v>366.4</v>
@@ -8497,7 +8497,7 @@
         <v>372.22</v>
       </c>
       <c r="D249" t="n">
-        <v>351.1</v>
+        <v>353.04</v>
       </c>
       <c r="E249" t="n">
         <v>367.2</v>
@@ -8613,7 +8613,7 @@
         <v>339.13</v>
       </c>
       <c r="D253" t="n">
-        <v>343.69</v>
+        <v>344.72</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
@@ -8669,7 +8669,7 @@
         <v>329.22</v>
       </c>
       <c r="D255" t="n">
-        <v>341.79</v>
+        <v>340.04</v>
       </c>
       <c r="E255" t="n">
         <v>347.46</v>
@@ -8705,7 +8705,7 @@
         <v>314.42</v>
       </c>
       <c r="D256" t="n">
-        <v>314.5</v>
+        <v>315.44</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
@@ -8735,7 +8735,7 @@
         <v>320.5</v>
       </c>
       <c r="D257" t="n">
-        <v>332.24</v>
+        <v>332.66</v>
       </c>
       <c r="E257" t="n">
         <v>355.37</v>
@@ -8845,7 +8845,7 @@
         <v>336.81</v>
       </c>
       <c r="D261" t="n">
-        <v>330.04</v>
+        <v>328.4</v>
       </c>
       <c r="E261" t="n">
         <v>338.72</v>
@@ -8881,7 +8881,7 @@
         <v>334.7</v>
       </c>
       <c r="D262" t="n">
-        <v>342.74</v>
+        <v>341.24</v>
       </c>
       <c r="E262" t="n">
         <v>351.47</v>
@@ -8917,7 +8917,7 @@
         <v>341.9</v>
       </c>
       <c r="D263" t="n">
-        <v>345.93</v>
+        <v>347.24</v>
       </c>
       <c r="E263" t="n">
         <v>364.7</v>
@@ -8949,7 +8949,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="n">
-        <v>343.6</v>
+        <v>343.18</v>
       </c>
       <c r="E264" t="n">
         <v>361.15</v>
@@ -9007,7 +9007,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
-        <v>348.12</v>
+        <v>348.95</v>
       </c>
       <c r="E266" t="n">
         <v>359.35</v>
@@ -9041,7 +9041,7 @@
         <v>343.79</v>
       </c>
       <c r="D267" t="n">
-        <v>349.1</v>
+        <v>348.57</v>
       </c>
       <c r="E267" t="n">
         <v>362.26</v>
@@ -9077,7 +9077,7 @@
         <v>349.86</v>
       </c>
       <c r="D268" t="n">
-        <v>355.95</v>
+        <v>356.01</v>
       </c>
       <c r="E268" t="n">
         <v>374.55</v>
@@ -9103,7 +9103,7 @@
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="n">
-        <v>365.33</v>
+        <v>364.61</v>
       </c>
       <c r="E269" t="n">
         <v>378.72</v>
@@ -9139,7 +9139,7 @@
         <v>347.59</v>
       </c>
       <c r="D270" t="n">
-        <v>353</v>
+        <v>352.64</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
@@ -9165,7 +9165,7 @@
         <v>370.59</v>
       </c>
       <c r="D271" t="n">
-        <v>373.06</v>
+        <v>371.25</v>
       </c>
       <c r="E271" t="n">
         <v>383</v>
@@ -9199,7 +9199,7 @@
         <v>350.02</v>
       </c>
       <c r="D272" t="n">
-        <v>350.04</v>
+        <v>351.93</v>
       </c>
       <c r="E272" t="n">
         <v>369.78</v>
@@ -9255,7 +9255,7 @@
         <v>346.48</v>
       </c>
       <c r="D274" t="n">
-        <v>353.26</v>
+        <v>353.2</v>
       </c>
       <c r="E274" t="n">
         <v>370.38</v>
@@ -9313,7 +9313,7 @@
         <v>342.36</v>
       </c>
       <c r="D276" t="n">
-        <v>342.16</v>
+        <v>343.94</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
@@ -9343,7 +9343,7 @@
         <v>340.38</v>
       </c>
       <c r="D277" t="n">
-        <v>345.97</v>
+        <v>344.72</v>
       </c>
       <c r="E277" t="n">
         <v>363.31</v>
@@ -9377,7 +9377,7 @@
         <v>319.18</v>
       </c>
       <c r="D278" t="n">
-        <v>331.58</v>
+        <v>333.69</v>
       </c>
       <c r="E278" t="n">
         <v>349.95</v>
@@ -9413,7 +9413,7 @@
         <v>335.36</v>
       </c>
       <c r="D279" t="n">
-        <v>349.16</v>
+        <v>347.3</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
@@ -9439,7 +9439,7 @@
         <v>342.38</v>
       </c>
       <c r="D280" t="n">
-        <v>359.72</v>
+        <v>358.44</v>
       </c>
       <c r="E280" t="n">
         <v>369.74</v>
@@ -9597,7 +9597,7 @@
         <v>344.3</v>
       </c>
       <c r="D285" t="n">
-        <v>350.83</v>
+        <v>350.52</v>
       </c>
       <c r="E285" t="n">
         <v>368.54</v>
@@ -9627,7 +9627,7 @@
         <v>345.17</v>
       </c>
       <c r="D286" t="n">
-        <v>349.6</v>
+        <v>350.18</v>
       </c>
       <c r="E286" t="n">
         <v>364.88</v>
@@ -9663,7 +9663,7 @@
         <v>333.1</v>
       </c>
       <c r="D287" t="n">
-        <v>339</v>
+        <v>337.89</v>
       </c>
       <c r="E287" t="n">
         <v>356.65</v>
@@ -9699,7 +9699,7 @@
         <v>323.75</v>
       </c>
       <c r="D288" t="n">
-        <v>332.71</v>
+        <v>330.82</v>
       </c>
       <c r="E288" t="n">
         <v>352.39</v>
@@ -9733,7 +9733,7 @@
         <v>333.97</v>
       </c>
       <c r="D289" t="n">
-        <v>341.76</v>
+        <v>339.84</v>
       </c>
       <c r="E289" t="n">
         <v>352.19</v>
@@ -9767,7 +9767,7 @@
         <v>335</v>
       </c>
       <c r="D290" t="n">
-        <v>339.38</v>
+        <v>337.88</v>
       </c>
       <c r="E290" t="n">
         <v>346.46</v>
@@ -9803,7 +9803,7 @@
         <v>344.25</v>
       </c>
       <c r="D291" t="n">
-        <v>346.24</v>
+        <v>345.32</v>
       </c>
       <c r="E291" t="n">
         <v>358.43</v>
@@ -9839,7 +9839,7 @@
         <v>355.13</v>
       </c>
       <c r="D292" t="n">
-        <v>362.51</v>
+        <v>362.76</v>
       </c>
       <c r="E292" t="n">
         <v>375.46</v>
@@ -9875,7 +9875,7 @@
         <v>344.42</v>
       </c>
       <c r="D293" t="n">
-        <v>349.19</v>
+        <v>350.77</v>
       </c>
       <c r="E293" t="n">
         <v>360.91</v>
@@ -9911,7 +9911,7 @@
         <v>358.56</v>
       </c>
       <c r="D294" t="n">
-        <v>358.74</v>
+        <v>360.35</v>
       </c>
       <c r="E294" t="n">
         <v>378.7</v>
@@ -9947,7 +9947,7 @@
         <v>347.1</v>
       </c>
       <c r="D295" t="n">
-        <v>349.67</v>
+        <v>350.84</v>
       </c>
       <c r="E295" t="n">
         <v>365.76</v>
@@ -9983,7 +9983,7 @@
         <v>340.42</v>
       </c>
       <c r="D296" t="n">
-        <v>343.34</v>
+        <v>342.45</v>
       </c>
       <c r="E296" t="n">
         <v>359.04</v>
@@ -10013,7 +10013,7 @@
         <v>341.11</v>
       </c>
       <c r="D297" t="n">
-        <v>346.27</v>
+        <v>344.77</v>
       </c>
       <c r="E297" t="n">
         <v>354.12</v>
@@ -10041,7 +10041,7 @@
         <v>343.71</v>
       </c>
       <c r="D298" t="n">
-        <v>348.88</v>
+        <v>350.27</v>
       </c>
       <c r="E298" t="n">
         <v>361.13</v>
@@ -10073,7 +10073,7 @@
         <v>338.77</v>
       </c>
       <c r="D299" t="n">
-        <v>342.46</v>
+        <v>340.54</v>
       </c>
       <c r="E299" t="n">
         <v>350.83</v>
@@ -10139,7 +10139,7 @@
         <v>338.63</v>
       </c>
       <c r="D301" t="n">
-        <v>346.09</v>
+        <v>344.81</v>
       </c>
       <c r="E301" t="n">
         <v>357.5</v>
@@ -10169,7 +10169,7 @@
         <v>338.32</v>
       </c>
       <c r="D302" t="n">
-        <v>343.3</v>
+        <v>344.74</v>
       </c>
       <c r="E302" t="n">
         <v>360.78</v>
@@ -10205,7 +10205,7 @@
         <v>329.66</v>
       </c>
       <c r="D303" t="n">
-        <v>340.89</v>
+        <v>340.31</v>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
@@ -10231,7 +10231,7 @@
         <v>338.87</v>
       </c>
       <c r="D304" t="n">
-        <v>361.51</v>
+        <v>360.23</v>
       </c>
       <c r="E304" t="n">
         <v>367.25</v>
@@ -10267,7 +10267,7 @@
         <v>343.76</v>
       </c>
       <c r="D305" t="n">
-        <v>351.87</v>
+        <v>352.56</v>
       </c>
       <c r="E305" t="n">
         <v>366.39</v>
@@ -10303,7 +10303,7 @@
         <v>342.38</v>
       </c>
       <c r="D306" t="n">
-        <v>353.66</v>
+        <v>352.66</v>
       </c>
       <c r="E306" t="n">
         <v>366.31</v>
@@ -10335,7 +10335,7 @@
         <v>346.38</v>
       </c>
       <c r="D307" t="n">
-        <v>346.72</v>
+        <v>348.55</v>
       </c>
       <c r="E307" t="n">
         <v>364.22</v>
@@ -10503,7 +10503,7 @@
         <v>332.88</v>
       </c>
       <c r="D312" t="n">
-        <v>344.05</v>
+        <v>344.83</v>
       </c>
       <c r="E312" t="n">
         <v>361.55</v>
@@ -10539,7 +10539,7 @@
         <v>338.25</v>
       </c>
       <c r="D313" t="n">
-        <v>340.01</v>
+        <v>339.37</v>
       </c>
       <c r="E313" t="n">
         <v>372.52</v>
@@ -10573,7 +10573,7 @@
         <v>347.85</v>
       </c>
       <c r="D314" t="n">
-        <v>353.6</v>
+        <v>354.27</v>
       </c>
       <c r="E314" t="n">
         <v>373.67</v>
@@ -10609,7 +10609,7 @@
         <v>340.91</v>
       </c>
       <c r="D315" t="n">
-        <v>347.26</v>
+        <v>346.04</v>
       </c>
       <c r="E315" t="n">
         <v>361.51</v>
@@ -10645,7 +10645,7 @@
         <v>333.94</v>
       </c>
       <c r="D316" t="n">
-        <v>345.8</v>
+        <v>343.72</v>
       </c>
       <c r="E316" t="n">
         <v>352.08</v>
@@ -10681,7 +10681,7 @@
         <v>354.77</v>
       </c>
       <c r="D317" t="n">
-        <v>364.9</v>
+        <v>366.15</v>
       </c>
       <c r="E317" t="n">
         <v>381.89</v>
@@ -10713,7 +10713,7 @@
         <v>351.31</v>
       </c>
       <c r="D318" t="n">
-        <v>348.02</v>
+        <v>350.27</v>
       </c>
       <c r="E318" t="n">
         <v>360.65</v>
@@ -10749,7 +10749,7 @@
         <v>339.11</v>
       </c>
       <c r="D319" t="n">
-        <v>342.17</v>
+        <v>343.56</v>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
@@ -10775,7 +10775,7 @@
         <v>345.51</v>
       </c>
       <c r="D320" t="n">
-        <v>353.63</v>
+        <v>352.07</v>
       </c>
       <c r="E320" t="n">
         <v>365.85</v>
@@ -10811,7 +10811,7 @@
         <v>348.73</v>
       </c>
       <c r="D321" t="n">
-        <v>356.4</v>
+        <v>357.93</v>
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
@@ -10863,7 +10863,7 @@
         <v>360.92</v>
       </c>
       <c r="D323" t="n">
-        <v>375.79</v>
+        <v>375.32</v>
       </c>
       <c r="E323" t="n">
         <v>387.22</v>
@@ -10899,7 +10899,7 @@
         <v>351.62</v>
       </c>
       <c r="D324" t="n">
-        <v>367.19</v>
+        <v>367.69</v>
       </c>
       <c r="E324" t="n">
         <v>383.07</v>
@@ -10935,7 +10935,7 @@
         <v>359.94</v>
       </c>
       <c r="D325" t="n">
-        <v>376.76</v>
+        <v>378.45</v>
       </c>
       <c r="E325" t="n">
         <v>393.36</v>
@@ -10971,7 +10971,7 @@
         <v>354.15</v>
       </c>
       <c r="D326" t="n">
-        <v>377.57</v>
+        <v>375.82</v>
       </c>
       <c r="E326" t="n">
         <v>388.09</v>
@@ -11061,7 +11061,7 @@
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>365.31</v>
+        <v>365.45</v>
       </c>
       <c r="E329" t="n">
         <v>379.52</v>
@@ -11097,7 +11097,7 @@
         <v>361.6</v>
       </c>
       <c r="D330" t="n">
-        <v>365.38</v>
+        <v>366.13</v>
       </c>
       <c r="E330" t="n">
         <v>376.4</v>
@@ -11129,7 +11129,7 @@
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>345.76</v>
+        <v>344.73</v>
       </c>
       <c r="E331" t="n">
         <v>357.5</v>
@@ -11165,7 +11165,7 @@
         <v>378.31</v>
       </c>
       <c r="D332" t="n">
-        <v>376.32</v>
+        <v>377.68</v>
       </c>
       <c r="E332" t="n">
         <v>387.35</v>
@@ -11221,7 +11221,7 @@
         <v>344.89</v>
       </c>
       <c r="D334" t="n">
-        <v>351.03</v>
+        <v>349.06</v>
       </c>
       <c r="E334" t="n">
         <v>359.92</v>
@@ -11281,7 +11281,7 @@
         <v>347.8</v>
       </c>
       <c r="D336" t="n">
-        <v>351.29</v>
+        <v>352.32</v>
       </c>
       <c r="E336" t="n">
         <v>373.57</v>
@@ -11317,7 +11317,7 @@
         <v>340.83</v>
       </c>
       <c r="D337" t="n">
-        <v>352.23</v>
+        <v>353.84</v>
       </c>
       <c r="E337" t="n">
         <v>372.67</v>
@@ -11353,7 +11353,7 @@
         <v>349.59</v>
       </c>
       <c r="D338" t="n">
-        <v>365.04</v>
+        <v>365.51</v>
       </c>
       <c r="E338" t="n">
         <v>382.99</v>
@@ -11389,7 +11389,7 @@
         <v>350.03</v>
       </c>
       <c r="D339" t="n">
-        <v>362.05</v>
+        <v>361.97</v>
       </c>
       <c r="E339" t="n">
         <v>373.65</v>
@@ -11425,7 +11425,7 @@
         <v>346.63</v>
       </c>
       <c r="D340" t="n">
-        <v>358.96</v>
+        <v>358.79</v>
       </c>
       <c r="E340" t="n">
         <v>371.77</v>
@@ -11489,7 +11489,7 @@
         <v>342.47</v>
       </c>
       <c r="D342" t="n">
-        <v>347.58</v>
+        <v>346.14</v>
       </c>
       <c r="E342" t="n">
         <v>361.11</v>
@@ -11525,7 +11525,7 @@
         <v>340.71</v>
       </c>
       <c r="D343" t="n">
-        <v>345.05</v>
+        <v>345.94</v>
       </c>
       <c r="E343" t="n">
         <v>355.16</v>
@@ -11743,7 +11743,7 @@
         <v>346.21</v>
       </c>
       <c r="D350" t="n">
-        <v>349.71</v>
+        <v>351.18</v>
       </c>
       <c r="E350" t="n">
         <v>367.55</v>
@@ -11779,7 +11779,7 @@
         <v>338.99</v>
       </c>
       <c r="D351" t="n">
-        <v>340.99</v>
+        <v>342.46</v>
       </c>
       <c r="E351" t="n">
         <v>362.81</v>
@@ -11815,7 +11815,7 @@
         <v>338.4</v>
       </c>
       <c r="D352" t="n">
-        <v>339.18</v>
+        <v>339.65</v>
       </c>
       <c r="E352" t="n">
         <v>365.26</v>
@@ -11851,7 +11851,7 @@
         <v>342.75</v>
       </c>
       <c r="D353" t="n">
-        <v>354.93</v>
+        <v>355.62</v>
       </c>
       <c r="E353" t="n">
         <v>370.11</v>
@@ -11887,7 +11887,7 @@
         <v>335.49</v>
       </c>
       <c r="D354" t="n">
-        <v>343.84</v>
+        <v>342.62</v>
       </c>
       <c r="E354" t="n">
         <v>352.74</v>
@@ -11923,7 +11923,7 @@
         <v>352.48</v>
       </c>
       <c r="D355" t="n">
-        <v>357.03</v>
+        <v>358.81</v>
       </c>
       <c r="E355" t="n">
         <v>378.96</v>
@@ -11957,7 +11957,7 @@
         <v>341.79</v>
       </c>
       <c r="D356" t="n">
-        <v>352.45</v>
+        <v>350.2</v>
       </c>
       <c r="E356" t="n">
         <v>361</v>
@@ -12011,7 +12011,7 @@
         <v>344.06</v>
       </c>
       <c r="D358" t="n">
-        <v>350.33</v>
+        <v>348.58</v>
       </c>
       <c r="E358" t="n">
         <v>367.4</v>
@@ -12045,7 +12045,7 @@
         <v>344.02</v>
       </c>
       <c r="D359" t="n">
-        <v>353.01</v>
+        <v>351.54</v>
       </c>
       <c r="E359" t="n">
         <v>367.95</v>
@@ -12081,7 +12081,7 @@
         <v>352.43</v>
       </c>
       <c r="D360" t="n">
-        <v>361.71</v>
+        <v>360.52</v>
       </c>
       <c r="E360" t="n">
         <v>374.28</v>
@@ -12109,7 +12109,7 @@
         <v>355.36</v>
       </c>
       <c r="D361" t="n">
-        <v>361.13</v>
+        <v>361.85</v>
       </c>
       <c r="E361" t="n">
         <v>376.16</v>
@@ -12143,7 +12143,7 @@
         <v>345.88</v>
       </c>
       <c r="D362" t="n">
-        <v>349.76</v>
+        <v>351.76</v>
       </c>
       <c r="E362" t="n">
         <v>365.12</v>
@@ -12179,7 +12179,7 @@
         <v>341.59</v>
       </c>
       <c r="D363" t="n">
-        <v>347.2</v>
+        <v>348.64</v>
       </c>
       <c r="E363" t="n">
         <v>362.59</v>
@@ -12213,7 +12213,7 @@
         <v>360.38</v>
       </c>
       <c r="D364" t="n">
-        <v>361.07</v>
+        <v>362.32</v>
       </c>
       <c r="E364" t="n">
         <v>375.85</v>
@@ -12249,7 +12249,7 @@
         <v>372.34</v>
       </c>
       <c r="D365" t="n">
-        <v>373.05</v>
+        <v>372.61</v>
       </c>
       <c r="E365" t="n">
         <v>386.7</v>
@@ -12285,7 +12285,7 @@
         <v>376.75</v>
       </c>
       <c r="D366" t="n">
-        <v>380.01</v>
+        <v>378.95</v>
       </c>
       <c r="E366" t="n">
         <v>383.79</v>
@@ -12349,7 +12349,7 @@
         <v>359.24</v>
       </c>
       <c r="D368" t="n">
-        <v>365.1</v>
+        <v>365.93</v>
       </c>
       <c r="E368" t="n">
         <v>378.67</v>
@@ -12385,7 +12385,7 @@
         <v>347.69</v>
       </c>
       <c r="D369" t="n">
-        <v>351.47</v>
+        <v>349.39</v>
       </c>
       <c r="E369" t="n">
         <v>364.58</v>
@@ -12419,7 +12419,7 @@
         <v>369.12</v>
       </c>
       <c r="D370" t="n">
-        <v>366.7</v>
+        <v>368.34</v>
       </c>
       <c r="E370" t="n">
         <v>386.73</v>
@@ -12451,7 +12451,7 @@
         <v>359.65</v>
       </c>
       <c r="D371" t="n">
-        <v>364.33</v>
+        <v>362.91</v>
       </c>
       <c r="E371" t="n">
         <v>372.79</v>
@@ -12511,7 +12511,7 @@
         <v>362.03</v>
       </c>
       <c r="D373" t="n">
-        <v>361.59</v>
+        <v>362.53</v>
       </c>
       <c r="E373" t="n">
         <v>377.12</v>
@@ -12547,7 +12547,7 @@
         <v>362.7</v>
       </c>
       <c r="D374" t="n">
-        <v>364.67</v>
+        <v>363.39</v>
       </c>
       <c r="E374" t="n">
         <v>381.18</v>
@@ -12583,7 +12583,7 @@
         <v>364.28</v>
       </c>
       <c r="D375" t="n">
-        <v>365.51</v>
+        <v>365.32</v>
       </c>
       <c r="E375" t="n">
         <v>379.5</v>
@@ -12647,7 +12647,7 @@
         <v>350.75</v>
       </c>
       <c r="D377" t="n">
-        <v>354.11</v>
+        <v>354.55</v>
       </c>
       <c r="E377" t="n">
         <v>363.86</v>
@@ -12683,7 +12683,7 @@
         <v>335.05</v>
       </c>
       <c r="D378" t="n">
-        <v>335.8</v>
+        <v>335.58</v>
       </c>
       <c r="E378" t="n">
         <v>349.4</v>
@@ -12719,7 +12719,7 @@
         <v>349.84</v>
       </c>
       <c r="D379" t="n">
-        <v>357.9</v>
+        <v>357.07</v>
       </c>
       <c r="E379" t="n">
         <v>376.68</v>
@@ -12787,7 +12787,7 @@
         <v>345.19</v>
       </c>
       <c r="D381" t="n">
-        <v>351.73</v>
+        <v>353.15</v>
       </c>
       <c r="E381" t="n">
         <v>368.99</v>
@@ -12857,7 +12857,7 @@
         <v>327.88</v>
       </c>
       <c r="D383" t="n">
-        <v>331.46</v>
+        <v>332.99</v>
       </c>
       <c r="E383" t="n">
         <v>352.55</v>
@@ -12893,7 +12893,7 @@
         <v>345.72</v>
       </c>
       <c r="D384" t="n">
-        <v>362.78</v>
+        <v>361.28</v>
       </c>
       <c r="E384" t="n">
         <v>367.99</v>
@@ -12961,7 +12961,7 @@
         <v>358.28</v>
       </c>
       <c r="D386" t="n">
-        <v>363.05</v>
+        <v>362.74</v>
       </c>
       <c r="E386" t="n">
         <v>376.62</v>
@@ -12997,7 +12997,7 @@
         <v>349.84</v>
       </c>
       <c r="D387" t="n">
-        <v>353.72</v>
+        <v>354.47</v>
       </c>
       <c r="E387" t="n">
         <v>367.55</v>
@@ -13033,7 +13033,7 @@
         <v>348.77</v>
       </c>
       <c r="D388" t="n">
-        <v>359.16</v>
+        <v>359.24</v>
       </c>
       <c r="E388" t="n">
         <v>375.56</v>
@@ -13123,7 +13123,7 @@
         <v>355.93</v>
       </c>
       <c r="D391" t="n">
-        <v>358.59</v>
+        <v>358.98</v>
       </c>
       <c r="E391" t="n">
         <v>363.31</v>
@@ -13159,7 +13159,7 @@
         <v>361.25</v>
       </c>
       <c r="D392" t="n">
-        <v>365.74</v>
+        <v>365.21</v>
       </c>
       <c r="E392" t="n">
         <v>369.77</v>
@@ -13195,7 +13195,7 @@
         <v>359.74</v>
       </c>
       <c r="D393" t="n">
-        <v>363.46</v>
+        <v>363.68</v>
       </c>
       <c r="E393" t="n">
         <v>371.22</v>
@@ -13223,7 +13223,7 @@
         <v>370.06</v>
       </c>
       <c r="D394" t="n">
-        <v>375.86</v>
+        <v>375.25</v>
       </c>
       <c r="E394" t="n">
         <v>381.54</v>
@@ -13285,7 +13285,7 @@
         <v>344.85</v>
       </c>
       <c r="D396" t="n">
-        <v>346.3</v>
+        <v>347.22</v>
       </c>
       <c r="E396" t="n">
         <v>360.36</v>
@@ -13321,7 +13321,7 @@
         <v>353.68</v>
       </c>
       <c r="D397" t="n">
-        <v>358.74</v>
+        <v>360.52</v>
       </c>
       <c r="E397" t="n">
         <v>372.42</v>
@@ -13385,7 +13385,7 @@
         <v>353.16</v>
       </c>
       <c r="D399" t="n">
-        <v>359.25</v>
+        <v>357.14</v>
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
@@ -13411,7 +13411,7 @@
         <v>355.2</v>
       </c>
       <c r="D400" t="n">
-        <v>360.41</v>
+        <v>361.77</v>
       </c>
       <c r="E400" t="n">
         <v>371.26</v>
@@ -13475,7 +13475,7 @@
         <v>369.08</v>
       </c>
       <c r="D402" t="n">
-        <v>380.32</v>
+        <v>378.21</v>
       </c>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
@@ -13529,7 +13529,7 @@
         <v>355.7</v>
       </c>
       <c r="D404" t="n">
-        <v>366.1</v>
+        <v>364.99</v>
       </c>
       <c r="E404" t="n">
         <v>375.94</v>
@@ -13593,7 +13593,7 @@
         <v>343.67</v>
       </c>
       <c r="D406" t="n">
-        <v>343.6</v>
+        <v>345.41</v>
       </c>
       <c r="E406" t="n">
         <v>363.7</v>
@@ -13629,7 +13629,7 @@
         <v>340.64</v>
       </c>
       <c r="D407" t="n">
-        <v>345.11</v>
+        <v>343.75</v>
       </c>
       <c r="E407" t="n">
         <v>359.41</v>
@@ -13659,7 +13659,7 @@
         <v>341.22</v>
       </c>
       <c r="D408" t="n">
-        <v>348.69</v>
+        <v>347.3</v>
       </c>
       <c r="E408" t="n">
         <v>361.41</v>
@@ -13689,7 +13689,7 @@
         <v>342.47</v>
       </c>
       <c r="D409" t="n">
-        <v>344.77</v>
+        <v>346.52</v>
       </c>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
@@ -13715,7 +13715,7 @@
         <v>341.42</v>
       </c>
       <c r="D410" t="n">
-        <v>347</v>
+        <v>349.03</v>
       </c>
       <c r="E410" t="n">
         <v>368.73</v>
@@ -13751,7 +13751,7 @@
         <v>336.85</v>
       </c>
       <c r="D411" t="n">
-        <v>344.57</v>
+        <v>342.6</v>
       </c>
       <c r="E411" t="n">
         <v>364.65</v>
@@ -13787,7 +13787,7 @@
         <v>343.16</v>
       </c>
       <c r="D412" t="n">
-        <v>351.98</v>
+        <v>350.56</v>
       </c>
       <c r="E412" t="n">
         <v>366.58</v>
@@ -13821,7 +13821,7 @@
         <v>339.95</v>
       </c>
       <c r="D413" t="n">
-        <v>347.91</v>
+        <v>347.08</v>
       </c>
       <c r="E413" t="n">
         <v>367.46</v>
@@ -13941,7 +13941,7 @@
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="n">
-        <v>345.62</v>
+        <v>343.87</v>
       </c>
       <c r="E417" t="n">
         <v>347.69</v>
@@ -14039,7 +14039,7 @@
         <v>324.38</v>
       </c>
       <c r="D420" t="n">
-        <v>341.34</v>
+        <v>343.2</v>
       </c>
       <c r="E420" t="n">
         <v>369.47</v>
@@ -14105,7 +14105,7 @@
         <v>342.39</v>
       </c>
       <c r="D422" t="n">
-        <v>363.7</v>
+        <v>365.17</v>
       </c>
       <c r="E422" t="n">
         <v>382.94</v>
@@ -14141,7 +14141,7 @@
         <v>339.56</v>
       </c>
       <c r="D423" t="n">
-        <v>359.27</v>
+        <v>360.6</v>
       </c>
       <c r="E423" t="n">
         <v>378.16</v>
@@ -14171,7 +14171,7 @@
         <v>353.27</v>
       </c>
       <c r="D424" t="n">
-        <v>361.37</v>
+        <v>359.56</v>
       </c>
       <c r="E424" t="n">
         <v>380.06</v>
@@ -14205,7 +14205,7 @@
         <v>340.57</v>
       </c>
       <c r="D425" t="n">
-        <v>350.63</v>
+        <v>352.27</v>
       </c>
       <c r="E425" t="n">
         <v>375.92</v>
@@ -14275,7 +14275,7 @@
         <v>353.8</v>
       </c>
       <c r="D427" t="n">
-        <v>360.43</v>
+        <v>361.37</v>
       </c>
       <c r="E427" t="n">
         <v>377.85</v>
@@ -14311,7 +14311,7 @@
         <v>353.91</v>
       </c>
       <c r="D428" t="n">
-        <v>360.86</v>
+        <v>360.36</v>
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
@@ -14337,7 +14337,7 @@
         <v>360.37</v>
       </c>
       <c r="D429" t="n">
-        <v>367.6</v>
+        <v>368.21</v>
       </c>
       <c r="E429" t="n">
         <v>383.83</v>
@@ -14373,7 +14373,7 @@
         <v>357.79</v>
       </c>
       <c r="D430" t="n">
-        <v>356.84</v>
+        <v>357.12</v>
       </c>
       <c r="E430" t="n">
         <v>373.89</v>
@@ -14435,7 +14435,7 @@
         <v>369.28</v>
       </c>
       <c r="D432" t="n">
-        <v>374.23</v>
+        <v>375.79</v>
       </c>
       <c r="E432" t="n">
         <v>385.69</v>
@@ -14487,7 +14487,7 @@
       <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="n">
-        <v>362.27</v>
+        <v>363.8</v>
       </c>
       <c r="E434" t="n">
         <v>367.92</v>
@@ -14523,7 +14523,7 @@
         <v>369.87</v>
       </c>
       <c r="D435" t="n">
-        <v>370.62</v>
+        <v>370.15</v>
       </c>
       <c r="E435" t="n">
         <v>377.74</v>
@@ -14589,7 +14589,7 @@
         <v>367.5</v>
       </c>
       <c r="D437" t="n">
-        <v>366.32</v>
+        <v>367.4</v>
       </c>
       <c r="E437" t="n">
         <v>378.25</v>
@@ -14625,7 +14625,7 @@
         <v>363.25</v>
       </c>
       <c r="D438" t="n">
-        <v>359.01</v>
+        <v>360.34</v>
       </c>
       <c r="E438" t="n">
         <v>374.16</v>
@@ -14651,7 +14651,7 @@
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
-        <v>369.5</v>
+        <v>368.17</v>
       </c>
       <c r="E439" t="n">
         <v>379.76</v>
@@ -14709,7 +14709,7 @@
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr"/>
       <c r="D441" t="n">
-        <v>362.32</v>
+        <v>362.01</v>
       </c>
       <c r="E441" t="n">
         <v>369.89</v>
@@ -14745,7 +14745,7 @@
         <v>360.93</v>
       </c>
       <c r="D442" t="n">
-        <v>362.79</v>
+        <v>362.12</v>
       </c>
       <c r="E442" t="n">
         <v>371.53</v>
@@ -14809,7 +14809,7 @@
         <v>339.41</v>
       </c>
       <c r="D444" t="n">
-        <v>341.98</v>
+        <v>343.15</v>
       </c>
       <c r="E444" t="n">
         <v>357.89</v>
@@ -14845,7 +14845,7 @@
         <v>355.78</v>
       </c>
       <c r="D445" t="n">
-        <v>358.44</v>
+        <v>357.52</v>
       </c>
       <c r="E445" t="n">
         <v>374.16</v>
@@ -14881,7 +14881,7 @@
         <v>349.59</v>
       </c>
       <c r="D446" t="n">
-        <v>355.04</v>
+        <v>356.85</v>
       </c>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
@@ -14909,7 +14909,7 @@
         <v>350.6</v>
       </c>
       <c r="D447" t="n">
-        <v>352.75</v>
+        <v>351.33</v>
       </c>
       <c r="E447" t="n">
         <v>372.35</v>
@@ -14943,7 +14943,7 @@
         <v>352.54</v>
       </c>
       <c r="D448" t="n">
-        <v>356.55</v>
+        <v>354.63</v>
       </c>
       <c r="E448" t="n">
         <v>373.68</v>
@@ -14979,7 +14979,7 @@
         <v>354.3</v>
       </c>
       <c r="D449" t="n">
-        <v>366.76</v>
+        <v>365.43</v>
       </c>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
@@ -15033,7 +15033,7 @@
         <v>335.3</v>
       </c>
       <c r="D451" t="n">
-        <v>348.02</v>
+        <v>347.08</v>
       </c>
       <c r="E451" t="n">
         <v>374.21</v>
@@ -15101,7 +15101,7 @@
         <v>351.46</v>
       </c>
       <c r="D453" t="n">
-        <v>355.11</v>
+        <v>355</v>
       </c>
       <c r="E453" t="n">
         <v>369.59</v>
@@ -15189,7 +15189,7 @@
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="n">
-        <v>366.28</v>
+        <v>366.92</v>
       </c>
       <c r="E456" t="n">
         <v>386.64</v>
@@ -15251,7 +15251,7 @@
         <v>334.68</v>
       </c>
       <c r="D458" t="n">
-        <v>349.52</v>
+        <v>347.69</v>
       </c>
       <c r="E458" t="n">
         <v>367.19</v>
@@ -15285,7 +15285,7 @@
         <v>338.67</v>
       </c>
       <c r="D459" t="n">
-        <v>351.01</v>
+        <v>352.32</v>
       </c>
       <c r="E459" t="n">
         <v>377.84</v>
@@ -15321,7 +15321,7 @@
         <v>342.37</v>
       </c>
       <c r="D460" t="n">
-        <v>354.02</v>
+        <v>355.58</v>
       </c>
       <c r="E460" t="n">
         <v>381.2</v>
@@ -15377,7 +15377,7 @@
         <v>347.57</v>
       </c>
       <c r="D462" t="n">
-        <v>369.74</v>
+        <v>368.46</v>
       </c>
       <c r="E462" t="n">
         <v>382.42</v>
@@ -15413,7 +15413,7 @@
         <v>346.66</v>
       </c>
       <c r="D463" t="n">
-        <v>355.87</v>
+        <v>357.59</v>
       </c>
       <c r="E463" t="n">
         <v>377.27</v>
@@ -15449,7 +15449,7 @@
         <v>337.79</v>
       </c>
       <c r="D464" t="n">
-        <v>335.47</v>
+        <v>336.89</v>
       </c>
       <c r="E464" t="n">
         <v>358.35</v>
@@ -15481,7 +15481,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="n">
-        <v>345.53</v>
+        <v>346.64</v>
       </c>
       <c r="E465" t="n">
         <v>361.43</v>
@@ -15517,7 +15517,7 @@
         <v>335.84</v>
       </c>
       <c r="D466" t="n">
-        <v>336.71</v>
+        <v>338.43</v>
       </c>
       <c r="E466" t="n">
         <v>353.42</v>
@@ -15577,7 +15577,7 @@
         <v>358.55</v>
       </c>
       <c r="D468" t="n">
-        <v>360.8</v>
+        <v>361.3</v>
       </c>
       <c r="E468" t="n">
         <v>370.3</v>
@@ -15605,7 +15605,7 @@
         <v>374.72</v>
       </c>
       <c r="D469" t="n">
-        <v>380.48</v>
+        <v>378.59</v>
       </c>
       <c r="E469" t="n">
         <v>378.88</v>
@@ -15697,7 +15697,7 @@
         <v>369.98</v>
       </c>
       <c r="D472" t="n">
-        <v>372.44</v>
+        <v>371.05</v>
       </c>
       <c r="E472" t="n">
         <v>367.39</v>
@@ -15733,7 +15733,7 @@
         <v>373.27</v>
       </c>
       <c r="D473" t="n">
-        <v>372.15</v>
+        <v>371.68</v>
       </c>
       <c r="E473" t="n">
         <v>372.49</v>
@@ -15769,7 +15769,7 @@
         <v>372.27</v>
       </c>
       <c r="D474" t="n">
-        <v>372.17</v>
+        <v>372.64</v>
       </c>
       <c r="E474" t="n">
         <v>381.28</v>
@@ -15805,7 +15805,7 @@
         <v>391.57</v>
       </c>
       <c r="D475" t="n">
-        <v>381.52</v>
+        <v>382.77</v>
       </c>
       <c r="E475" t="n">
         <v>385.67</v>
@@ -15841,7 +15841,7 @@
         <v>370.3</v>
       </c>
       <c r="D476" t="n">
-        <v>370.19</v>
+        <v>368.72</v>
       </c>
       <c r="E476" t="n">
         <v>376.93</v>
@@ -15877,7 +15877,7 @@
         <v>369.97</v>
       </c>
       <c r="D477" t="n">
-        <v>369.01</v>
+        <v>370.65</v>
       </c>
       <c r="E477" t="n">
         <v>374.39</v>
@@ -15911,7 +15911,7 @@
         <v>389.54</v>
       </c>
       <c r="D478" t="n">
-        <v>381.8</v>
+        <v>383.86</v>
       </c>
       <c r="E478" t="n">
         <v>385.94</v>
@@ -15947,7 +15947,7 @@
         <v>354.31</v>
       </c>
       <c r="D479" t="n">
-        <v>358.46</v>
+        <v>356.82</v>
       </c>
       <c r="E479" t="n">
         <v>358.97</v>
@@ -15983,7 +15983,7 @@
         <v>353.87</v>
       </c>
       <c r="D480" t="n">
-        <v>355.94</v>
+        <v>357.27</v>
       </c>
       <c r="E480" t="n">
         <v>362.01</v>
@@ -16049,7 +16049,7 @@
         <v>340.89</v>
       </c>
       <c r="D482" t="n">
-        <v>341.03</v>
+        <v>340.25</v>
       </c>
       <c r="E482" t="n">
         <v>363.29</v>
@@ -16085,7 +16085,7 @@
         <v>351.37</v>
       </c>
       <c r="D483" t="n">
-        <v>349.01</v>
+        <v>347.59</v>
       </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
@@ -16109,7 +16109,7 @@
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="n">
-        <v>363.46</v>
+        <v>365.38</v>
       </c>
       <c r="E484" t="n">
         <v>384.18</v>
@@ -16145,7 +16145,7 @@
         <v>341.59</v>
       </c>
       <c r="D485" t="n">
-        <v>346.47</v>
+        <v>348.58</v>
       </c>
       <c r="E485" t="n">
         <v>361.41</v>
@@ -16181,7 +16181,7 @@
         <v>356.34</v>
       </c>
       <c r="D486" t="n">
-        <v>365.28</v>
+        <v>363.81</v>
       </c>
       <c r="E486" t="n">
         <v>375.77</v>
@@ -16215,7 +16215,7 @@
         <v>353.23</v>
       </c>
       <c r="D487" t="n">
-        <v>362.86</v>
+        <v>361.58</v>
       </c>
       <c r="E487" t="n">
         <v>370.28</v>
@@ -16249,7 +16249,7 @@
         <v>347.31</v>
       </c>
       <c r="D488" t="n">
-        <v>363.14</v>
+        <v>364.72</v>
       </c>
       <c r="E488" t="n">
         <v>389.19</v>
@@ -16285,7 +16285,7 @@
         <v>331.62</v>
       </c>
       <c r="D489" t="n">
-        <v>343.77</v>
+        <v>341.96</v>
       </c>
       <c r="E489" t="n">
         <v>349.15</v>
@@ -16379,7 +16379,7 @@
         <v>354.26</v>
       </c>
       <c r="D492" t="n">
-        <v>365.94</v>
+        <v>365.69</v>
       </c>
       <c r="E492" t="n">
         <v>378.42</v>
@@ -16415,7 +16415,7 @@
         <v>341.4</v>
       </c>
       <c r="D493" t="n">
-        <v>344.09</v>
+        <v>344.03</v>
       </c>
       <c r="E493" t="n">
         <v>360.4</v>
@@ -16451,7 +16451,7 @@
         <v>357.66</v>
       </c>
       <c r="D494" t="n">
-        <v>352.01</v>
+        <v>352.79</v>
       </c>
       <c r="E494" t="n">
         <v>371.18</v>
@@ -16511,7 +16511,7 @@
         <v>343.79</v>
       </c>
       <c r="D496" t="n">
-        <v>352.9</v>
+        <v>351.09</v>
       </c>
       <c r="E496" t="n">
         <v>363.13</v>
@@ -16547,7 +16547,7 @@
         <v>343.49</v>
       </c>
       <c r="D497" t="n">
-        <v>358.15</v>
+        <v>359.51</v>
       </c>
       <c r="E497" t="n">
         <v>372.26</v>
@@ -16641,7 +16641,7 @@
         <v>353.95</v>
       </c>
       <c r="D500" t="n">
-        <v>358.88</v>
+        <v>360.44</v>
       </c>
       <c r="E500" t="n">
         <v>369.55</v>
@@ -16675,7 +16675,7 @@
         <v>355.53</v>
       </c>
       <c r="D501" t="n">
-        <v>352.92</v>
+        <v>355</v>
       </c>
       <c r="E501" t="n">
         <v>364.3</v>
@@ -16767,7 +16767,7 @@
         <v>364.14</v>
       </c>
       <c r="D504" t="n">
-        <v>366.56</v>
+        <v>366.67</v>
       </c>
       <c r="E504" t="n">
         <v>370.89</v>
@@ -16799,7 +16799,7 @@
         <v>361.09</v>
       </c>
       <c r="D505" t="n">
-        <v>366.72</v>
+        <v>367.03</v>
       </c>
       <c r="E505" t="n">
         <v>372.38</v>
@@ -16835,7 +16835,7 @@
         <v>362.45</v>
       </c>
       <c r="D506" t="n">
-        <v>363.41</v>
+        <v>362.47</v>
       </c>
       <c r="E506" t="n">
         <v>369.18</v>
@@ -16871,7 +16871,7 @@
         <v>362.54</v>
       </c>
       <c r="D507" t="n">
-        <v>360.12</v>
+        <v>360.95</v>
       </c>
       <c r="E507" t="n">
         <v>369.68</v>
@@ -16957,7 +16957,7 @@
         <v>362.38</v>
       </c>
       <c r="D510" t="n">
-        <v>358.3</v>
+        <v>359.11</v>
       </c>
       <c r="E510" t="n">
         <v>368.36</v>
@@ -16993,7 +16993,7 @@
         <v>347.2</v>
       </c>
       <c r="D511" t="n">
-        <v>354.75</v>
+        <v>353.19</v>
       </c>
       <c r="E511" t="n">
         <v>359.61</v>
@@ -17029,7 +17029,7 @@
         <v>364.25</v>
       </c>
       <c r="D512" t="n">
-        <v>364.11</v>
+        <v>365.5</v>
       </c>
       <c r="E512" t="n">
         <v>371.91</v>
@@ -17089,7 +17089,7 @@
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="inlineStr"/>
       <c r="D514" t="n">
-        <v>370.76</v>
+        <v>369.2</v>
       </c>
       <c r="E514" t="n">
         <v>372.96</v>
@@ -17155,7 +17155,7 @@
         <v>367.35</v>
       </c>
       <c r="D516" t="n">
-        <v>371.21</v>
+        <v>369.99</v>
       </c>
       <c r="E516" t="n">
         <v>382.4</v>
@@ -17187,7 +17187,7 @@
         <v>341.1</v>
       </c>
       <c r="D517" t="n">
-        <v>346.59</v>
+        <v>346.53</v>
       </c>
       <c r="E517" t="n">
         <v>361.78</v>
@@ -17223,7 +17223,7 @@
         <v>349.68</v>
       </c>
       <c r="D518" t="n">
-        <v>354.37</v>
+        <v>354.79</v>
       </c>
       <c r="E518" t="n">
         <v>376.06</v>
@@ -17259,7 +17259,7 @@
         <v>359.15</v>
       </c>
       <c r="D519" t="n">
-        <v>357.78</v>
+        <v>357.86</v>
       </c>
       <c r="E519" t="n">
         <v>376.53</v>
@@ -17295,7 +17295,7 @@
         <v>351.16</v>
       </c>
       <c r="D520" t="n">
-        <v>353.33</v>
+        <v>352.64</v>
       </c>
       <c r="E520" t="n">
         <v>371.89</v>
@@ -17329,7 +17329,7 @@
         <v>345.59</v>
       </c>
       <c r="D521" t="n">
-        <v>354.37</v>
+        <v>355.7</v>
       </c>
       <c r="E521" t="n">
         <v>374.33</v>
@@ -17363,7 +17363,7 @@
         <v>365.19</v>
       </c>
       <c r="D522" t="n">
-        <v>353</v>
+        <v>355.03</v>
       </c>
       <c r="E522" t="n">
         <v>377.92</v>
@@ -17429,7 +17429,7 @@
         <v>343.15</v>
       </c>
       <c r="D524" t="n">
-        <v>355.95</v>
+        <v>354.39</v>
       </c>
       <c r="E524" t="n">
         <v>375.75</v>
@@ -17493,7 +17493,7 @@
         <v>334.01</v>
       </c>
       <c r="D526" t="n">
-        <v>349.21</v>
+        <v>350.57</v>
       </c>
       <c r="E526" t="n">
         <v>378.99</v>
@@ -17529,7 +17529,7 @@
         <v>353.04</v>
       </c>
       <c r="D527" t="n">
-        <v>375.02</v>
+        <v>374.58</v>
       </c>
       <c r="E527" t="n">
         <v>389.9</v>
@@ -17595,7 +17595,7 @@
         <v>363.46</v>
       </c>
       <c r="D529" t="n">
-        <v>363.31</v>
+        <v>364.31</v>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
@@ -17623,7 +17623,7 @@
         <v>353.24</v>
       </c>
       <c r="D530" t="n">
-        <v>355.15</v>
+        <v>353.93</v>
       </c>
       <c r="E530" t="n">
         <v>375.87</v>
@@ -17653,7 +17653,7 @@
         <v>361.84</v>
       </c>
       <c r="D531" t="n">
-        <v>360.5</v>
+        <v>361.89</v>
       </c>
       <c r="E531" t="n">
         <v>393.87</v>
@@ -17689,7 +17689,7 @@
         <v>355.55</v>
       </c>
       <c r="D532" t="n">
-        <v>357.07</v>
+        <v>358.71</v>
       </c>
       <c r="E532" t="n">
         <v>385.43</v>
@@ -17725,7 +17725,7 @@
         <v>355.1</v>
       </c>
       <c r="D533" t="n">
-        <v>356.81</v>
+        <v>355.34</v>
       </c>
       <c r="E533" t="n">
         <v>379.61</v>
@@ -17761,7 +17761,7 @@
         <v>347.39</v>
       </c>
       <c r="D534" t="n">
-        <v>345.88</v>
+        <v>347.3</v>
       </c>
       <c r="E534" t="n">
         <v>375.81</v>
@@ -17795,7 +17795,7 @@
         <v>360.47</v>
       </c>
       <c r="D535" t="n">
-        <v>357.03</v>
+        <v>358.86</v>
       </c>
       <c r="E535" t="n">
         <v>392.35</v>
@@ -17831,7 +17831,7 @@
         <v>343.36</v>
       </c>
       <c r="D536" t="n">
-        <v>344.07</v>
+        <v>345.43</v>
       </c>
       <c r="E536" t="n">
         <v>362.18</v>
@@ -17867,7 +17867,7 @@
         <v>347.75</v>
       </c>
       <c r="D537" t="n">
-        <v>349.65</v>
+        <v>350.21</v>
       </c>
       <c r="E537" t="n">
         <v>364.34</v>
@@ -17903,7 +17903,7 @@
         <v>356.55</v>
       </c>
       <c r="D538" t="n">
-        <v>353.99</v>
+        <v>355.77</v>
       </c>
       <c r="E538" t="n">
         <v>374.95</v>
@@ -17939,7 +17939,7 @@
         <v>363.57</v>
       </c>
       <c r="D539" t="n">
-        <v>366.6</v>
+        <v>366.49</v>
       </c>
       <c r="E539" t="n">
         <v>382.02</v>
@@ -17975,7 +17975,7 @@
         <v>371.04</v>
       </c>
       <c r="D540" t="n">
-        <v>369.37</v>
+        <v>369.56</v>
       </c>
       <c r="E540" t="n">
         <v>388.15</v>
@@ -18063,7 +18063,7 @@
       <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
       <c r="D543" t="n">
-        <v>378.32</v>
+        <v>380.15</v>
       </c>
       <c r="E543" t="n">
         <v>384.4</v>
@@ -18099,7 +18099,7 @@
         <v>370.16</v>
       </c>
       <c r="D544" t="n">
-        <v>374.54</v>
+        <v>372.35</v>
       </c>
       <c r="E544" t="n">
         <v>386.09</v>
@@ -18135,7 +18135,7 @@
         <v>342.84</v>
       </c>
       <c r="D545" t="n">
-        <v>347.69</v>
+        <v>348.8</v>
       </c>
       <c r="E545" t="n">
         <v>361.88</v>
@@ -18171,7 +18171,7 @@
         <v>365.82</v>
       </c>
       <c r="D546" t="n">
-        <v>373.87</v>
+        <v>371.73</v>
       </c>
       <c r="E546" t="n">
         <v>383.82</v>
@@ -18207,7 +18207,7 @@
         <v>369.1</v>
       </c>
       <c r="D547" t="n">
-        <v>374.72</v>
+        <v>375.64</v>
       </c>
       <c r="E547" t="n">
         <v>384.78</v>
@@ -18237,7 +18237,7 @@
         <v>360.07</v>
       </c>
       <c r="D548" t="n">
-        <v>367.93</v>
+        <v>367.99</v>
       </c>
       <c r="E548" t="n">
         <v>375.73</v>
@@ -18273,7 +18273,7 @@
         <v>361.47</v>
       </c>
       <c r="D549" t="n">
-        <v>363.22</v>
+        <v>364.25</v>
       </c>
       <c r="E549" t="n">
         <v>375.91</v>
@@ -18309,7 +18309,7 @@
         <v>365.6</v>
       </c>
       <c r="D550" t="n">
-        <v>370.81</v>
+        <v>369.64</v>
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>369.45</v>
       </c>
       <c r="D551" t="n">
-        <v>376.31</v>
+        <v>376.56</v>
       </c>
       <c r="E551" t="n">
         <v>387.03</v>
@@ -18373,7 +18373,7 @@
         <v>361.73</v>
       </c>
       <c r="D552" t="n">
-        <v>371.35</v>
+        <v>372.85</v>
       </c>
       <c r="E552" t="n">
         <v>381.93</v>
@@ -18409,7 +18409,7 @@
         <v>364.82</v>
       </c>
       <c r="D553" t="n">
-        <v>367.67</v>
+        <v>369.31</v>
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
@@ -18465,7 +18465,7 @@
         <v>364.92</v>
       </c>
       <c r="D555" t="n">
-        <v>377.48</v>
+        <v>375.95</v>
       </c>
       <c r="E555" t="n">
         <v>389.34</v>
@@ -18501,7 +18501,7 @@
         <v>356.91</v>
       </c>
       <c r="D556" t="n">
-        <v>359.61</v>
+        <v>359.97</v>
       </c>
       <c r="E556" t="n">
         <v>378.58</v>
@@ -18561,7 +18561,7 @@
         <v>376.67</v>
       </c>
       <c r="D558" t="n">
-        <v>365.15</v>
+        <v>366.93</v>
       </c>
       <c r="E558" t="n">
         <v>395.12</v>
@@ -18651,7 +18651,7 @@
         <v>365.17</v>
       </c>
       <c r="D561" t="n">
-        <v>366.69</v>
+        <v>368.86</v>
       </c>
       <c r="E561" t="n">
         <v>390.77</v>
@@ -18711,7 +18711,7 @@
         <v>358.09</v>
       </c>
       <c r="D563" t="n">
-        <v>369.96</v>
+        <v>370.9</v>
       </c>
       <c r="E563" t="n">
         <v>389.95</v>
@@ -18743,7 +18743,7 @@
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="n">
-        <v>354.46</v>
+        <v>354.96</v>
       </c>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
@@ -18769,7 +18769,7 @@
         <v>325.23</v>
       </c>
       <c r="D565" t="n">
-        <v>323.7</v>
+        <v>324.06</v>
       </c>
       <c r="E565" t="n">
         <v>355.58</v>
@@ -18857,7 +18857,7 @@
         <v>359.36</v>
       </c>
       <c r="D568" t="n">
-        <v>370.4</v>
+        <v>369.26</v>
       </c>
       <c r="E568" t="n">
         <v>389.85</v>
@@ -18893,7 +18893,7 @@
         <v>353.1</v>
       </c>
       <c r="D569" t="n">
-        <v>356.07</v>
+        <v>356.35</v>
       </c>
       <c r="E569" t="n">
         <v>382.38</v>
@@ -18929,7 +18929,7 @@
         <v>362.55</v>
       </c>
       <c r="D570" t="n">
-        <v>363.79</v>
+        <v>365.01</v>
       </c>
       <c r="E570" t="n">
         <v>382.77</v>
@@ -18965,7 +18965,7 @@
         <v>351.06</v>
       </c>
       <c r="D571" t="n">
-        <v>356.44</v>
+        <v>354.83</v>
       </c>
       <c r="E571" t="n">
         <v>376.69</v>
@@ -19001,7 +19001,7 @@
         <v>348.28</v>
       </c>
       <c r="D572" t="n">
-        <v>354.25</v>
+        <v>355.64</v>
       </c>
       <c r="E572" t="n">
         <v>371.4</v>
@@ -19037,7 +19037,7 @@
         <v>365.68</v>
       </c>
       <c r="D573" t="n">
-        <v>365.24</v>
+        <v>363.57</v>
       </c>
       <c r="E573" t="n">
         <v>374.98</v>
@@ -19067,7 +19067,7 @@
         <v>358.76</v>
       </c>
       <c r="D574" t="n">
-        <v>363.18</v>
+        <v>361.57</v>
       </c>
       <c r="E574" t="n">
         <v>378.43</v>
@@ -19103,7 +19103,7 @@
         <v>348.29</v>
       </c>
       <c r="D575" t="n">
-        <v>352.74</v>
+        <v>350.82</v>
       </c>
       <c r="E575" t="n">
         <v>370</v>
@@ -19139,7 +19139,7 @@
         <v>356.58</v>
       </c>
       <c r="D576" t="n">
-        <v>364.89</v>
+        <v>365.97</v>
       </c>
       <c r="E576" t="n">
         <v>388.74</v>
@@ -19175,7 +19175,7 @@
         <v>354.1</v>
       </c>
       <c r="D577" t="n">
-        <v>371.23</v>
+        <v>371.45</v>
       </c>
       <c r="E577" t="n">
         <v>389.94</v>
@@ -19211,7 +19211,7 @@
         <v>358.85</v>
       </c>
       <c r="D578" t="n">
-        <v>368.61</v>
+        <v>367.33</v>
       </c>
       <c r="E578" t="n">
         <v>382.74</v>
@@ -19275,7 +19275,7 @@
         <v>362.08</v>
       </c>
       <c r="D580" t="n">
-        <v>370.15</v>
+        <v>368.51</v>
       </c>
       <c r="E580" t="n">
         <v>382.15</v>
@@ -19339,7 +19339,7 @@
         <v>357.37</v>
       </c>
       <c r="D582" t="n">
-        <v>360.81</v>
+        <v>362.23</v>
       </c>
       <c r="E582" t="n">
         <v>379.14</v>
@@ -19399,7 +19399,7 @@
         <v>369.44</v>
       </c>
       <c r="D584" t="n">
-        <v>373.61</v>
+        <v>372.5</v>
       </c>
       <c r="E584" t="n">
         <v>380.65</v>
@@ -19435,7 +19435,7 @@
         <v>369.74</v>
       </c>
       <c r="D585" t="n">
-        <v>372.62</v>
+        <v>373.45</v>
       </c>
       <c r="E585" t="n">
         <v>381.73</v>
@@ -19497,7 +19497,7 @@
         <v>373.25</v>
       </c>
       <c r="D587" t="n">
-        <v>370.79</v>
+        <v>370.35</v>
       </c>
       <c r="E587" t="n">
         <v>380.39</v>
@@ -19533,7 +19533,7 @@
         <v>367.27</v>
       </c>
       <c r="D588" t="n">
-        <v>365.68</v>
+        <v>366.32</v>
       </c>
       <c r="E588" t="n">
         <v>375.53</v>
@@ -19569,7 +19569,7 @@
         <v>369.73</v>
       </c>
       <c r="D589" t="n">
-        <v>368.78</v>
+        <v>370.09</v>
       </c>
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
@@ -19595,7 +19595,7 @@
         <v>363.86</v>
       </c>
       <c r="D590" t="n">
-        <v>366.17</v>
+        <v>366.56</v>
       </c>
       <c r="E590" t="n">
         <v>372.91</v>
@@ -19659,7 +19659,7 @@
         <v>363.54</v>
       </c>
       <c r="D592" t="n">
-        <v>369.62</v>
+        <v>368.18</v>
       </c>
       <c r="E592" t="n">
         <v>379.96</v>
@@ -19695,7 +19695,7 @@
         <v>341.47</v>
       </c>
       <c r="D593" t="n">
-        <v>355.68</v>
+        <v>354.21</v>
       </c>
       <c r="E593" t="n">
         <v>370.19</v>
@@ -19731,7 +19731,7 @@
         <v>322.47</v>
       </c>
       <c r="D594" t="n">
-        <v>339.51</v>
+        <v>340.98</v>
       </c>
       <c r="E594" t="n">
         <v>353.78</v>
@@ -19767,7 +19767,7 @@
         <v>334.08</v>
       </c>
       <c r="D595" t="n">
-        <v>349.11</v>
+        <v>350.75</v>
       </c>
       <c r="E595" t="n">
         <v>373.06</v>
@@ -19803,7 +19803,7 @@
         <v>345.28</v>
       </c>
       <c r="D596" t="n">
-        <v>364.52</v>
+        <v>365.46</v>
       </c>
       <c r="E596" t="n">
         <v>382.11</v>
@@ -19839,7 +19839,7 @@
         <v>339.12</v>
       </c>
       <c r="D597" t="n">
-        <v>346.02</v>
+        <v>345.77</v>
       </c>
       <c r="E597" t="n">
         <v>373.83</v>
@@ -19875,7 +19875,7 @@
         <v>342.17</v>
       </c>
       <c r="D598" t="n">
-        <v>352.22</v>
+        <v>352.91</v>
       </c>
       <c r="E598" t="n">
         <v>375.45</v>
@@ -19911,7 +19911,7 @@
         <v>351.64</v>
       </c>
       <c r="D599" t="n">
-        <v>354.57</v>
+        <v>354.85</v>
       </c>
       <c r="E599" t="n">
         <v>377.11</v>
@@ -19947,7 +19947,7 @@
         <v>358.2</v>
       </c>
       <c r="D600" t="n">
-        <v>369.52</v>
+        <v>370.05</v>
       </c>
       <c r="E600" t="n">
         <v>387.03</v>
@@ -20013,7 +20013,7 @@
         <v>356.91</v>
       </c>
       <c r="D602" t="n">
-        <v>367.59</v>
+        <v>366.78</v>
       </c>
       <c r="E602" t="n">
         <v>379.99</v>
@@ -20071,7 +20071,7 @@
         <v>356.52</v>
       </c>
       <c r="D604" t="n">
-        <v>370.74</v>
+        <v>369.66</v>
       </c>
       <c r="E604" t="n">
         <v>377.97</v>
@@ -20159,7 +20159,7 @@
         <v>349.07</v>
       </c>
       <c r="D607" t="n">
-        <v>359.83</v>
+        <v>361.27</v>
       </c>
       <c r="E607" t="n">
         <v>378.72</v>
@@ -20195,7 +20195,7 @@
         <v>365.31</v>
       </c>
       <c r="D608" t="n">
-        <v>373.86</v>
+        <v>372.44</v>
       </c>
       <c r="E608" t="n">
         <v>388.61</v>
@@ -20231,7 +20231,7 @@
         <v>359.4</v>
       </c>
       <c r="D609" t="n">
-        <v>373.35</v>
+        <v>372.02</v>
       </c>
       <c r="E609" t="n">
         <v>387.27</v>
@@ -20267,7 +20267,7 @@
         <v>341.65</v>
       </c>
       <c r="D610" t="n">
-        <v>357.77</v>
+        <v>359.66</v>
       </c>
       <c r="E610" t="n">
         <v>385.02</v>
@@ -20301,7 +20301,7 @@
         <v>354.77</v>
       </c>
       <c r="D611" t="n">
-        <v>369.41</v>
+        <v>370.74</v>
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
@@ -20333,7 +20333,7 @@
         <v>354.82</v>
       </c>
       <c r="D612" t="n">
-        <v>361.81</v>
+        <v>362.56</v>
       </c>
       <c r="E612" t="n">
         <v>382.49</v>
@@ -20369,7 +20369,7 @@
         <v>351.79</v>
       </c>
       <c r="D613" t="n">
-        <v>359.38</v>
+        <v>358.94</v>
       </c>
       <c r="E613" t="n">
         <v>375.37</v>
@@ -20405,7 +20405,7 @@
         <v>358.34</v>
       </c>
       <c r="D614" t="n">
-        <v>370.2</v>
+        <v>368.95</v>
       </c>
       <c r="E614" t="n">
         <v>379.73</v>
@@ -20471,7 +20471,7 @@
         <v>354.89</v>
       </c>
       <c r="D616" t="n">
-        <v>367.17</v>
+        <v>368.42</v>
       </c>
       <c r="E616" t="n">
         <v>380.59</v>
@@ -20507,7 +20507,7 @@
         <v>356.69</v>
       </c>
       <c r="D617" t="n">
-        <v>371.03</v>
+        <v>372.47</v>
       </c>
       <c r="E617" t="n">
         <v>386.67</v>
@@ -20543,7 +20543,7 @@
         <v>359.23</v>
       </c>
       <c r="D618" t="n">
-        <v>380.37</v>
+        <v>381.81</v>
       </c>
       <c r="E618" t="n">
         <v>389.24</v>
@@ -20579,7 +20579,7 @@
         <v>358.28</v>
       </c>
       <c r="D619" t="n">
-        <v>367.3</v>
+        <v>367.91</v>
       </c>
       <c r="E619" t="n">
         <v>383.07</v>
@@ -20615,7 +20615,7 @@
         <v>355.47</v>
       </c>
       <c r="D620" t="n">
-        <v>377</v>
+        <v>377.11</v>
       </c>
       <c r="E620" t="n">
         <v>386.59</v>
@@ -20703,7 +20703,7 @@
         <v>362.78</v>
       </c>
       <c r="D623" t="n">
-        <v>368.65</v>
+        <v>369.93</v>
       </c>
       <c r="E623" t="n">
         <v>382.3</v>
@@ -20739,7 +20739,7 @@
         <v>357.34</v>
       </c>
       <c r="D624" t="n">
-        <v>369.94</v>
+        <v>368.33</v>
       </c>
       <c r="E624" t="n">
         <v>378.58</v>
@@ -20771,7 +20771,7 @@
         <v>362.08</v>
       </c>
       <c r="D625" t="n">
-        <v>367.21</v>
+        <v>368.9</v>
       </c>
       <c r="E625" t="n">
         <v>388.74</v>
@@ -20807,7 +20807,7 @@
         <v>363.27</v>
       </c>
       <c r="D626" t="n">
-        <v>369.21</v>
+        <v>369.93</v>
       </c>
       <c r="E626" t="n">
         <v>388.39</v>
@@ -20837,7 +20837,7 @@
         <v>347.54</v>
       </c>
       <c r="D627" t="n">
-        <v>354.74</v>
+        <v>354.8</v>
       </c>
       <c r="E627" t="n">
         <v>368.52</v>
@@ -20873,7 +20873,7 @@
         <v>356.7</v>
       </c>
       <c r="D628" t="n">
-        <v>352.93</v>
+        <v>353.43</v>
       </c>
       <c r="E628" t="n">
         <v>375.03</v>
@@ -20909,7 +20909,7 @@
         <v>340.21</v>
       </c>
       <c r="D629" t="n">
-        <v>340.71</v>
+        <v>340.54</v>
       </c>
       <c r="E629" t="n">
         <v>358.46</v>
@@ -20945,7 +20945,7 @@
         <v>356.57</v>
       </c>
       <c r="D630" t="n">
-        <v>358.76</v>
+        <v>358.12</v>
       </c>
       <c r="E630" t="n">
         <v>373.97</v>
@@ -20981,7 +20981,7 @@
         <v>359.03</v>
       </c>
       <c r="D631" t="n">
-        <v>362.28</v>
+        <v>360.81</v>
       </c>
       <c r="E631" t="n">
         <v>371.77</v>
@@ -21017,7 +21017,7 @@
         <v>362.8</v>
       </c>
       <c r="D632" t="n">
-        <v>357.66</v>
+        <v>358.85</v>
       </c>
       <c r="E632" t="n">
         <v>378.26</v>
@@ -21053,7 +21053,7 @@
         <v>356.64</v>
       </c>
       <c r="D633" t="n">
-        <v>359.27</v>
+        <v>358.02</v>
       </c>
       <c r="E633" t="n">
         <v>368.16</v>
@@ -21089,7 +21089,7 @@
         <v>354.07</v>
       </c>
       <c r="D634" t="n">
-        <v>359.58</v>
+        <v>358.11</v>
       </c>
       <c r="E634" t="n">
         <v>373.38</v>
@@ -21147,7 +21147,7 @@
         <v>361.81</v>
       </c>
       <c r="D636" t="n">
-        <v>370.33</v>
+        <v>368.69</v>
       </c>
       <c r="E636" t="n">
         <v>370.44</v>
@@ -21183,7 +21183,7 @@
         <v>344.39</v>
       </c>
       <c r="D637" t="n">
-        <v>350.48</v>
+        <v>349.09</v>
       </c>
       <c r="E637" t="n">
         <v>361.14</v>
@@ -21219,7 +21219,7 @@
         <v>364.78</v>
       </c>
       <c r="D638" t="n">
-        <v>375.28</v>
+        <v>374.95</v>
       </c>
       <c r="E638" t="n">
         <v>382.19</v>
@@ -21285,7 +21285,7 @@
         <v>356.28</v>
       </c>
       <c r="D640" t="n">
-        <v>366</v>
+        <v>366.56</v>
       </c>
       <c r="E640" t="n">
         <v>379.97</v>
@@ -21321,7 +21321,7 @@
         <v>350.03</v>
       </c>
       <c r="D641" t="n">
-        <v>356.31</v>
+        <v>356.5</v>
       </c>
       <c r="E641" t="n">
         <v>374.56</v>
@@ -21425,7 +21425,7 @@
         <v>336.55</v>
       </c>
       <c r="D644" t="n">
-        <v>346.88</v>
+        <v>347.44</v>
       </c>
       <c r="E644" t="n">
         <v>362.68</v>
@@ -21461,7 +21461,7 @@
         <v>342.28</v>
       </c>
       <c r="D645" t="n">
-        <v>353.61</v>
+        <v>353.19</v>
       </c>
       <c r="E645" t="n">
         <v>373.61</v>
@@ -21525,7 +21525,7 @@
         <v>354.89</v>
       </c>
       <c r="D647" t="n">
-        <v>366.57</v>
+        <v>368.15</v>
       </c>
       <c r="E647" t="n">
         <v>391.46</v>
@@ -21583,7 +21583,7 @@
         <v>349.68</v>
       </c>
       <c r="D649" t="n">
-        <v>365.07</v>
+        <v>366.35</v>
       </c>
       <c r="E649" t="n">
         <v>386.31</v>
@@ -21619,7 +21619,7 @@
         <v>351.96</v>
       </c>
       <c r="D650" t="n">
-        <v>362.47</v>
+        <v>364.36</v>
       </c>
       <c r="E650" t="n">
         <v>388.6</v>
@@ -21655,7 +21655,7 @@
         <v>352.14</v>
       </c>
       <c r="D651" t="n">
-        <v>361.66</v>
+        <v>363.08</v>
       </c>
       <c r="E651" t="n">
         <v>379.29</v>
@@ -21691,7 +21691,7 @@
         <v>346.35</v>
       </c>
       <c r="D652" t="n">
-        <v>349.29</v>
+        <v>350.4</v>
       </c>
       <c r="E652" t="n">
         <v>364.26</v>
@@ -21755,7 +21755,7 @@
         <v>355.93</v>
       </c>
       <c r="D654" t="n">
-        <v>361.84</v>
+        <v>363.76</v>
       </c>
       <c r="E654" t="n">
         <v>384.72</v>
@@ -21823,7 +21823,7 @@
         <v>362.27</v>
       </c>
       <c r="D656" t="n">
-        <v>367.14</v>
+        <v>368.22</v>
       </c>
       <c r="E656" t="n">
         <v>390.07</v>
@@ -21859,7 +21859,7 @@
         <v>370.61</v>
       </c>
       <c r="D657" t="n">
-        <v>383.22</v>
+        <v>382.36</v>
       </c>
       <c r="E657" t="n">
         <v>394.95</v>
@@ -21895,7 +21895,7 @@
         <v>354.86</v>
       </c>
       <c r="D658" t="n">
-        <v>365.57</v>
+        <v>366.13</v>
       </c>
       <c r="E658" t="n">
         <v>380.31</v>
@@ -21931,7 +21931,7 @@
         <v>362.79</v>
       </c>
       <c r="D659" t="n">
-        <v>375.77</v>
+        <v>375.69</v>
       </c>
       <c r="E659" t="n">
         <v>388.82</v>
@@ -21999,7 +21999,7 @@
         <v>368.3</v>
       </c>
       <c r="D661" t="n">
-        <v>382.31</v>
+        <v>380.87</v>
       </c>
       <c r="E661" t="n">
         <v>394.81</v>
@@ -22059,7 +22059,7 @@
         <v>357.15</v>
       </c>
       <c r="D663" t="n">
-        <v>363.99</v>
+        <v>365.55</v>
       </c>
       <c r="E663" t="n">
         <v>386.13</v>
@@ -22121,7 +22121,7 @@
         <v>378.89</v>
       </c>
       <c r="D665" t="n">
-        <v>389.37</v>
+        <v>388.45</v>
       </c>
       <c r="E665" t="n">
         <v>406.69</v>
@@ -22157,7 +22157,7 @@
         <v>373.41</v>
       </c>
       <c r="D666" t="n">
-        <v>381.1</v>
+        <v>381.49</v>
       </c>
       <c r="E666" t="n">
         <v>400.18</v>
@@ -22193,7 +22193,7 @@
         <v>378.88</v>
       </c>
       <c r="D667" t="n">
-        <v>386.07</v>
+        <v>385.18</v>
       </c>
       <c r="E667" t="n">
         <v>400.13</v>
@@ -22229,7 +22229,7 @@
         <v>371.5</v>
       </c>
       <c r="D668" t="n">
-        <v>376.96</v>
+        <v>378.27</v>
       </c>
       <c r="E668" t="n">
         <v>393.7</v>
@@ -22261,7 +22261,7 @@
         <v>375.42</v>
       </c>
       <c r="D669" t="n">
-        <v>379.93</v>
+        <v>381.18</v>
       </c>
       <c r="E669" t="n">
         <v>389.85</v>
@@ -22325,7 +22325,7 @@
         <v>373.13</v>
       </c>
       <c r="D671" t="n">
-        <v>382.55</v>
+        <v>380.22</v>
       </c>
       <c r="E671" t="n">
         <v>389.69</v>
@@ -22361,7 +22361,7 @@
         <v>374.96</v>
       </c>
       <c r="D672" t="n">
-        <v>379.28</v>
+        <v>380.2</v>
       </c>
       <c r="E672" t="n">
         <v>388.11</v>
@@ -22397,7 +22397,7 @@
         <v>371.03</v>
       </c>
       <c r="D673" t="n">
-        <v>378.05</v>
+        <v>376.69</v>
       </c>
       <c r="E673" t="n">
         <v>384.49</v>
@@ -22433,7 +22433,7 @@
         <v>371.18</v>
       </c>
       <c r="D674" t="n">
-        <v>371.64</v>
+        <v>373.42</v>
       </c>
       <c r="E674" t="n">
         <v>382.78</v>
@@ -22469,7 +22469,7 @@
         <v>369.23</v>
       </c>
       <c r="D675" t="n">
-        <v>373.42</v>
+        <v>374.31</v>
       </c>
       <c r="E675" t="n">
         <v>387.06</v>
@@ -22505,7 +22505,7 @@
         <v>365.82</v>
       </c>
       <c r="D676" t="n">
-        <v>380.82</v>
+        <v>380.24</v>
       </c>
       <c r="E676" t="n">
         <v>389.87</v>
@@ -22541,7 +22541,7 @@
         <v>361.42</v>
       </c>
       <c r="D677" t="n">
-        <v>370.33</v>
+        <v>370.58</v>
       </c>
       <c r="E677" t="n">
         <v>380.98</v>
@@ -22577,7 +22577,7 @@
         <v>372.09</v>
       </c>
       <c r="D678" t="n">
-        <v>375.07</v>
+        <v>374.54</v>
       </c>
       <c r="E678" t="n">
         <v>389.51</v>
@@ -22613,7 +22613,7 @@
         <v>377.77</v>
       </c>
       <c r="D679" t="n">
-        <v>377.97</v>
+        <v>378.91</v>
       </c>
       <c r="E679" t="n">
         <v>392.8</v>
@@ -22649,7 +22649,7 @@
         <v>375.29</v>
       </c>
       <c r="D680" t="n">
-        <v>382.4</v>
+        <v>381.84</v>
       </c>
       <c r="E680" t="n">
         <v>398.52</v>
@@ -22685,7 +22685,7 @@
         <v>379.8</v>
       </c>
       <c r="D681" t="n">
-        <v>389.43</v>
+        <v>388.37</v>
       </c>
       <c r="E681" t="n">
         <v>402.88</v>
@@ -22721,7 +22721,7 @@
         <v>368.48</v>
       </c>
       <c r="D682" t="n">
-        <v>370.07</v>
+        <v>371.6</v>
       </c>
       <c r="E682" t="n">
         <v>387.37</v>
@@ -22757,7 +22757,7 @@
         <v>351.81</v>
       </c>
       <c r="D683" t="n">
-        <v>357.33</v>
+        <v>356</v>
       </c>
       <c r="E683" t="n">
         <v>381.16</v>
@@ -22793,7 +22793,7 @@
         <v>372.35</v>
       </c>
       <c r="D684" t="n">
-        <v>376.69</v>
+        <v>378.52</v>
       </c>
       <c r="E684" t="n">
         <v>389.23</v>
@@ -22829,7 +22829,7 @@
         <v>372.12</v>
       </c>
       <c r="D685" t="n">
-        <v>377.2</v>
+        <v>378.48</v>
       </c>
       <c r="E685" t="n">
         <v>391.99</v>
@@ -22865,7 +22865,7 @@
         <v>357.95</v>
       </c>
       <c r="D686" t="n">
-        <v>366.69</v>
+        <v>366.02</v>
       </c>
       <c r="E686" t="n">
         <v>377.58</v>
@@ -22901,7 +22901,7 @@
         <v>343.17</v>
       </c>
       <c r="D687" t="n">
-        <v>350.37</v>
+        <v>350.48</v>
       </c>
       <c r="E687" t="n">
         <v>363.38</v>
@@ -22937,7 +22937,7 @@
         <v>353.85</v>
       </c>
       <c r="D688" t="n">
-        <v>366.32</v>
+        <v>365.01</v>
       </c>
       <c r="E688" t="n">
         <v>377.39</v>
@@ -22971,7 +22971,7 @@
         <v>367.58</v>
       </c>
       <c r="D689" t="n">
-        <v>379.22</v>
+        <v>377.05</v>
       </c>
       <c r="E689" t="n">
         <v>388.73</v>
@@ -23007,7 +23007,7 @@
         <v>372.02</v>
       </c>
       <c r="D690" t="n">
-        <v>386.35</v>
+        <v>384.96</v>
       </c>
       <c r="E690" t="n">
         <v>395.83</v>
@@ -23043,7 +23043,7 @@
         <v>369.18</v>
       </c>
       <c r="D691" t="n">
-        <v>382.91</v>
+        <v>381.72</v>
       </c>
       <c r="E691" t="n">
         <v>392.79</v>
@@ -23079,7 +23079,7 @@
         <v>367.9</v>
       </c>
       <c r="D692" t="n">
-        <v>378.88</v>
+        <v>380.77</v>
       </c>
       <c r="E692" t="n">
         <v>387.7</v>
@@ -23115,7 +23115,7 @@
         <v>371.89</v>
       </c>
       <c r="D693" t="n">
-        <v>383.86</v>
+        <v>382.92</v>
       </c>
       <c r="E693" t="n">
         <v>394.39</v>
@@ -23151,7 +23151,7 @@
         <v>368.37</v>
       </c>
       <c r="D694" t="n">
-        <v>384.24</v>
+        <v>384.13</v>
       </c>
       <c r="E694" t="n">
         <v>391.11</v>
@@ -23187,7 +23187,7 @@
         <v>374.67</v>
       </c>
       <c r="D695" t="n">
-        <v>386.92</v>
+        <v>386.36</v>
       </c>
       <c r="E695" t="n">
         <v>394.97</v>
@@ -23223,7 +23223,7 @@
         <v>371.86</v>
       </c>
       <c r="D696" t="n">
-        <v>383.29</v>
+        <v>383.96</v>
       </c>
       <c r="E696" t="n">
         <v>395</v>
@@ -23259,7 +23259,7 @@
         <v>376.48</v>
       </c>
       <c r="D697" t="n">
-        <v>386.58</v>
+        <v>385.66</v>
       </c>
       <c r="E697" t="n">
         <v>396.92</v>
@@ -23295,7 +23295,7 @@
         <v>366.41</v>
       </c>
       <c r="D698" t="n">
-        <v>380.48</v>
+        <v>378.45</v>
       </c>
       <c r="E698" t="n">
         <v>383.91</v>
@@ -23331,7 +23331,7 @@
         <v>366.49</v>
       </c>
       <c r="D699" t="n">
-        <v>379.56</v>
+        <v>378.28</v>
       </c>
       <c r="E699" t="n">
         <v>385</v>
@@ -23367,7 +23367,7 @@
         <v>369.48</v>
       </c>
       <c r="D700" t="n">
-        <v>376.62</v>
+        <v>377.9</v>
       </c>
       <c r="E700" t="n">
         <v>385.91</v>
@@ -23403,7 +23403,7 @@
         <v>379.76</v>
       </c>
       <c r="D701" t="n">
-        <v>383.85</v>
+        <v>385.1</v>
       </c>
       <c r="E701" t="n">
         <v>389.36</v>
@@ -23463,7 +23463,7 @@
         <v>357.3</v>
       </c>
       <c r="D703" t="n">
-        <v>364.8</v>
+        <v>362.63</v>
       </c>
       <c r="E703" t="n">
         <v>373.92</v>
@@ -23499,7 +23499,7 @@
         <v>345.45</v>
       </c>
       <c r="D704" t="n">
-        <v>353.53</v>
+        <v>351.72</v>
       </c>
       <c r="E704" t="n">
         <v>357.31</v>
@@ -23535,7 +23535,7 @@
         <v>361.75</v>
       </c>
       <c r="D705" t="n">
-        <v>363.68</v>
+        <v>364.62</v>
       </c>
       <c r="E705" t="n">
         <v>374.68</v>
@@ -23571,7 +23571,7 @@
         <v>367.78</v>
       </c>
       <c r="D706" t="n">
-        <v>362.09</v>
+        <v>363.9</v>
       </c>
       <c r="E706" t="n">
         <v>378.52</v>
@@ -23607,7 +23607,7 @@
         <v>365.85</v>
       </c>
       <c r="D707" t="n">
-        <v>369.92</v>
+        <v>369.39</v>
       </c>
       <c r="E707" t="n">
         <v>384.43</v>
@@ -23643,7 +23643,7 @@
         <v>368.31</v>
       </c>
       <c r="D708" t="n">
-        <v>369.39</v>
+        <v>369.78</v>
       </c>
       <c r="E708" t="n">
         <v>384.71</v>
@@ -23679,7 +23679,7 @@
         <v>374.28</v>
       </c>
       <c r="D709" t="n">
-        <v>377.96</v>
+        <v>378.38</v>
       </c>
       <c r="E709" t="n">
         <v>392.26</v>
@@ -23715,7 +23715,7 @@
         <v>366.26</v>
       </c>
       <c r="D710" t="n">
-        <v>374.31</v>
+        <v>375.39</v>
       </c>
       <c r="E710" t="n">
         <v>386.21</v>
@@ -23751,7 +23751,7 @@
         <v>367.99</v>
       </c>
       <c r="D711" t="n">
-        <v>377.46</v>
+        <v>376.88</v>
       </c>
       <c r="E711" t="n">
         <v>390.47</v>
@@ -23787,7 +23787,7 @@
         <v>367.62</v>
       </c>
       <c r="D712" t="n">
-        <v>383</v>
+        <v>382.03</v>
       </c>
       <c r="E712" t="n">
         <v>387.62</v>
@@ -23823,7 +23823,7 @@
         <v>380.33</v>
       </c>
       <c r="D713" t="n">
-        <v>376.12</v>
+        <v>378.15</v>
       </c>
       <c r="E713" t="n">
         <v>389.91</v>
@@ -23859,7 +23859,7 @@
         <v>353.06</v>
       </c>
       <c r="D714" t="n">
-        <v>364.14</v>
+        <v>362.5</v>
       </c>
       <c r="E714" t="n">
         <v>371.5</v>
@@ -23895,7 +23895,7 @@
         <v>356.9</v>
       </c>
       <c r="D715" t="n">
-        <v>362.87</v>
+        <v>361.43</v>
       </c>
       <c r="E715" t="n">
         <v>373.47</v>
@@ -23931,7 +23931,7 @@
         <v>355.97</v>
       </c>
       <c r="D716" t="n">
-        <v>359.63</v>
+        <v>360.96</v>
       </c>
       <c r="E716" t="n">
         <v>372.69</v>
@@ -23967,7 +23967,7 @@
         <v>360.85</v>
       </c>
       <c r="D717" t="n">
-        <v>378.34</v>
+        <v>377.03</v>
       </c>
       <c r="E717" t="n">
         <v>378.41</v>
@@ -24003,7 +24003,7 @@
         <v>366.8</v>
       </c>
       <c r="D718" t="n">
-        <v>373.17</v>
+        <v>372.98</v>
       </c>
       <c r="E718" t="n">
         <v>385.91</v>
@@ -24039,7 +24039,7 @@
         <v>360.66</v>
       </c>
       <c r="D719" t="n">
-        <v>363.21</v>
+        <v>362.29</v>
       </c>
       <c r="E719" t="n">
         <v>372.12</v>
@@ -24075,7 +24075,7 @@
         <v>354.04</v>
       </c>
       <c r="D720" t="n">
-        <v>357.91</v>
+        <v>357.05</v>
       </c>
       <c r="E720" t="n">
         <v>366.72</v>
@@ -24111,7 +24111,7 @@
         <v>360.8</v>
       </c>
       <c r="D721" t="n">
-        <v>370.1</v>
+        <v>368.54</v>
       </c>
       <c r="E721" t="n">
         <v>375.5</v>
@@ -24147,7 +24147,7 @@
         <v>359.63</v>
       </c>
       <c r="D722" t="n">
-        <v>371.24</v>
+        <v>369.05</v>
       </c>
       <c r="E722" t="n">
         <v>374.31</v>
@@ -24183,7 +24183,7 @@
         <v>373.16</v>
       </c>
       <c r="D723" t="n">
-        <v>382.43</v>
+        <v>381.4</v>
       </c>
       <c r="E723" t="n">
         <v>391.08</v>
@@ -24219,7 +24219,7 @@
         <v>372.67</v>
       </c>
       <c r="D724" t="n">
-        <v>374.37</v>
+        <v>373.81</v>
       </c>
       <c r="E724" t="n">
         <v>385.66</v>
@@ -31940,7 +31940,7 @@
         <v>0.0489</v>
       </c>
       <c r="I4" t="n">
-        <v>1.023901523758012</v>
+        <v>1.027065553298578</v>
       </c>
       <c r="J4" t="n">
         <v>723</v>
@@ -31949,19 +31949,19 @@
         <v>537</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3442321889968069</v>
+        <v>0.3491710888073613</v>
       </c>
       <c r="M4" t="n">
-        <v>8.463327582473724</v>
+        <v>8.378112478672627</v>
       </c>
       <c r="N4" t="n">
-        <v>114.0045877893563</v>
+        <v>112.2360104084524</v>
       </c>
       <c r="O4" t="n">
-        <v>10.67729309279071</v>
+        <v>10.59414981999275</v>
       </c>
       <c r="P4" t="n">
-        <v>341.0351278557573</v>
+        <v>341.0198696078327</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-39.8418930409494,176.99683408933566</t>
+          <t>-39.84189535262375,176.99683703237946</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -32567,7 +32567,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-39.841896444247716,176.99683842215023</t>
+          <t>-39.841900168611716,176.9968431637214</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -32619,7 +32619,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-39.841968041896045,176.9969295748584</t>
+          <t>-39.84197716015568,176.99694118355774</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-39.8419022876463,176.99684586151213</t>
+          <t>-39.841888546026794,176.996828366751</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -32723,7 +32723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-39.84196784925674,176.99692932960423</t>
+          <t>-39.84197748122115,176.9969415923148</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -32775,7 +32775,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-39.842049335628836,176.99703307224453</t>
+          <t>-39.84204310696584,176.99702514234136</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-39.84175466139843,176.99665791582368</t>
+          <t>-39.84174702001291,176.99664818746945</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -32875,7 +32875,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-39.84190755312588,176.996852565114</t>
+          <t>-39.841920909462324,176.9968695693771</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-39.84199295657419,176.99696129441043</t>
+          <t>-39.841993149213415,176.99696153966477</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -32979,7 +32979,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-39.84194280614235,176.99689744657275</t>
+          <t>-39.84195224547126,176.99690946402032</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-39.842012734198235,176.99698647386498</t>
+          <t>-39.84201042252821,176.9969835308111</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -33123,7 +33123,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-39.84191159855501,176.996857715443</t>
+          <t>-39.84192174423326,176.99687063214375</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-39.84193458686159,176.99688698240337</t>
+          <t>-39.84194884217596,176.99690513119873</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -33227,7 +33227,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-39.841915066065475,176.99686213001118</t>
+          <t>-39.841911470128686,176.99685755194048</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -33279,7 +33279,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-39.841812453359466,176.99673149168197</t>
+          <t>-39.84181887468519,176.99673966678498</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -33331,7 +33331,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-39.84188411531706,176.99682272591832</t>
+          <t>-39.84188289526649,176.99682117264567</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -33383,7 +33383,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-39.8419474294873,176.99690333266912</t>
+          <t>-39.84194402619174,176.9968989998481</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -33435,7 +33435,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-39.84195712566796,176.9969156771238</t>
+          <t>-39.84196155637252,176.99692131796849</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-39.84191821251,176.99686613582347</t>
+          <t>-39.8419273307769,176.99687774450595</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -33539,7 +33539,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-39.8419022876463,176.99684586151213</t>
+          <t>-39.841913910228676,176.9968606584884</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-39.84197671066405,176.99694061129784</t>
+          <t>-39.84198634262709,176.99695287401164</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -33643,7 +33643,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-39.84194299878172,176.99689769182675</t>
+          <t>-39.84193285310692,176.99688477511796</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -33691,7 +33691,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-39.84189252724397,176.99683343532593</t>
+          <t>-39.84188488587529,176.99682370693264</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -33739,7 +33739,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-39.84191384601552,176.99686057673713</t>
+          <t>-39.841921358954366,176.99687014163607</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -33787,7 +33787,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-39.841886105925816,176.99682526020538</t>
+          <t>-39.841873070647935,176.99680866471536</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -33839,7 +33839,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-39.841887197549944,176.99682664997576</t>
+          <t>-39.8418843721698,176.9968230529231</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -33891,7 +33891,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-39.841933302598875,176.99688534737717</t>
+          <t>-39.84192957823685,176.9968806058014</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-39.8419460167986,176.99690153413957</t>
+          <t>-39.841948328471,176.99690447718794</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -33995,7 +33995,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-39.84197683909023,176.99694077480066</t>
+          <t>-39.84197414214032,176.99693734124145</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -34047,7 +34047,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-39.841984159382264,176.99695009446287</t>
+          <t>-39.84199430504876,176.99696301119093</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -34099,7 +34099,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-39.842024806251395,176.99700184314958</t>
+          <t>-39.8420123489199,176.996985983356</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -34151,7 +34151,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-39.84192270743048,176.99687185841304</t>
+          <t>-39.8419311193522,176.9968825678327</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -34203,7 +34203,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-39.841953722372935,176.99691134430157</t>
+          <t>-39.841938054370786,176.99689139697452</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -34255,7 +34255,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-39.84194916324157,176.99690553995543</t>
+          <t>-39.84194023761722,176.99689417651956</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-39.841862860748584,176.99679566628177</t>
+          <t>-39.841875318109835,176.9968115260063</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -34359,7 +34359,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-39.84187294222154,176.99680850121302</t>
+          <t>-39.84187063054636,176.99680555817113</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-39.84186228282971,176.99679493052147</t>
+          <t>-39.841870116840745,176.99680490416185</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -34463,7 +34463,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-39.84191269017869,176.9968591052144</t>
+          <t>-39.8419098647997,176.99685550815906</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-39.841897279018994,176.99683948491614</t>
+          <t>-39.84190691099424,176.99685174760154</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-39.84187159374435,176.99680678443858</t>
+          <t>-39.84187730871887,176.9968140602927</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -34659,7 +34659,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-39.84181765463334,176.9967381135153</t>
+          <t>-39.84182998357711,176.99675380971684</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-39.84190556251781,176.99685003082539</t>
+          <t>-39.841902159219956,176.99684569800965</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -34763,7 +34763,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-39.841915066065475,176.99686213001118</t>
+          <t>-39.84191166276816,176.99685779719428</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -34815,7 +34815,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-39.841881225723576,176.99681904711477</t>
+          <t>-39.8418771160793,176.99681381503916</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -34867,7 +34867,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-39.841952502323736,176.99690979102576</t>
+          <t>-39.841941650306055,176.99689597504877</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -34919,7 +34919,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-39.84191153434185,176.99685763369175</t>
+          <t>-39.841909736373374,176.99685534465658</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -34959,7 +34959,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-39.84190479195982,176.99684904981046</t>
+          <t>-39.841897279018994,176.99683948491614</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -35011,7 +35011,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-39.84184655059146,176.9967749014965</t>
+          <t>-39.84185136658318,176.9967810328297</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -35063,7 +35063,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-39.84192566123517,176.9968756189723</t>
+          <t>-39.84191082799709,176.9968567344279</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -35115,7 +35115,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-39.84184295465074,176.9967703234349</t>
+          <t>-39.841854577244106,176.99678512038565</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -35167,7 +35167,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-39.84186908942952,176.9968035961433</t>
+          <t>-39.84186709882022,176.9968010618575</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -35219,7 +35219,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-39.84189092191449,176.99683139154567</t>
+          <t>-39.84188771125542,176.99682730398538</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-39.84187589602859,176.99681226176685</t>
+          <t>-39.84188642699174,176.99682566896138</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -35359,7 +35359,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-39.84186093435228,176.99679321374754</t>
+          <t>-39.84186131963156,176.9967937042544</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -35411,7 +35411,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-39.84191904728096,176.99686719859002</t>
+          <t>-39.84191063535762,176.99685648917415</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -35463,7 +35463,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-39.84203186968568,176.99701083581863</t>
+          <t>-39.842026347364396,176.99700380518632</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -35579,7 +35579,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-39.84190048967756,176.99684357247756</t>
+          <t>-39.84190780997853,176.996852892119</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -35627,7 +35627,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-39.841900810743425,176.9968439812337</t>
+          <t>-39.841904406680825,176.996848559303</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -35679,7 +35679,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-39.84182844245926,176.9967518476913</t>
+          <t>-39.84183627647454,176.99676182132185</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -35731,7 +35731,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-39.84195365815981,176.99691126255019</t>
+          <t>-39.84194280614235,176.99689744657275</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -35779,7 +35779,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-39.84197189468197,176.99693447994227</t>
+          <t>-39.84196065738901,176.9969201734492</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -35831,7 +35831,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-39.84191134170237,176.99685738843797</t>
+          <t>-39.841911726981316,176.99685787894552</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -35883,7 +35883,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-39.84183062570953,176.99675462722746</t>
+          <t>-39.8418407714009,176.99676754389776</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -35935,7 +35935,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-39.84195526348768,176.99691330633422</t>
+          <t>-39.841944411470486,176.99689949035613</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -35987,7 +35987,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-39.84195494242212,176.9969128975774</t>
+          <t>-39.84194280614235,176.99689744657275</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -36039,7 +36039,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-39.84192630336662,176.99687643648522</t>
+          <t>-39.84193471528786,176.996887145906</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -36171,7 +36171,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-39.84190736048638,176.99685231986027</t>
+          <t>-39.84190614043628,176.99685076658656</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -36223,7 +36223,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-39.841858237397396,176.9967897801999</t>
+          <t>-39.84185464145734,176.99678520213675</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-39.84187287800833,176.99680841946187</t>
+          <t>-39.84186234704291,176.99679501227263</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -36419,7 +36419,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-39.84192418433285,176.99687373869264</t>
+          <t>-39.841920074691366,176.99686850661047</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -36503,7 +36503,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-39.841839487136255,176.996765908876</t>
+          <t>-39.84184038612151,176.99676705339124</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -36579,7 +36579,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-39.84189047242223,176.9968308192872</t>
+          <t>-39.84187884983551,176.99681602232098</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -36631,7 +36631,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-39.8419264317929,176.99687659998781</t>
+          <t>-39.84191538713126,176.99686253876754</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -36683,7 +36683,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-39.84193047722081,176.99688175031963</t>
+          <t>-39.84191763459163,176.99686540006198</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -36759,7 +36759,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-39.84197009671523,176.99693219090307</t>
+          <t>-39.841958474143304,176.99691739390255</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -36863,7 +36863,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-39.841913910228676,176.9968606584884</t>
+          <t>-39.84192623915347,176.99687635473396</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-39.84201600906395,176.99699064319165</t>
+          <t>-39.842005157057294,176.99697682718912</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -36963,7 +36963,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-39.842036428811014,176.9970166401787</t>
+          <t>-39.84203122755531,176.99701001830317</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -37039,7 +37039,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-39.84197041778072,176.99693259966003</t>
+          <t>-39.84197574746766,176.99693938502668</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -37091,7 +37091,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-39.84195179597944,176.99690889176085</t>
+          <t>-39.84195552034014,176.99691363333966</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -37123,7 +37123,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-39.841901517088274,176.99684488049726</t>
+          <t>-39.84189066506177,176.99683106454083</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -37227,7 +37227,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-39.84190004018537,176.99684300021892</t>
+          <t>-39.84189965490634,176.99684250971154</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -37275,7 +37275,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-39.841948970602196,176.9969052947014</t>
+          <t>-39.841952887602424,176.9969102815339</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -37323,7 +37323,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-39.842002203256335,176.99697306662114</t>
+          <t>-39.841999506307516,176.99696963305934</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -37407,7 +37407,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-39.84190498459931,176.99684929506418</t>
+          <t>-39.84189804957706,176.99684046593083</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -37503,7 +37503,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-39.841860292220176,176.99679239623617</t>
+          <t>-39.84185335719298,176.99678356711433</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-39.8422425522999,176.99727906346098</t>
+          <t>-39.842255202224,176.99729516861714</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -37679,7 +37679,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-39.84205203257551,176.99703650581128</t>
+          <t>-39.84205472952206,176.99703993937834</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -37727,7 +37727,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-39.84193343102516,176.9968855108798</t>
+          <t>-39.84192912874487,176.99688003354228</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-39.841917377739016,176.99686507305688</t>
+          <t>-39.84192238636474,176.99687144965662</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -37867,7 +37867,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-39.84193760487888,176.99689082471528</t>
+          <t>-39.8419429345686,176.99689761007542</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -37919,7 +37919,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-39.84185990694091,176.99679190572937</t>
+          <t>-39.8418490549072,176.99677808978964</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -38003,7 +38003,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-39.8420598665628,176.9970464795068</t>
+          <t>-39.842072516523835,176.99706258457726</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -38047,7 +38047,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-39.84190254449897,176.99684618851705</t>
+          <t>-39.84191057114446,176.99685640742288</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -38091,7 +38091,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-39.841950511717066,176.9969072567338</t>
+          <t>-39.84194640207734,176.99690202464765</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -38135,7 +38135,7 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-39.84194762212666,176.99690357792315</t>
+          <t>-39.841939595485925,176.9968933590063</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -38187,7 +38187,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-39.841944411470486,176.99689949035613</t>
+          <t>-39.84193047722081,176.99688175031963</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -38259,7 +38259,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-39.8419939197703,176.9969625206822</t>
+          <t>-39.84198319618599,176.9969488681914</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-39.841931889909866,176.99688354884836</t>
+          <t>-39.84193670589501,176.9968896801968</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-39.841956483536826,176.99691485961014</t>
+          <t>-39.84195686881551,176.99691535011834</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -38395,7 +38395,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-39.84189323358893,176.9968343345893</t>
+          <t>-39.84188629856536,176.996825505459</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-39.84189496734469,176.99683654187217</t>
+          <t>-39.84189066506177,176.99683106454083</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -38487,7 +38487,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-39.84186420922595,176.9967973830558</t>
+          <t>-39.84186761252585,176.99680171586672</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -38539,7 +38539,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-39.84184622952532,176.99677449274097</t>
+          <t>-39.841841220893514,176.9967681161554</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -38575,7 +38575,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-39.841894068360226,176.9968353973551</t>
+          <t>-39.841896765313585,176.99683883090634</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -38623,7 +38623,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-39.84193779751826,176.99689106996925</t>
+          <t>-39.84194383355237,176.9968987545941</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -38667,7 +38667,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-39.841960336323474,176.99691976469234</t>
+          <t>-39.84194820004475,176.99690431368526</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-39.84191654296803,176.99686401029035</t>
+          <t>-39.841925275956314,176.99687512846455</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -38763,7 +38763,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-39.84189284830986,176.996833844082</t>
+          <t>-39.8419020950068,176.9968456162584</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -38895,7 +38895,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-39.8418892523718,176.99682926601426</t>
+          <t>-39.841901709727786,176.99684512575098</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -38947,7 +38947,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-39.841894582065635,176.99683605136482</t>
+          <t>-39.84189117876721,176.9968317185505</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -39019,7 +39019,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-39.841792418819026,176.9967059853704</t>
+          <t>-39.84179190511276,176.99670533136262</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -39071,7 +39071,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-39.841818039912866,176.99673860402152</t>
+          <t>-39.84182144321529,176.99674293682662</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -39123,7 +39123,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-39.84187756557165,176.99681438729743</t>
+          <t>-39.84187647394735,176.9968129975274</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-39.8418139944777,176.99673345370658</t>
+          <t>-39.841824718091004,176.99674710613007</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -39299,7 +39299,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-39.84190774576536,176.99685281036776</t>
+          <t>-39.841913653376054,176.99686033148333</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-39.841940430256614,176.99689442177353</t>
+          <t>-39.8419457599461,176.99690120713421</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -39443,7 +39443,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-39.84197048199382,176.99693268141144</t>
+          <t>-39.841958345717075,176.9969172303998</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -39487,7 +39487,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-39.841965730224366,176.99692663180835</t>
+          <t>-39.84197337158317,176.99693636022454</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-39.841932467828094,176.99688428461013</t>
+          <t>-39.84192013890452,176.99686858836174</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -39667,7 +39667,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-39.84174143345317,176.9966410751446</t>
+          <t>-39.84173783750639,176.9966364970971</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -39739,7 +39739,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-39.84199745148929,176.99696701701245</t>
+          <t>-39.8420077897928,176.996980179</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -39791,7 +39791,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-39.84191063535762,176.99685648917415</t>
+          <t>-39.84191936834672,176.99686760734642</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -39891,7 +39891,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-39.84203007172066,176.99700854677542</t>
+          <t>-39.84202403569487,176.99700086213124</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -39931,7 +39931,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-39.841878464556345,176.99681553181392</t>
+          <t>-39.841887903894964,176.996827549239</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -39979,7 +39979,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-39.84202801690343,176.9970059307262</t>
+          <t>-39.84203623617193,176.99701639492403</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -40087,7 +40087,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-39.841985893135515,176.99695230175158</t>
+          <t>-39.8419762611724,176.99694003903798</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -40119,7 +40119,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-39.84197940761386,176.99694404485734</t>
+          <t>-39.841967656617435,176.99692908435003</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -40151,7 +40151,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-39.84199302078726,176.99696137616186</t>
+          <t>-39.8419939197703,176.9969625206822</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-39.84203527297645,176.99701516865073</t>
+          <t>-39.84203617195888,176.99701631317248</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -40319,7 +40319,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-39.84198037081018,176.99694527112868</t>
+          <t>-39.841964702814714,176.99692532378617</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-39.84194967694652,176.99690619396625</t>
+          <t>-39.8419623269298,176.99692229898503</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-39.84208690023273,176.9970808969489</t>
+          <t>-39.84207957995272,176.9970715772588</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -40495,7 +40495,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-39.84191590083649,176.99686319277765</t>
+          <t>-39.84192431275913,176.9968739021952</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -40531,7 +40531,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-39.84187551074942,176.99681177125981</t>
+          <t>-39.84186928206912,176.99680384139677</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -40615,7 +40615,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-39.84194717263482,176.99690300566377</t>
+          <t>-39.8419573183073,176.9969159223779</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -40663,7 +40663,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-39.84191333231026,176.99685992272703</t>
+          <t>-39.841909030028596,176.99685444539278</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -40799,7 +40799,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-39.841968234535344,176.9969298201126</t>
+          <t>-39.841959822618605,176.99691911068135</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -40839,7 +40839,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-39.842022366155724,176.99699873659162</t>
+          <t>-39.842030778064064,176.99700944604237</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -40891,7 +40891,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-39.842045354421636,176.99702800364645</t>
+          <t>-39.84203289709423,176.99701214384336</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -40967,7 +40967,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-39.842020568190435,176.99699644754907</t>
+          <t>-39.84200451492665,176.9969760096743</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -41059,7 +41059,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-39.841973628435554,176.99693668723017</t>
+          <t>-39.841985572070094,176.9969518929944</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-39.84193574269801,176.99688845392706</t>
+          <t>-39.84193985233844,176.9968936860116</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -41159,7 +41159,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-39.841941586092936,176.99689589329745</t>
+          <t>-39.841948906389085,176.99690521295008</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -41211,7 +41211,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-39.84204214377048,176.99702391606777</t>
+          <t>-39.8420330255203,176.99701230734647</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -41287,7 +41287,7 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-39.84189535262375,176.99683703237946</t>
+          <t>-39.841895866329146,176.99683768638923</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -41335,7 +41335,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-39.841908516323315,176.99685379138276</t>
+          <t>-39.84189657267407,176.99683858565268</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -41547,7 +41547,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-39.84196348276572,176.99692377050988</t>
+          <t>-39.84197202310816,176.99693464344506</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -41683,7 +41683,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-39.84195751094663,176.996916167632</t>
+          <t>-39.84196836296155,176.99692998361536</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -41731,7 +41731,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-39.841987755314875,176.99695467254327</t>
+          <t>-39.84199257129573,176.99696080390171</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -41799,7 +41799,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-39.84191673560748,176.99686425554418</t>
+          <t>-39.84192585387461,176.99687586422618</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -41851,7 +41851,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-39.84198313197291,176.99694878644</t>
+          <t>-39.841975297976006,176.99693881276679</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-39.84197279366533,176.9969356244619</t>
+          <t>-39.841980113957824,176.996944944123</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -42015,7 +42015,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-39.8420287874599,176.99700691174462</t>
+          <t>-39.84202737477304,176.99700511321086</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -42047,7 +42047,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-39.84195956576617,176.99691878367585</t>
+          <t>-39.84195975840549,176.99691902893</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -42139,7 +42139,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-39.84196194165117,176.99692180847674</t>
+          <t>-39.84195410765162,176.9969118348097</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -42187,7 +42187,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-39.84192052418342,176.99686907886942</t>
+          <t>-39.841913011244486,176.99685951397072</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -42235,7 +42235,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-39.84189830642975,176.99684079293576</t>
+          <t>-39.84190581937046,176.99685035783034</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -42327,7 +42327,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-39.841966436568505,176.99692753107362</t>
+          <t>-39.8419710599117,176.99693341717403</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -42363,7 +42363,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-39.84193882492836,176.9968923779904</t>
+          <t>-39.84194383355237,176.9968987545941</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -42451,7 +42451,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-39.84202365041663,176.9970003716221</t>
+          <t>-39.84201491744206,176.99698925341605</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -42503,7 +42503,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-39.8420031664523,176.99697429289327</t>
+          <t>-39.84201690804666,176.99699178771277</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -42583,7 +42583,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-39.84195147491385,176.9969084830041</t>
+          <t>-39.84193683432128,176.99688984369945</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -42635,7 +42635,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-39.84198146243267,176.9969466609029</t>
+          <t>-39.84199231444343,176.9969604768959</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -42715,7 +42715,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-39.841896765313585,176.99683883090634</t>
+          <t>-39.84190639728893,176.99685109359157</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -42767,7 +42767,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-39.84200740451445,176.99697968849105</t>
+          <t>-39.841994048196455,176.99696268418512</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -42855,7 +42855,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-39.84203020014673,176.9970087102785</t>
+          <t>-39.84203623617193,176.99701639492403</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -42967,7 +42967,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-39.8418479632824,176.9967767000208</t>
+          <t>-39.84185027495841,176.99677964306076</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -43123,7 +43123,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-39.84188154678954,176.9968194558707</t>
+          <t>-39.84189349044165,176.99683466159416</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-39.84189047242223,176.9968308192872</t>
+          <t>-39.841900810743425,176.9968439812337</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -43203,7 +43203,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-39.841998286259205,176.99696807978148</t>
+          <t>-39.8419895532811,176.99695696158363</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-39.84184507368726,176.99677302122114</t>
+          <t>-39.841852586634346,176.99678258610092</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -43287,7 +43287,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-39.8419540434385,176.99691175305836</t>
+          <t>-39.84195031907772,176.99690701147975</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -43339,7 +43339,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-39.84193542163234,176.99688804517046</t>
+          <t>-39.841940622896004,176.99689466702753</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -43467,7 +43467,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-39.84197683909023,176.99694077480066</t>
+          <t>-39.84196739976503,176.99692875734448</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -43519,7 +43519,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-39.84194820004475,176.99690431368526</t>
+          <t>-39.84196065738901,176.9969201734492</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -43671,7 +43671,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-39.84190061810391,176.99684373598</t>
+          <t>-39.84190723206006,176.9968521563578</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -43743,7 +43743,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-39.84188841760043,176.9968282032486</t>
+          <t>-39.841877180292485,176.99681389679034</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -43795,7 +43795,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-39.84171317958016,176.99660510478392</t>
+          <t>-39.84171921563592,176.9966127893585</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -43835,7 +43835,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-39.841827093981124,176.99675013091908</t>
+          <t>-39.841829790937375,176.99675356446363</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -43975,7 +43975,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-39.84181296706556,176.99673214569015</t>
+          <t>-39.84180243609004,176.99671873852432</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -44027,7 +44027,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-39.841894517852474,176.99683596961364</t>
+          <t>-39.84188488587529,176.99682370693264</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -44079,7 +44079,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-39.84191500185233,176.9968620482599</t>
+          <t>-39.841923413775085,176.99687275767718</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -44123,7 +44123,7 @@
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-39.84190004018537,176.99684300021892</t>
+          <t>-39.84189734323215,176.99683956666738</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -44199,7 +44199,7 @@
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-39.84192906453173,176.996879951791</t>
+          <t>-39.84193439422218,176.99688673714942</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -44247,7 +44247,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-39.84193535741921,176.99688796341917</t>
+          <t>-39.841931954123,176.99688363059968</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -44299,7 +44299,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-39.84197934340076,176.99694396310593</t>
+          <t>-39.84197972867929,176.99694445361445</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -44331,7 +44331,7 @@
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-39.84203957524943,176.99702064600513</t>
+          <t>-39.842034951911295,176.99701475989298</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -44383,7 +44383,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-39.84196040053658,176.9969198464437</t>
+          <t>-39.84195808886464,176.99691690339432</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -44415,7 +44415,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-39.842089211899925,176.9970838400093</t>
+          <t>-39.84207758935011,176.99706904295743</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -44463,7 +44463,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-39.84194139345355,176.99689564804345</t>
+          <t>-39.84195352973358,176.99691109904748</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -44535,7 +44535,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-39.841962070077386,176.9969219719795</t>
+          <t>-39.84196168479874,176.99692148147125</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -44611,7 +44611,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-39.841890793488126,176.99683122804325</t>
+          <t>-39.84190222343313,176.99684577976086</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -44651,7 +44651,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-39.841915258704944,176.99686237526498</t>
+          <t>-39.84190723206006,176.9968521563578</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -44699,7 +44699,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-39.84182285590679,176.9967447353496</t>
+          <t>-39.841836404901024,176.99676198482402</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -44751,7 +44751,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-39.84193574269801,176.99688845392706</t>
+          <t>-39.84192379905397,176.9968732481849</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -44783,7 +44783,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-39.8420035517307,176.99697478340212</t>
+          <t>-39.84199533245793,176.99696431921424</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -44999,7 +44999,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-39.84194646629046,176.99690210639898</t>
+          <t>-39.841944475683626,176.99689957210745</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -45039,7 +45039,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-39.84193856807583,176.9968920509851</t>
+          <t>-39.84194229243733,176.9968967925621</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -45091,7 +45091,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-39.84187050211996,176.99680539466883</t>
+          <t>-39.84186337445425,176.9967963202909</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -45143,7 +45143,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-39.84183011200359,176.99675397321894</t>
+          <t>-39.84181797569962,176.99673852227048</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -45191,7 +45191,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-39.841888224960876,176.996827957995</t>
+          <t>-39.84187589602859,176.99681226176685</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -45239,7 +45239,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-39.84187294222154,176.99680850121302</t>
+          <t>-39.841863310241045,176.99679623853976</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-39.8419169924601,176.99686458254928</t>
+          <t>-39.84191108484974,176.99685706143293</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -45343,7 +45343,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-39.84202146717309,176.99699759207033</t>
+          <t>-39.84202307249921,176.99699963585837</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -45395,7 +45395,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-39.84193593533741,176.996888699181</t>
+          <t>-39.84194608101172,176.99690161589092</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -45447,7 +45447,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-39.84199725885007,176.99696677175805</t>
+          <t>-39.84200759715362,176.9969799337455</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -45499,7 +45499,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-39.84193901756777,176.99689262324438</t>
+          <t>-39.84194653050359,176.9969021881503</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -45551,7 +45551,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-39.84189837064292,176.99684087468697</t>
+          <t>-39.84189265567033,176.99683359882837</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -45591,7 +45591,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-39.84191718509956,176.99686482780308</t>
+          <t>-39.84190755312588,176.996852565114</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -45627,7 +45627,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-39.841933944730236,176.99688616489027</t>
+          <t>-39.84194287035547,176.99689752832407</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -45671,7 +45671,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-39.84189271988352,176.99683368057958</t>
+          <t>-39.8418803909521,176.99681798434938</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -45763,7 +45763,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-39.8419160292628,176.99686335628022</t>
+          <t>-39.84190780997853,176.996852892119</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -45803,7 +45803,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-39.84189811379022,176.99684054768207</t>
+          <t>-39.84190736048638,176.99685231986027</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -45855,7 +45855,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-39.841882638413736,176.9968208456409</t>
+          <t>-39.841878914048706,176.9968161040722</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -45887,7 +45887,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-39.842015045868166,176.99698941691906</t>
+          <t>-39.84200682659689,176.9969789527277</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -45939,7 +45939,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-39.841953144454884,176.9969106085393</t>
+          <t>-39.84195757515973,176.9969162493834</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-39.8419646386016,176.9969252420348</t>
+          <t>-39.84195821729086,176.99691706689708</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -46035,7 +46035,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-39.841920074691366,176.99686850661047</t>
+          <t>-39.84193182569672,176.99688346709704</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -46271,7 +46271,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-39.84190292977798,176.9968466790245</t>
+          <t>-39.84190793840485,176.99685305562153</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -46323,7 +46323,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-39.84187698765291,176.99681365153683</t>
+          <t>-39.84187287800833,176.99680841946187</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -46371,7 +46371,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-39.841964253322985,176.99692475152648</t>
+          <t>-39.84196855560084,176.99693022886953</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -46423,7 +46423,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-39.84192354220138,176.99687292117974</t>
+          <t>-39.84191570819702,176.99686294752388</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -46475,7 +46475,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-39.8419141670813,176.99686098549347</t>
+          <t>-39.841900810743425,176.9968439812337</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -46527,7 +46527,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-39.84203681408919,176.99701713068805</t>
+          <t>-39.84204484071746,176.99702734963384</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -46571,7 +46571,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-39.84192842240032,176.996879134278</t>
+          <t>-39.84194287035547,176.99689752832407</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -46623,7 +46623,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-39.84189085770131,176.99683130979443</t>
+          <t>-39.841899783332686,176.996842673214</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -46655,7 +46655,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-39.84196444596228,176.99692499678062</t>
+          <t>-39.84195442871719,176.9969122435665</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -46707,7 +46707,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-39.84198223298971,176.99694764192</t>
+          <t>-39.84199205759112,176.9969601498901</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -46771,7 +46771,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-39.84210674204005,176.99710615822408</t>
+          <t>-39.842103724030935,176.99710231589324</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -46823,7 +46823,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-39.842051518871386,176.99703585179856</t>
+          <t>-39.84205472952206,176.99703993937834</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -46875,7 +46875,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-39.84211297069671,176.99711408814196</t>
+          <t>-39.84212382268468,176.9971279041879</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -46927,7 +46927,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>-39.842118171945614,176.99712071003324</t>
+          <t>-39.84210693467892,176.99710640347925</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -47047,7 +47047,7 @@
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-39.84203944682338,176.997020482502</t>
+          <t>-39.842040345805756,176.99702162702388</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -47099,7 +47099,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-39.842039896314574,176.99702105476294</t>
+          <t>-39.84204471229141,176.99702718613068</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-39.841913910228676,176.9968606584884</t>
+          <t>-39.841907296273234,176.99685223810903</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -47195,7 +47195,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-39.84211014532676,176.99711049106563</t>
+          <t>-39.842118878288034,176.99712160930252</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -47267,7 +47267,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-39.8419477505529,176.99690374142585</t>
+          <t>-39.84193510056668,176.9968876364139</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -47347,7 +47347,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-39.84194942009404,176.99690586696084</t>
+          <t>-39.84195603404504,176.9969142873506</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -47399,7 +47399,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-39.841955456127025,176.9969135515883</t>
+          <t>-39.84196579443747,176.99692671355973</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -47451,7 +47451,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-39.84203771307161,176.99701827520985</t>
+          <t>-39.84204073108392,176.99702211753328</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-39.8420185133729,176.99699383150056</t>
+          <t>-39.8420179996685,176.99699317748846</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -47555,7 +47555,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>-39.841998671537624,176.99696857029028</t>
+          <t>-39.84199757991543,176.99696718051538</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -47643,7 +47643,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-39.84192559702204,176.99687553722103</t>
+          <t>-39.841916350328574,176.99686376503655</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -47695,7 +47695,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-39.841909351094415,176.99685485414903</t>
+          <t>-39.841915066065475,176.99686213001118</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -47991,7 +47991,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-39.84193927442028,176.99689295024967</t>
+          <t>-39.84194871374971,176.99690496769603</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -48043,7 +48043,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-39.841883280545616,176.99682166315284</t>
+          <t>-39.84189271988352,176.99683368057958</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -48095,7 +48095,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-39.84187165795756,176.99680686618973</t>
+          <t>-39.84187467597786,176.99681070849456</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -48147,7 +48147,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-39.84197279366533,176.9969356244619</t>
+          <t>-39.84197722436878,176.99694126530918</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -48199,7 +48199,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>-39.84190158130145,176.99684496224853</t>
+          <t>-39.84189374729434,176.99683498859903</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -48251,7 +48251,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>-39.841986278414,176.99695279226017</t>
+          <t>-39.841997708341566,176.99696734401832</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -48299,7 +48299,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>-39.84195686881551,176.99691535011834</t>
+          <t>-39.84194242086359,176.99689695606477</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -48367,7 +48367,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-39.841943255634234,176.99689801883207</t>
+          <t>-39.84193201833613,176.99688371235098</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -48415,7 +48415,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-39.8419604647497,176.99691992819507</t>
+          <t>-39.84195102542202,176.99690791074462</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -48467,7 +48467,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-39.84201633012919,176.99699105194918</t>
+          <t>-39.842008688775636,176.99698132352083</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -48503,7 +48503,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>-39.84201260577212,176.996986310362</t>
+          <t>-39.8420172291119,176.9969921964703</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -48551,7 +48551,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-39.841939595485925,176.9968933590063</t>
+          <t>-39.8419524381106,176.9969097092744</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -48603,7 +48603,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-39.841923156922505,176.99687243067203</t>
+          <t>-39.84193240361496,176.9968842028588</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -48651,7 +48651,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-39.842012220493785,176.996985819853</t>
+          <t>-39.84202024712521,176.99699603879148</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-39.842089147686956,176.99708375825762</t>
+          <t>-39.84208632231592,176.9970801611838</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -48755,7 +48755,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>-39.842133839902665,176.99714065746494</t>
+          <t>-39.84212703333164,176.99713199177629</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -48843,7 +48843,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-39.84203809834979,176.9970187657192</t>
+          <t>-39.842043428030955,176.99702555109923</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -48895,7 +48895,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>-39.8419505759302,176.99690733848516</t>
+          <t>-39.84193721960007,176.99689033420736</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -48943,7 +48943,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>-39.842048372433574,176.99703184597075</t>
+          <t>-39.8420589033677,176.99704525323264</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -48987,7 +48987,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>-39.842033153946375,176.99701247084954</t>
+          <t>-39.84202403569487,176.99700086213124</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -49067,7 +49067,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-39.84201555957258,176.9969900709311</t>
+          <t>-39.84202159559918,176.99699775557337</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -49119,7 +49119,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>-39.84203533718948,176.99701525040228</t>
+          <t>-39.84202711792088,176.9970047862047</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -49171,7 +49171,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-39.84204073108392,176.99702211753328</t>
+          <t>-39.84203951103641,176.99702056425357</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -49259,7 +49259,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>-39.84196752819124,176.99692892084727</t>
+          <t>-39.841970353567625,176.99693251790865</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -49311,7 +49311,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-39.84184995389231,176.9967792343052</t>
+          <t>-39.841848541201415,176.99677743578079</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -49363,7 +49363,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>-39.84199186495189,176.99695990463576</t>
+          <t>-39.84198653526633,176.99695311926592</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -49459,7 +49459,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>-39.84195224547126,176.99690946402032</t>
+          <t>-39.841961363733205,176.99692107271434</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -49559,7 +49559,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>-39.841822085347786,176.99674375433707</t>
+          <t>-39.841831909974346,176.99675626224882</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -49611,7 +49611,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-39.842023200925304,176.99699979936142</t>
+          <t>-39.842013568967936,176.9969875366345</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>-39.842024934677475,176.99700200665265</t>
+          <t>-39.84202294407312,176.99699947235536</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -49759,7 +49759,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-39.841965023880235,176.9969257325431</t>
+          <t>-39.84196983986284,176.99693186389746</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -49811,7 +49811,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>-39.841999955799,176.99697020531963</t>
+          <t>-39.842000469503546,176.99697085933138</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -49931,7 +49931,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>-39.841996295654,176.99696554548615</t>
+          <t>-39.84199879996376,176.9969687337932</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -49983,7 +49983,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-39.8420422079835,176.99702399781935</t>
+          <t>-39.84203880469309,176.99701966498637</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -50035,7 +50035,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>-39.84202756741217,176.99700535846546</t>
+          <t>-39.84202898009901,176.99700715699925</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -50071,7 +50071,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-39.842107191530765,176.99710673048614</t>
+          <t>-39.84210327454019,176.99710174363125</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -50155,7 +50155,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>-39.841917377739016,176.99686507305688</t>
+          <t>-39.84192328534879,176.9968725941746</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -50207,7 +50207,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>-39.84199725885007,176.99696677175805</t>
+          <t>-39.842008688775636,176.99698132352083</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -50295,7 +50295,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>-39.84200053371661,176.99697094108285</t>
+          <t>-39.841986984757916,176.996953691526</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -50327,7 +50327,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>-39.84200798243198,176.99698042425445</t>
+          <t>-39.8420167154075,176.99699154245826</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -50415,7 +50415,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>-39.84213583050349,176.99714319177045</t>
+          <t>-39.84212228157407,176.9971259421456</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
@@ -50483,7 +50483,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>-39.84204451965234,176.99702694087597</t>
+          <t>-39.84203739200645,176.99701786645204</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -50571,7 +50571,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>-39.84190004018537,176.99684300021892</t>
+          <t>-39.84191166276816,176.99685779719428</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -50623,7 +50623,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>-39.841909736373374,176.99685534465658</t>
+          <t>-39.841901003382915,176.9968442264874</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -50663,7 +50663,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>-39.84193272468065,176.99688461161534</t>
+          <t>-39.84192379905397,176.9968732481849</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -50703,7 +50703,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>-39.84190755312588,176.996852565114</t>
+          <t>-39.84191879042836,176.99686687158493</t>
         </is>
       </c>
       <c r="E409" t="inlineStr"/>
@@ -50735,7 +50735,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>-39.84192187265955,176.99687079564634</t>
+          <t>-39.841934907927254,176.99688739115996</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -50787,7 +50787,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>-39.841906268862616,176.99685093008907</t>
+          <t>-39.841893618868,176.99683482509658</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -50839,7 +50839,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>-39.841953850799165,176.99691150780427</t>
+          <t>-39.84194473253611,176.9968998991128</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -50887,7 +50887,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>-39.841927716055764,176.99687823501372</t>
+          <t>-39.84192238636474,176.99687144965662</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -51047,7 +51047,7 @@
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
-          <t>-39.841913011244486,176.99685951397072</t>
+          <t>-39.84190177394095,176.99684520750222</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -51183,7 +51183,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>-39.84188552800714,176.9968245244446</t>
+          <t>-39.8418974716585,176.99683973016982</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -51275,7 +51275,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>-39.8420291085251,176.99700732050232</t>
+          <t>-39.842038547840986,176.9970193379801</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -51327,7 +51327,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>-39.84200066214274,176.99697110458578</t>
+          <t>-39.842009202480114,176.99698197753276</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>-39.84201414688542,176.996988272398</t>
+          <t>-39.84200252432166,176.9969734753785</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -51415,7 +51415,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>-39.84194518202799,176.99690047137216</t>
+          <t>-39.841955712979484,176.99691387859377</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -51515,7 +51515,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>-39.8420081108581,176.99698058775743</t>
+          <t>-39.84201414688542,176.996988272398</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -51567,7 +51567,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>-39.84201087201961,176.99698410307155</t>
+          <t>-39.84200766136669,176.996980015497</t>
         </is>
       </c>
       <c r="E428" t="inlineStr"/>
@@ -51599,7 +51599,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>-39.84205415160495,176.99703920361395</t>
+          <t>-39.84205806859859,176.9970441904617</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -51651,7 +51651,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>-39.84198505836544,176.99695123898292</t>
+          <t>-39.84198685633175,176.9969535280231</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>-39.84209672481773,176.9970934049571</t>
+          <t>-39.84210674204005,176.99710615822408</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -51799,7 +51799,7 @@
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
-          <t>-39.84201992605996,176.9969956300339</t>
+          <t>-39.84202975065548,176.99700813801772</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -51851,7 +51851,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>-39.84207354393171,176.99706389260356</t>
+          <t>-39.842070525920974,176.99706005027645</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -51943,7 +51943,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>-39.842045932338834,176.99702873941067</t>
+          <t>-39.842052867344705,176.99703756858202</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -51995,7 +51995,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>-39.841998992602974,176.9969689790476</t>
+          <t>-39.84200753294056,176.99697985199404</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -52027,7 +52027,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>-39.84206635207613,176.99705473642035</t>
+          <t>-39.842057811746564,176.9970438634553</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -52103,7 +52103,7 @@
       <c r="C441" t="inlineStr"/>
       <c r="D441" t="inlineStr">
         <is>
-          <t>-39.84202024712521,176.99699603879148</t>
+          <t>-39.84201825652071,176.9969935044945</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -52155,7 +52155,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>-39.84202326513836,176.99699988111294</t>
+          <t>-39.842018962864245,176.99699440376116</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -52243,7 +52243,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>-39.84188963765087,176.99682975652152</t>
+          <t>-39.84189715059264,176.9968393214137</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -52295,7 +52295,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>-39.84199533245793,176.99696431921424</t>
+          <t>-39.84198942485495,176.99695679808076</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>-39.841973500009374,176.99693652372736</t>
+          <t>-39.84198512257851,176.99695132073435</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -52383,7 +52383,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>-39.841958795208846,176.9969178026594</t>
+          <t>-39.84194967694652,176.99690619396625</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -52431,7 +52431,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>-39.84198319618599,176.9969488681914</t>
+          <t>-39.841970867272416,176.99693317191984</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -52483,7 +52483,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>-39.84204875771167,176.99703233648026</t>
+          <t>-39.842040217379704,176.99702146352075</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -52551,7 +52551,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>-39.84192842240032,176.996879134278</t>
+          <t>-39.84192238636474,176.99687144965662</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -52647,7 +52647,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>-39.84197394950104,176.99693709598722</t>
+          <t>-39.841973243156986,176.99693619672175</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -52763,7 +52763,7 @@
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>-39.84204567548674,176.99702841240435</t>
+          <t>-39.842049785119954,176.99703364450565</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -52847,7 +52847,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>-39.841938054370786,176.99689139697452</t>
+          <t>-39.84192630336662,176.99687643648522</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -52895,7 +52895,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>-39.84194762212666,176.99690357792315</t>
+          <t>-39.84195603404504,176.9969142873506</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -52947,7 +52947,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>-39.841966950273324,176.99692818508476</t>
+          <t>-39.84197696751641,176.9969409383035</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -53019,7 +53019,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>-39.8420678931881,176.99705669845946</t>
+          <t>-39.842059673923785,176.99704623425197</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -53071,7 +53071,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>-39.84197882969605,176.99694330909458</t>
+          <t>-39.8419898743465,176.99695737034088</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -53123,7 +53123,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>-39.84184783485596,176.99677653651858</t>
+          <t>-39.8418569531331,176.99678814517728</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -53167,7 +53167,7 @@
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>-39.84191243332606,176.99685877820937</t>
+          <t>-39.84191956098617,176.99686785260025</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -53219,7 +53219,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>-39.84185579729524,176.996786673657</t>
+          <t>-39.8418668419674,176.99680073485288</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -53299,7 +53299,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>-39.842010486741266,176.99698361256262</t>
+          <t>-39.842013697394044,176.99698770013748</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -53335,7 +53335,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>-39.84213685791034,176.99714449979913</t>
+          <t>-39.84212472166585,176.99712904871262</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -53459,7 +53459,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>-39.84208523069526,176.99707877140534</t>
+          <t>-39.84207630509034,176.9970674079244</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -53511,7 +53511,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>-39.84208336851879,176.99707640060691</t>
+          <t>-39.84208035050854,176.9970725582787</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -53563,7 +53563,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>-39.84208349694476,176.99707656411024</t>
+          <t>-39.84208651495485,176.9970804064388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -53615,7 +53615,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>-39.842143536054444,176.99715300198667</t>
+          <t>-39.842151562669024,176.9971632209642</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -53667,7 +53667,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>-39.842070782772964,176.997060377283</t>
+          <t>-39.84206134346194,176.9970483597939</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -53719,7 +53719,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>-39.84206320563906,176.99705073059081</t>
+          <t>-39.84207373657068,176.99706413785847</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -53767,7 +53767,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>-39.8421453340162,176.99715529103742</t>
+          <t>-39.8421585618761,176.99717213191462</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -53819,7 +53819,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>-39.84199546088407,176.99696448271717</t>
+          <t>-39.84198492993927,176.99695107548004</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -53871,7 +53871,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-39.841979279187676,176.99694388135453</t>
+          <t>-39.841987819527965,176.9969547542947</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -53963,7 +53963,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>-39.84188353739837,176.9968219901576</t>
+          <t>-39.841878528769556,176.99681561356508</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -54015,7 +54015,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>-39.841934779500995,176.9968872276573</t>
+          <t>-39.84192566123517,176.9968756189723</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -54043,7 +54043,7 @@
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>-39.84202756741217,176.99700535846546</t>
+          <t>-39.842039896314574,176.99702105476294</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -54095,7 +54095,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-39.84191846936262,176.99686646282854</t>
+          <t>-39.84193201833613,176.99688371235098</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -54147,7 +54147,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>-39.8420392541843,176.9970202372473</t>
+          <t>-39.84202981486851,176.99700821976927</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -54195,7 +54195,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>-39.842023714629654,176.99700045337363</t>
+          <t>-39.842015495359526,176.9969899891796</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -54243,7 +54243,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>-39.842025512594844,176.9970027424164</t>
+          <t>-39.84203565825463,176.99701565916004</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -54295,7 +54295,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>-39.84190113180926,176.99684438998986</t>
+          <t>-39.84188950922451,176.9968295930191</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -54423,7 +54423,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>-39.84204349224399,176.99702563285078</t>
+          <t>-39.84204188691838,176.9970235890615</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -54475,7 +54475,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>-39.84190318663066,176.9968470060294</t>
+          <t>-39.841902801351644,176.996846515522</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -54527,7 +54527,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>-39.8419540434385,176.99691175305836</t>
+          <t>-39.841959052061284,176.99691812966486</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -54607,7 +54607,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>-39.84195975840549,176.99691902893</t>
+          <t>-39.841948135831636,176.9969042319339</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -54659,7 +54659,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>-39.84199347027879,176.996961948422</t>
+          <t>-39.842002203256335,176.99697306662114</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -54787,7 +54787,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>-39.84199815783306,176.99696791627855</t>
+          <t>-39.842008175071165,176.99698066950893</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -54835,7 +54835,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>-39.84195988683171,176.9969191924327</t>
+          <t>-39.841973243156986,176.99693619672175</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -54959,7 +54959,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>-39.8420474734513,176.99703070144858</t>
+          <t>-39.84204817979451,176.99703160071599</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -55003,7 +55003,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>-39.8420485008596,176.9970320094739</t>
+          <t>-39.842050491463134,176.9970345437731</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -55055,7 +55055,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>-39.84202724634696,176.99700494970776</t>
+          <t>-39.842021210320915,176.99699726506424</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -55107,7 +55107,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>-39.842006120253224,176.99697805346136</t>
+          <t>-39.84201144993711,176.99698483883503</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -55219,7 +55219,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>-39.8419944334749,176.99696317469386</t>
+          <t>-39.84199963473364,176.99696979656227</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -55271,7 +55271,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>-39.84197163782959,176.99693415293666</t>
+          <t>-39.84196162058564,176.99692139971987</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -55323,7 +55323,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>-39.842031741259596,176.99701067231553</t>
+          <t>-39.84204066687089,176.99702203578173</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -55403,7 +55403,7 @@
       <c r="C514" t="inlineStr"/>
       <c r="D514" t="inlineStr">
         <is>
-          <t>-39.84207444291359,176.9970650371266</t>
+          <t>-39.8420644256861,176.9970522838716</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -55495,7 +55495,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>-39.84207733249816,176.99706871595083</t>
+          <t>-39.84206949851304,176.99705874225026</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -55539,7 +55539,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>-39.84191923992043,176.99686744384388</t>
+          <t>-39.841918854641506,176.99686695333622</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -55591,7 +55591,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>-39.84196919773184,176.99693104638348</t>
+          <t>-39.84197189468197,176.99693447994227</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -55643,7 +55643,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>-39.84199109439497,176.99695892361837</t>
+          <t>-39.84199160809959,176.99695957762995</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -55695,7 +55695,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>-39.84196251956914,176.99692254423917</t>
+          <t>-39.84195808886464,176.99691690339432</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -55743,7 +55743,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>-39.84196919773184,176.99693104638348</t>
+          <t>-39.84197773807351,176.9969419193205</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -55791,7 +55791,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>-39.84196040053658,176.9969198464437</t>
+          <t>-39.841973435796284,176.99693644197598</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -55883,7 +55883,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>-39.84197934340076,176.99694396310593</t>
+          <t>-39.84196932615806,176.9969312098863</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -55971,7 +55971,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>-39.84193606376368,176.99688886268365</t>
+          <t>-39.84194479674924,176.99689998086416</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -56023,7 +56023,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>-39.842101797642044,176.99709986334184</t>
+          <t>-39.842098972271586,176.99709626626668</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -56115,7 +56115,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>-39.842026604216564,176.99700413219244</t>
+          <t>-39.8420330255203,176.99701230734647</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -56151,7 +56151,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>-39.84197420635341,176.99693742299283</t>
+          <t>-39.841966372355394,176.99692744932221</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -56191,7 +56191,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>-39.84200856034953,176.99698116001787</t>
+          <t>-39.8420174859641,176.99699252347637</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -56243,7 +56243,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>-39.84198653526633,176.99695311926592</t>
+          <t>-39.841997066210865,176.99696652650368</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -56295,7 +56295,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>-39.84198486572618,176.99695099372863</t>
+          <t>-39.8419754264022,176.9969389762696</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -56347,7 +56347,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>-39.84191468078655,176.99686163950358</t>
+          <t>-39.84192379905397,176.9968732481849</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -56395,7 +56395,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>-39.841986278414,176.99695279226017</t>
+          <t>-39.84199802940693,176.99696775277562</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -56447,7 +56447,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>-39.841903058204316,176.99684684252696</t>
+          <t>-39.84191179119447,176.99685796069676</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -56499,7 +56499,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>-39.841938889141495,176.99689245974173</t>
+          <t>-39.84194248507672,176.9968970378161</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -56551,7 +56551,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>-39.841966757634005,176.99692793983056</t>
+          <t>-39.84197818756515,176.9969424915804</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -56603,7 +56603,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>-39.84204773030338,176.9970310284549</t>
+          <t>-39.84204702396017,176.99703012918752</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -56655,7 +56655,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>-39.84206551730713,176.9970536736492</t>
+          <t>-39.84206673735413,176.99705522693012</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -56771,7 +56771,7 @@
       <c r="C543" t="inlineStr"/>
       <c r="D543" t="inlineStr">
         <is>
-          <t>-39.84212298791644,176.997126841415</t>
+          <t>-39.84213473888369,176.99714180198998</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -56823,7 +56823,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>-39.84209871541972,176.99709593925985</t>
+          <t>-39.84208465277843,176.9970780356403</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>-39.84192630336662,176.99687643648522</t>
+          <t>-39.84193343102516,176.9968855108798</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -56927,7 +56927,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>-39.842094413150804,176.997090461896</t>
+          <t>-39.84208067157347,176.99707296703698</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -56979,7 +56979,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>-39.842099871253104,176.99709741079056</t>
+          <t>-39.84210577884566,176.99710493194826</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -57019,7 +57019,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>-39.84205627063434,176.99704190141676</t>
+          <t>-39.8420566559124,176.99704239192639</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -57071,7 +57071,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>-39.84202602629919,176.99700339642865</t>
+          <t>-39.842032640242095,176.9970118168372</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -57123,7 +57123,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>-39.84207476397856,176.99706544588483</t>
+          <t>-39.842067251058126,176.99705588094315</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -57159,7 +57159,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>-39.84211008111381,176.9971104093139</t>
+          <t>-39.842111686437654,176.99711245310723</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -57211,7 +57211,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>-39.842078231479995,176.997069860474</t>
+          <t>-39.8420878634274,176.99708212322403</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -57263,7 +57263,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>-39.84205460109603,176.99703977587515</t>
+          <t>-39.84206513202912,176.99705318313946</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
@@ -57335,7 +57335,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>-39.842117594029084,176.9971199742675</t>
+          <t>-39.84210776944739,176.99710746625166</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -57387,7 +57387,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>-39.842002845386986,176.99697388413588</t>
+          <t>-39.842005157057294,176.99697682718912</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -57467,7 +57467,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>-39.84203841941493,176.997019174477</t>
+          <t>-39.842049849332966,176.99703372625723</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -57587,7 +57587,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>-39.84204830822055,176.99703176421914</t>
+          <t>-39.842062242444,176.99704950431652</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -57667,7 +57667,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>-39.842069305874055,176.99705849699535</t>
+          <t>-39.842075341895466,176.99706618164964</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -57711,7 +57711,7 @@
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>-39.841969775649744,176.99693178214608</t>
+          <t>-39.841972986304604,176.9969358697161</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -57743,7 +57743,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>-39.84177225584555,176.99668031557184</t>
+          <t>-39.84177456752437,176.99668325860532</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -57859,7 +57859,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>-39.84207213124585,176.99706209406742</t>
+          <t>-39.84206481096411,176.99705277438133</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -57911,7 +57911,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>-39.841980113957824,176.996944944123</t>
+          <t>-39.84198191192427,176.99694723316287</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -57963,7 +57963,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>-39.84202968644244,176.9970080562662</t>
+          <t>-39.84203752043252,176.99701802995517</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -58015,7 +58015,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>-39.841982489842046,176.9969479689257</t>
+          <t>-39.841972151534364,176.99693480694785</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -58067,7 +58067,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>-39.84196842717464,176.99693006536677</t>
+          <t>-39.84197735279497,176.996941428812</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -58119,7 +58119,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>-39.84203899733219,176.99701991024105</t>
+          <t>-39.84202827375558,176.99700625773232</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -58159,7 +58159,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>-39.84202576944702,176.99700306942253</t>
+          <t>-39.842015431146486,176.9969899074281</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -58211,7 +58211,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>-39.841958730995735,176.99691772090802</t>
+          <t>-39.84194640207734,176.99690202464765</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -58263,7 +58263,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>-39.842036749876165,176.9970170489365</t>
+          <t>-39.84204368488305,176.9970258781055</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -58315,7 +58315,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>-39.84207746092413,176.99706887945416</t>
+          <t>-39.842078873609864,176.99707067799054</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -58367,7 +58367,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>-39.84206063711887,176.99704746052615</t>
+          <t>-39.84205241785359,176.99703699632084</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -58455,7 +58455,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>-39.842070525920974,176.99706005027645</t>
+          <t>-39.842059994988816,176.99704664301</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -58543,7 +58543,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>-39.84201055095432,176.9969836943141</t>
+          <t>-39.84201966920777,176.9969953030278</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -58623,7 +58623,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>-39.84209274361353,176.99708833635202</t>
+          <t>-39.84208561597313,176.9970792619154</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -58675,7 +58675,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>-39.84208638652889,176.99708024293545</t>
+          <t>-39.84209171620596,176.997087028325</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -58759,7 +58759,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>-39.84207463555258,176.99706528238153</t>
+          <t>-39.84207181018088,176.99706168530923</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -58811,7 +58811,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>-39.84204182270536,176.99702350730993</t>
+          <t>-39.842045932338834,176.99702873941067</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -58863,7 +58863,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>-39.84206172873997,176.9970488503036</t>
+          <t>-39.842070140643,176.99705955976663</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -58895,7 +58895,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>-39.84204496914351,176.997027513137</t>
+          <t>-39.8420474734513,176.99703070144858</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -58983,7 +58983,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>-39.84206712263213,176.9970557174399</t>
+          <t>-39.84205787595957,176.9970439452069</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -59035,7 +59035,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>-39.84197760964733,176.99694175581766</t>
+          <t>-39.84196817032224,176.9969297383612</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -59087,7 +59087,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>-39.841873776993104,176.99680956397822</t>
+          <t>-39.84188321633243,176.99682158140163</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -59139,7 +59139,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>-39.84193542163234,176.99688804517046</t>
+          <t>-39.84194595258547,176.99690145238824</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -59191,7 +59191,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>-39.842034373994,176.997014024129</t>
+          <t>-39.84204041001879,176.99702170877546</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -59243,7 +59243,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>-39.84191557977071,176.99686278402132</t>
+          <t>-39.84191397444183,176.9968607402397</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -59295,7 +59295,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>-39.84195539191391,176.99691346983695</t>
+          <t>-39.841959822618605,176.99691911068135</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>-39.84197048199382,176.99693268141144</t>
+          <t>-39.84197227996055,176.99693497045067</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -59399,7 +59399,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>-39.84206648050213,176.9970548999236</t>
+          <t>-39.84206988379103,176.99705923276008</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -59491,7 +59491,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>-39.84205408739194,176.99703912186234</t>
+          <t>-39.84204888613771,176.99703249998342</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -59567,7 +59567,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>-39.84207431448761,176.9970648736233</t>
+          <t>-39.84206737948412,176.99705604444642</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -59683,7 +59683,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>-39.84200425807441,176.9969756826684</t>
+          <t>-39.84201350475488,176.996987454883</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -59735,7 +59735,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>-39.84209434893784,176.99709038014433</t>
+          <t>-39.84208523069526,176.99707877140534</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -59787,7 +59787,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>-39.84209107407622,176.99708621080813</t>
+          <t>-39.84208253375002,176.99707533783524</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -59839,7 +59839,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>-39.8419910301819,176.9969588418669</t>
+          <t>-39.8420031664523,176.99697429289327</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -59887,7 +59887,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>-39.842065774159124,176.9970540006557</t>
+          <t>-39.84207431448761,176.9970648736233</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -59931,7 +59931,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>-39.8420169722597,176.9969918694643</t>
+          <t>-39.842021788238306,176.99699800082794</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -59983,7 +59983,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>-39.842001368486464,176.99697200385197</t>
+          <t>-39.84199854311149,176.99696840678735</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -60035,7 +60035,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>-39.84207084698596,176.99706045903463</t>
+          <t>-39.842062820361036,176.99705024008108</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -60127,7 +60127,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>-39.842051390445356,176.99703568829537</t>
+          <t>-39.84205941707175,176.9970459072455</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -60179,7 +60179,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>-39.84207617666436,176.9970672444211</t>
+          <t>-39.842085423334204,176.99707901666036</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -60231,7 +60231,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>-39.84213615156813,176.99714360052943</t>
+          <t>-39.84214539822912,176.99715537278925</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -60283,7 +60283,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>-39.84205222521456,176.99703675106608</t>
+          <t>-39.84205614220832,176.99704173791355</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -60335,7 +60335,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>-39.842114511807544,176.99711605018373</t>
+          <t>-39.84211521814999,176.9971169494529</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -60451,7 +60451,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>-39.8420608939709,176.9970477875326</t>
+          <t>-39.84206911323506,176.99705825174044</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -60503,7 +60503,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>-39.84206917744807,176.9970583334921</t>
+          <t>-39.84205883915468,176.99704517148103</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -60547,7 +60547,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>-39.842051647297424,176.99703601530175</t>
+          <t>-39.84206249929602,176.99704983132298</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -60599,7 +60599,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>-39.8420644898991,176.99705236562323</t>
+          <t>-39.84206911323506,176.99705825174044</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -60639,7 +60639,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>-39.84197157361648,176.99693407118525</t>
+          <t>-39.84197195889507,176.99693456169365</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -60691,7 +60691,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>-39.84195995104483,176.99691927418408</t>
+          <t>-39.84196316170019,176.99692336175295</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -60743,7 +60743,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>-39.84188148257633,176.99681937411953</t>
+          <t>-39.8418803909521,176.99681798434938</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -60795,7 +60795,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>-39.841997387276216,176.99696693526099</t>
+          <t>-39.84199327763957,176.99696170316767</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -60847,7 +60847,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>-39.84201999027302,176.9969957117854</t>
+          <t>-39.84201055095432,176.9969836943141</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -60899,7 +60899,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>-39.84199032383804,176.99695794260097</t>
+          <t>-39.84199796519385,176.99696767102415</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -60951,7 +60951,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>-39.84200066214274,176.99697110458578</t>
+          <t>-39.84199263550881,176.99696088565315</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -61003,7 +61003,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>-39.842002652747794,176.99697363888146</t>
+          <t>-39.84199321342649,176.9969616214162</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -61079,7 +61079,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>-39.842071681754895,176.99706152180593</t>
+          <t>-39.842061150822914,176.99704811453907</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -61131,7 +61131,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>-39.841944218831124,176.9968992451021</t>
+          <t>-39.84193529320608,176.99688788166785</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -61183,7 +61183,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>-39.84210346717908,176.99710198888639</t>
+          <t>-39.842101348151296,176.99709929107988</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -61275,7 +61275,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>-39.842043877522116,176.9970261233602</t>
+          <t>-39.8420474734513,176.99703070144858</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -61327,7 +61327,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>-39.841981655071926,176.99694690615715</t>
+          <t>-39.841982875120564,176.9969484594343</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -61475,7 +61475,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>-39.841921102101765,176.99686981463097</t>
+          <t>-39.841924698038014,176.99687439270295</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -61527,7 +61527,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>-39.84196431753608,176.99692483327786</t>
+          <t>-39.84196162058564,176.99692139971987</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -61615,7 +61615,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>-39.84204753766433,176.99703078320016</t>
+          <t>-39.84205768332054,176.99704369995206</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -61691,7 +61691,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-39.842037905710704,176.9970185204645</t>
+          <t>-39.842046124977884,176.99702898466538</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -61743,7 +61743,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>-39.842021210320915,176.99699726506424</t>
+          <t>-39.842033346585474,176.9970127161042</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -61795,7 +61795,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>-39.84201600906395,176.99699064319165</t>
+          <t>-39.8420251273166,176.99700225190725</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -61847,7 +61847,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>-39.84193657746874,176.99688951669418</t>
+          <t>-39.84194370512611,176.99689859109142</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -61935,7 +61935,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>-39.84201716489887,176.9969921147188</t>
+          <t>-39.84202949380332,176.99700781101154</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -62031,7 +62031,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>-39.84205119780631,176.9970354430406</t>
+          <t>-39.8420581328116,176.99704427221332</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -62083,7 +62083,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>-39.84215445225003,176.99716689979672</t>
+          <t>-39.84214892993955,176.9971598691393</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>-39.84204111636207,176.99702260804267</t>
+          <t>-39.84204471229141,176.99702718613068</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -62187,7 +62187,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>-39.842106613614135,176.9971059947206</t>
+          <t>-39.84210609991045,176.99710534070687</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -62283,7 +62283,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>-39.84214860887498,176.9971594603802</t>
+          <t>-39.84213936221446,176.99714768811927</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -62363,7 +62363,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>-39.84203097070317,176.997009691297</t>
+          <t>-39.84204098793602,176.99702244453954</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -62447,7 +62447,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>-39.84219394317693,176.99721717720539</t>
+          <t>-39.84218803559269,176.99720965602836</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -62499,7 +62499,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>-39.84214083911172,176.99714956841072</t>
+          <t>-39.84214334341568,176.99715275673123</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -62551,7 +62551,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>-39.842172752926565,176.99719019907647</t>
+          <t>-39.842167037979024,176.99718292315973</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -62603,7 +62603,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>-39.84211425495575,176.99711572317676</t>
+          <t>-39.84212266685173,176.99712643265616</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -62647,7 +62647,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>-39.84213332619921,176.99714000345065</t>
+          <t>-39.8421413528151,176.99715022242518</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -62735,7 +62735,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>-39.84215014998494,176.997161422424</t>
+          <t>-39.84213518837419,176.99714237425252</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -62787,7 +62787,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>-39.842129152358545,176.99713468958484</t>
+          <t>-39.84213505994835,176.99714221074896</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -62839,7 +62839,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>-39.84212125416698,176.99712463411745</t>
+          <t>-39.84211252120605,176.9971135158798</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -62891,7 +62891,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>-39.84208009365661,176.99707223127206</t>
+          <t>-39.842091523567035,176.99708678306996</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -62943,7 +62943,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>-39.842091523567035,176.99708678306996</t>
+          <t>-39.842097238521475,176.9970940589707</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -62995,7 +62995,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>-39.84213904114983,176.9971472793603</t>
+          <t>-39.842135316800054,176.9971425377561</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -63047,7 +63047,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>-39.842071681754895,176.99706152180593</t>
+          <t>-39.84207328707974,176.99706356559696</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -63099,7 +63099,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>-39.84210211870686,176.9971002721004</t>
+          <t>-39.84209871541972,176.99709593925985</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -63151,7 +63151,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>-39.84212074046344,176.9971239801034</t>
+          <t>-39.84212677647989,176.9971316647692</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -63203,7 +63203,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>-39.84214918679121,176.9971601961466</t>
+          <t>-39.84214559086788,176.99715561804467</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -63255,7 +63255,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>-39.842194328454156,176.99721766771697</t>
+          <t>-39.842187521889684,176.99720900201305</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -63307,7 +63307,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>-39.84207001221701,176.99705939626335</t>
+          <t>-39.842079836804665,176.99707190426543</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -63359,7 +63359,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>-39.84198820480644,176.99695524480336</t>
+          <t>-39.8419796644662,176.99694437186304</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -63411,7 +63411,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>-39.84211252120605,176.9971135158798</t>
+          <t>-39.84212427217526,176.99712847645026</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -63463,7 +63463,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>-39.84211579606655,176.9971176852186</t>
+          <t>-39.842124015323506,176.9971281494432</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -63515,7 +63515,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>-39.84204830822055,176.99703176421914</t>
+          <t>-39.842044005948175,176.99702628686336</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -63567,7 +63567,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>-39.841943512486736,176.99689834583742</t>
+          <t>-39.841944218831124,176.9968992451021</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -63619,7 +63619,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>-39.842045932338834,176.99702873941067</t>
+          <t>-39.84203752043252,176.99701802995517</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -63667,7 +63667,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>-39.84212876708092,176.99713419907417</t>
+          <t>-39.84211483287229,176.99711645894243</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -63719,7 +63719,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>-39.84217455088747,176.9971924881292</t>
+          <t>-39.84216562529528,176.99718112461866</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -63771,7 +63771,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>-39.842152461649796,176.99716436548988</t>
+          <t>-39.84214482031285,176.99715463702293</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -63823,7 +63823,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>-39.84212658384108,176.9971314195139</t>
+          <t>-39.8421387200852,176.99714687060126</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -63875,7 +63875,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>-39.8421585618761,176.99717213191462</t>
+          <t>-39.8421525258627,176.99716444724172</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -63927,7 +63927,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>-39.842161001966446,176.99717523848489</t>
+          <t>-39.84216029562452,176.99717433921452</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -63979,7 +63979,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>-39.84217821102204,176.99719714798687</t>
+          <t>-39.84217461510037,176.99719256988107</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -64031,7 +64031,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>-39.842154901740386,176.9971674720596</t>
+          <t>-39.84215920400514,176.9971729494331</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -64083,7 +64083,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>-39.84217602778391,176.99719436842258</t>
+          <t>-39.84217012019798,176.9971868472495</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -64135,7 +64135,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>-39.84213685791034,176.99714449979913</t>
+          <t>-39.84212382268468,176.9971279041879</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -64187,7 +64187,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>-39.842130950320715,176.99713697863464</t>
+          <t>-39.84212273106466,176.99712651440794</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -64239,7 +64239,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>-39.84211207171538,176.99711294361765</t>
+          <t>-39.84212029097282,176.99712340784112</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -64291,7 +64291,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>-39.84215849766319,176.99717205016276</t>
+          <t>-39.842166524275854,176.9971822691448</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -64371,7 +64371,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>-39.84203617195888,176.99701631317248</t>
+          <t>-39.84202223772963,176.9969985730886</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -64423,7 +64423,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>-39.84196380383124,176.99692417926678</t>
+          <t>-39.84195218125813,176.996909382269</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -64475,7 +64475,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>-39.84202898009901,176.99700715699925</t>
+          <t>-39.84203501612433,176.99701484164453</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -64527,7 +64527,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>-39.84201877022509,176.99699415850662</t>
+          <t>-39.842030392785844,176.99700895553312</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -64579,7 +64579,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>-39.84206904902208,176.99705816998883</t>
+          <t>-39.84206564573313,176.99705383715246</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -64631,7 +64631,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>-39.84206564573313,176.99705383715246</t>
+          <t>-39.8420681500401,176.99705702546595</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -64683,7 +64683,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>-39.84212067625049,176.99712389835165</t>
+          <t>-39.842123373194084,176.99712733192555</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -64735,7 +64735,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>-39.842097238521475,176.9970940589707</t>
+          <t>-39.84210417352166,176.99710288815527</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -64787,7 +64787,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>-39.8421174656032,176.99711981076402</t>
+          <t>-39.84211374125214,176.99711506916285</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -64839,7 +64839,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>-39.842153039566,176.99716510125637</t>
+          <t>-39.84214681091332,176.9971571713292</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
@@ -64891,7 +64891,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>-39.84210886106764,176.99710885603102</t>
+          <t>-39.84212189629641,176.99712545163504</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -64943,7 +64943,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>-39.84203193389872,176.99701091757018</t>
+          <t>-39.84202140296005,176.9969975103188</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -64995,7 +64995,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>-39.842023778842695,176.99700053512515</t>
+          <t>-39.842014532163745,176.99698876290705</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -65047,7 +65047,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>-39.84200297381312,176.99697404763884</t>
+          <t>-39.842011514150165,176.99698492058653</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>-39.84212311634232,176.9971270049185</t>
+          <t>-39.84211470444639,176.99711629543896</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -65151,7 +65151,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>-39.84208991824266,176.9970847392778</t>
+          <t>-39.84208869819611,176.99708318599585</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -65203,7 +65203,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>-39.842025962086154,176.99700331467713</t>
+          <t>-39.842020054486056,176.99699579353694</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -65255,7 +65255,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>-39.841991929164976,176.9969599863872</t>
+          <t>-39.84198640684017,176.99695295576305</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -65307,7 +65307,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>-39.842070204856,176.99705964151826</t>
+          <t>-39.84206018762784,176.99704688826486</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -65359,7 +65359,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>-39.84207752513712,176.9970689612058</t>
+          <t>-39.84206346249107,176.99705105759728</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -65411,7 +65411,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>-39.84214937942996,176.9971604414021</t>
+          <t>-39.84214276549939,176.99715202096493</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -65463,7 +65463,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>-39.84209762379928,176.99709454948092</t>
+          <t>-39.842094027872974,176.99708997138586</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
